--- a/GATEWAY/A1#111PROACTIVEXX/Proactive/Labpro/5.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111PROACTIVEXX/Proactive/Labpro/5.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vb_net_prj\API_REGIONETOSCANA\FSE 2.0\perValidazione\TESTCASEVALIDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585D3B2B-992A-4B5D-B174-CD42EB6AFD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4355D0E9-EE94-46E4-A31B-D48EE33F81DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="186">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1743,10 +1743,10 @@
   <dimension ref="A1:T644"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -2000,7 +2000,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="225">
+    <row r="10" spans="1:20" ht="36" customHeight="1">
       <c r="A10" s="20">
         <v>1</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="225">
+    <row r="11" spans="1:20" ht="36" customHeight="1">
       <c r="A11" s="20">
         <v>2</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="225">
+    <row r="12" spans="1:20" ht="36" customHeight="1">
       <c r="A12" s="20">
         <v>3</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="225">
+    <row r="13" spans="1:20" ht="36" customHeight="1">
       <c r="A13" s="20">
         <v>4</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="225">
+    <row r="14" spans="1:20" ht="36" customHeight="1">
       <c r="A14" s="20">
         <v>5</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="210">
+    <row r="15" spans="1:20" ht="36" customHeight="1">
       <c r="A15" s="20">
         <v>28</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="210">
+    <row r="16" spans="1:20" ht="36" customHeight="1">
       <c r="A16" s="20">
         <v>36</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="90">
+    <row r="17" spans="1:20" ht="36" customHeight="1">
       <c r="A17" s="20">
         <v>44</v>
       </c>
@@ -2344,9 +2344,7 @@
       <c r="E17" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="23">
-        <v>45294</v>
-      </c>
+      <c r="F17" s="23"/>
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -2361,7 +2359,9 @@
       <c r="N17" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="O17" s="25"/>
+      <c r="O17" s="25" t="s">
+        <v>71</v>
+      </c>
       <c r="P17" s="25" t="s">
         <v>172</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="180">
+    <row r="18" spans="1:20" ht="36" customHeight="1">
       <c r="A18" s="20">
         <v>52</v>
       </c>
@@ -2388,9 +2388,7 @@
       <c r="E18" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="23">
-        <v>45294</v>
-      </c>
+      <c r="F18" s="23"/>
       <c r="G18" s="33"/>
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
@@ -2412,7 +2410,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="180">
+    <row r="19" spans="1:20" ht="36" customHeight="1">
       <c r="A19" s="20">
         <v>53</v>
       </c>
@@ -2452,7 +2450,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="180">
+    <row r="20" spans="1:20" ht="36" customHeight="1">
       <c r="A20" s="20">
         <v>54</v>
       </c>
@@ -2490,7 +2488,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="180">
+    <row r="21" spans="1:20" ht="36" customHeight="1">
       <c r="A21" s="20">
         <v>55</v>
       </c>
@@ -2528,7 +2526,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="180">
+    <row r="22" spans="1:20" ht="36" customHeight="1">
       <c r="A22" s="20">
         <v>56</v>
       </c>
@@ -2566,7 +2564,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="180">
+    <row r="23" spans="1:20" ht="36" customHeight="1">
       <c r="A23" s="20">
         <v>57</v>
       </c>
@@ -2604,7 +2602,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="180">
+    <row r="24" spans="1:20" ht="36" customHeight="1">
       <c r="A24" s="20">
         <v>58</v>
       </c>
@@ -2642,7 +2640,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="180">
+    <row r="25" spans="1:20" ht="36" customHeight="1">
       <c r="A25" s="20">
         <v>59</v>
       </c>
@@ -2680,7 +2678,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="180">
+    <row r="26" spans="1:20" ht="36" customHeight="1">
       <c r="A26" s="20">
         <v>60</v>
       </c>
@@ -2718,7 +2716,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="180">
+    <row r="27" spans="1:20" ht="36" customHeight="1">
       <c r="A27" s="20">
         <v>61</v>
       </c>

--- a/GATEWAY/A1#111PROACTIVEXX/Proactive/Labpro/5.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111PROACTIVEXX/Proactive/Labpro/5.0/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vb_net_prj\API_REGIONETOSCANA\FSE 2.0\perValidazione\TESTCASEVALIDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4355D0E9-EE94-46E4-A31B-D48EE33F81DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD3140D-D980-439D-B2AC-5B580210BA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,6 +45,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -85,6 +86,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>3) Se il test è applicabile la colonna APPLICABILITA' deve essere compilata con SI e dovranno essere valorizzate:
     DATA ESECUZIONE, 
@@ -97,6 +99,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>o il WORKFLOWINSTANCEID puo' essere lasciato blank)</t>
     </r>
@@ -105,6 +108,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, 
     ERRORE BLOCCANTE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) ,
@@ -143,6 +147,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Obiettivo</t>
     </r>
@@ -151,6 +156,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: In questo foglio si riportano i pre requisiti/assunzioni necessari all'accreditamento del software dei </t>
     </r>
@@ -160,6 +166,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>client</t>
     </r>
@@ -168,6 +175,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> che ne hanno fatto richiesta, e utili alla compilazione della presente Checklist.</t>
     </r>
@@ -194,6 +202,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>I file CDA2 necessari all'esecuzione dei test di accreditamento devono essere costruiti secondo le specifiche nazionali HL7 - http://www.hl7italia.it/hl7italia_D7/node/2359 e coerentemente ai casi di test descritti.</t>
     </r>
@@ -202,6 +211,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -367,6 +377,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Precondizioni:</t>
     </r>
@@ -375,6 +386,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Il fornitore utilizza un token jwt mancante di campi obbligatori, quindi non valido.
@@ -387,6 +399,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Descrizione di Business del caso di test: </t>
     </r>
@@ -395,6 +408,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
@@ -421,6 +435,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Precondizioni:</t>
     </r>
@@ -429,6 +444,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Il fornitore utilizza un token jwt con dei campi valorizzati in maniera errata.
@@ -441,6 +457,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Descrizione di Business del caso di test: </t>
     </r>
@@ -449,6 +466,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt avente dei campi valorizzati in maniera errata al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
@@ -755,22 +773,10 @@
     <t>20240103153951</t>
   </si>
   <si>
-    <t>20240103155656</t>
-  </si>
-  <si>
-    <t>081c87df195e363d</t>
-  </si>
-  <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
     <t>Il campo purpose_of_use non è valorizzato</t>
-  </si>
-  <si>
-    <t>20240103155934</t>
-  </si>
-  <si>
-    <t>3ef0b18bfc50562f</t>
   </si>
   <si>
     <t>Il campo action_id non è corretto</t>
@@ -817,6 +823,18 @@
   </si>
   <si>
     <t>L'utente riceve una segnalazione che indica di aprire un ticket verso Proactive e uno dei Nostri addetti risolverà il proplema in assistenza remota</t>
+  </si>
+  <si>
+    <t>0ed9c44f781b1f31</t>
+  </si>
+  <si>
+    <t>20240110132717</t>
+  </si>
+  <si>
+    <t>23102b9be18ec2b9</t>
+  </si>
+  <si>
+    <t>20240110133242</t>
   </si>
 </sst>
 </file>
@@ -826,7 +844,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -838,38 +856,45 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -877,6 +902,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1553,69 +1579,69 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="130.140625" customWidth="1"/>
     <col min="2" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="90">
+    <row r="2" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="30">
+    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="195">
+    <row r="4" spans="1:1" ht="195" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="30">
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="30">
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="45">
+    <row r="10" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
     </row>
   </sheetData>
@@ -1632,27 +1658,27 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="194.140625" customWidth="1"/>
     <col min="3" max="6" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1660,7 +1686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1668,7 +1694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1676,7 +1702,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="75">
+    <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -1684,7 +1710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -1692,7 +1718,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>6</v>
       </c>
@@ -1700,7 +1726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>7</v>
       </c>
@@ -1708,7 +1734,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="45">
+    <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -1716,7 +1742,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="45">
+    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>9</v>
       </c>
@@ -1724,7 +1750,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30">
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>10</v>
       </c>
@@ -1746,10 +1772,10 @@
       <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
@@ -1766,7 +1792,7 @@
     <col min="19" max="20" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C1" s="4"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -1784,7 +1810,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="15"/>
     </row>
-    <row r="2" spans="1:20" ht="18.75">
+    <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>22</v>
       </c>
@@ -1809,7 +1835,7 @@
       <c r="S2" s="2"/>
       <c r="T2" s="15"/>
     </row>
-    <row r="3" spans="1:20" ht="15.75">
+    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>23</v>
       </c>
@@ -1834,7 +1860,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="15"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75">
+    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="41"/>
       <c r="B4" s="42"/>
       <c r="C4" s="45" t="s">
@@ -1858,7 +1884,7 @@
       <c r="S4" s="2"/>
       <c r="T4" s="15"/>
     </row>
-    <row r="5" spans="1:20" ht="15.75">
+    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="43"/>
       <c r="B5" s="44"/>
       <c r="C5" s="45" t="s">
@@ -1881,7 +1907,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="15"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
       <c r="B6" s="35"/>
       <c r="C6" s="16"/>
@@ -1901,7 +1927,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="15"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -1921,7 +1947,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="15"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -1938,7 +1964,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="15"/>
     </row>
-    <row r="9" spans="1:20" ht="37.5">
+    <row r="9" spans="1:20" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>24</v>
       </c>
@@ -2000,7 +2026,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="36" customHeight="1">
+    <row r="10" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>1</v>
       </c>
@@ -2044,7 +2070,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="36" customHeight="1">
+    <row r="11" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>2</v>
       </c>
@@ -2088,7 +2114,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="36" customHeight="1">
+    <row r="12" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>3</v>
       </c>
@@ -2132,7 +2158,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="36" customHeight="1">
+    <row r="13" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>4</v>
       </c>
@@ -2176,7 +2202,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="36" customHeight="1">
+    <row r="14" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>5</v>
       </c>
@@ -2220,7 +2246,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="36" customHeight="1">
+    <row r="15" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>28</v>
       </c>
@@ -2237,16 +2263,16 @@
         <v>63</v>
       </c>
       <c r="F15" s="23">
-        <v>45294</v>
+        <v>45301</v>
       </c>
       <c r="G15" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="I15" s="24" t="s">
         <v>165</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="I15" s="24" t="s">
-        <v>167</v>
       </c>
       <c r="J15" s="25" t="s">
         <v>71</v>
@@ -2259,13 +2285,13 @@
         <v>71</v>
       </c>
       <c r="N15" s="25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O15" s="25" t="s">
         <v>71</v>
       </c>
       <c r="P15" s="25" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Q15" s="25"/>
       <c r="R15" s="26"/>
@@ -2274,7 +2300,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="36" customHeight="1">
+    <row r="16" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>36</v>
       </c>
@@ -2291,16 +2317,16 @@
         <v>68</v>
       </c>
       <c r="F16" s="23">
-        <v>45294</v>
+        <v>45301</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J16" s="25" t="s">
         <v>71</v>
@@ -2313,13 +2339,13 @@
         <v>71</v>
       </c>
       <c r="N16" s="25" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="O16" s="25" t="s">
         <v>71</v>
       </c>
       <c r="P16" s="25" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Q16" s="25"/>
       <c r="R16" s="26"/>
@@ -2328,7 +2354,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="36" customHeight="1">
+    <row r="17" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>44</v>
       </c>
@@ -2357,13 +2383,13 @@
         <v>71</v>
       </c>
       <c r="N17" s="25" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="O17" s="25" t="s">
         <v>71</v>
       </c>
       <c r="P17" s="25" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q17" s="25"/>
       <c r="R17" s="26"/>
@@ -2372,7 +2398,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="36" customHeight="1">
+    <row r="18" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>52</v>
       </c>
@@ -2396,7 +2422,7 @@
         <v>145</v>
       </c>
       <c r="K18" s="25" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
@@ -2410,7 +2436,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="36" customHeight="1">
+    <row r="19" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>53</v>
       </c>
@@ -2434,14 +2460,14 @@
         <v>145</v>
       </c>
       <c r="K19" s="25" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
       <c r="O19" s="25"/>
       <c r="P19" s="25" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="Q19" s="25"/>
       <c r="R19" s="26"/>
@@ -2450,7 +2476,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="36" customHeight="1">
+    <row r="20" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>54</v>
       </c>
@@ -2474,7 +2500,7 @@
         <v>145</v>
       </c>
       <c r="K20" s="25" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L20" s="25"/>
       <c r="M20" s="25"/>
@@ -2488,7 +2514,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="36" customHeight="1">
+    <row r="21" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <v>55</v>
       </c>
@@ -2512,7 +2538,7 @@
         <v>145</v>
       </c>
       <c r="K21" s="25" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
@@ -2526,7 +2552,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="36" customHeight="1">
+    <row r="22" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>56</v>
       </c>
@@ -2550,7 +2576,7 @@
         <v>145</v>
       </c>
       <c r="K22" s="25" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L22" s="25"/>
       <c r="M22" s="25"/>
@@ -2564,7 +2590,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="36" customHeight="1">
+    <row r="23" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <v>57</v>
       </c>
@@ -2588,7 +2614,7 @@
         <v>145</v>
       </c>
       <c r="K23" s="25" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
@@ -2602,7 +2628,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="36" customHeight="1">
+    <row r="24" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>58</v>
       </c>
@@ -2626,7 +2652,7 @@
         <v>145</v>
       </c>
       <c r="K24" s="25" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
@@ -2640,7 +2666,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="36" customHeight="1">
+    <row r="25" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>59</v>
       </c>
@@ -2664,7 +2690,7 @@
         <v>145</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
@@ -2678,7 +2704,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="36" customHeight="1">
+    <row r="26" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
         <v>60</v>
       </c>
@@ -2702,7 +2728,7 @@
         <v>145</v>
       </c>
       <c r="K26" s="25" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L26" s="25"/>
       <c r="M26" s="25"/>
@@ -2716,7 +2742,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="36" customHeight="1">
+    <row r="27" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <v>61</v>
       </c>
@@ -2740,7 +2766,7 @@
         <v>145</v>
       </c>
       <c r="K27" s="25" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L27" s="25"/>
       <c r="M27" s="25"/>
@@ -2754,7 +2780,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
@@ -2771,7 +2797,7 @@
       <c r="S28" s="2"/>
       <c r="T28" s="15"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
@@ -2788,7 +2814,7 @@
       <c r="S29" s="2"/>
       <c r="T29" s="15"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
@@ -2805,7 +2831,7 @@
       <c r="S30" s="2"/>
       <c r="T30" s="15"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
@@ -2822,7 +2848,7 @@
       <c r="S31" s="2"/>
       <c r="T31" s="15"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
@@ -2839,7 +2865,7 @@
       <c r="S32" s="2"/>
       <c r="T32" s="15"/>
     </row>
-    <row r="33" spans="6:20">
+    <row r="33" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
@@ -2856,7 +2882,7 @@
       <c r="S33" s="2"/>
       <c r="T33" s="15"/>
     </row>
-    <row r="34" spans="6:20">
+    <row r="34" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
@@ -2873,7 +2899,7 @@
       <c r="S34" s="2"/>
       <c r="T34" s="15"/>
     </row>
-    <row r="35" spans="6:20">
+    <row r="35" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
@@ -2890,7 +2916,7 @@
       <c r="S35" s="2"/>
       <c r="T35" s="15"/>
     </row>
-    <row r="36" spans="6:20">
+    <row r="36" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
@@ -2907,7 +2933,7 @@
       <c r="S36" s="2"/>
       <c r="T36" s="15"/>
     </row>
-    <row r="37" spans="6:20">
+    <row r="37" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
@@ -2924,7 +2950,7 @@
       <c r="S37" s="2"/>
       <c r="T37" s="15"/>
     </row>
-    <row r="38" spans="6:20">
+    <row r="38" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
@@ -2941,7 +2967,7 @@
       <c r="S38" s="2"/>
       <c r="T38" s="15"/>
     </row>
-    <row r="39" spans="6:20">
+    <row r="39" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
@@ -2958,7 +2984,7 @@
       <c r="S39" s="2"/>
       <c r="T39" s="15"/>
     </row>
-    <row r="40" spans="6:20">
+    <row r="40" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
@@ -2975,7 +3001,7 @@
       <c r="S40" s="2"/>
       <c r="T40" s="15"/>
     </row>
-    <row r="41" spans="6:20">
+    <row r="41" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
@@ -2992,7 +3018,7 @@
       <c r="S41" s="2"/>
       <c r="T41" s="15"/>
     </row>
-    <row r="42" spans="6:20">
+    <row r="42" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
@@ -3009,7 +3035,7 @@
       <c r="S42" s="2"/>
       <c r="T42" s="15"/>
     </row>
-    <row r="43" spans="6:20">
+    <row r="43" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
@@ -3026,7 +3052,7 @@
       <c r="S43" s="2"/>
       <c r="T43" s="15"/>
     </row>
-    <row r="44" spans="6:20">
+    <row r="44" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
@@ -3043,7 +3069,7 @@
       <c r="S44" s="2"/>
       <c r="T44" s="15"/>
     </row>
-    <row r="45" spans="6:20">
+    <row r="45" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
@@ -3060,7 +3086,7 @@
       <c r="S45" s="2"/>
       <c r="T45" s="15"/>
     </row>
-    <row r="46" spans="6:20">
+    <row r="46" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
@@ -3077,7 +3103,7 @@
       <c r="S46" s="2"/>
       <c r="T46" s="15"/>
     </row>
-    <row r="47" spans="6:20">
+    <row r="47" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
@@ -3094,7 +3120,7 @@
       <c r="S47" s="2"/>
       <c r="T47" s="15"/>
     </row>
-    <row r="48" spans="6:20">
+    <row r="48" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
@@ -3111,7 +3137,7 @@
       <c r="S48" s="2"/>
       <c r="T48" s="15"/>
     </row>
-    <row r="49" spans="6:20">
+    <row r="49" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
@@ -3128,7 +3154,7 @@
       <c r="S49" s="2"/>
       <c r="T49" s="15"/>
     </row>
-    <row r="50" spans="6:20">
+    <row r="50" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
       <c r="H50" s="12"/>
@@ -3145,7 +3171,7 @@
       <c r="S50" s="2"/>
       <c r="T50" s="15"/>
     </row>
-    <row r="51" spans="6:20">
+    <row r="51" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F51" s="12"/>
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
@@ -3162,7 +3188,7 @@
       <c r="S51" s="2"/>
       <c r="T51" s="15"/>
     </row>
-    <row r="52" spans="6:20">
+    <row r="52" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F52" s="12"/>
       <c r="G52" s="12"/>
       <c r="H52" s="12"/>
@@ -3179,7 +3205,7 @@
       <c r="S52" s="2"/>
       <c r="T52" s="15"/>
     </row>
-    <row r="53" spans="6:20">
+    <row r="53" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
@@ -3196,7 +3222,7 @@
       <c r="S53" s="2"/>
       <c r="T53" s="15"/>
     </row>
-    <row r="54" spans="6:20">
+    <row r="54" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F54" s="12"/>
       <c r="G54" s="12"/>
       <c r="H54" s="12"/>
@@ -3213,7 +3239,7 @@
       <c r="S54" s="2"/>
       <c r="T54" s="15"/>
     </row>
-    <row r="55" spans="6:20">
+    <row r="55" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
@@ -3230,7 +3256,7 @@
       <c r="S55" s="2"/>
       <c r="T55" s="15"/>
     </row>
-    <row r="56" spans="6:20">
+    <row r="56" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
@@ -3247,7 +3273,7 @@
       <c r="S56" s="2"/>
       <c r="T56" s="15"/>
     </row>
-    <row r="57" spans="6:20">
+    <row r="57" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
@@ -3264,7 +3290,7 @@
       <c r="S57" s="2"/>
       <c r="T57" s="15"/>
     </row>
-    <row r="58" spans="6:20">
+    <row r="58" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
@@ -3281,7 +3307,7 @@
       <c r="S58" s="2"/>
       <c r="T58" s="15"/>
     </row>
-    <row r="59" spans="6:20">
+    <row r="59" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
@@ -3298,7 +3324,7 @@
       <c r="S59" s="2"/>
       <c r="T59" s="15"/>
     </row>
-    <row r="60" spans="6:20">
+    <row r="60" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F60" s="12"/>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
@@ -3315,7 +3341,7 @@
       <c r="S60" s="2"/>
       <c r="T60" s="15"/>
     </row>
-    <row r="61" spans="6:20">
+    <row r="61" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
@@ -3332,7 +3358,7 @@
       <c r="S61" s="2"/>
       <c r="T61" s="15"/>
     </row>
-    <row r="62" spans="6:20">
+    <row r="62" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
@@ -3349,7 +3375,7 @@
       <c r="S62" s="2"/>
       <c r="T62" s="15"/>
     </row>
-    <row r="63" spans="6:20">
+    <row r="63" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
@@ -3366,7 +3392,7 @@
       <c r="S63" s="2"/>
       <c r="T63" s="15"/>
     </row>
-    <row r="64" spans="6:20">
+    <row r="64" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F64" s="12"/>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
@@ -3383,7 +3409,7 @@
       <c r="S64" s="2"/>
       <c r="T64" s="15"/>
     </row>
-    <row r="65" spans="6:20">
+    <row r="65" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F65" s="12"/>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
@@ -3400,7 +3426,7 @@
       <c r="S65" s="2"/>
       <c r="T65" s="15"/>
     </row>
-    <row r="66" spans="6:20">
+    <row r="66" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
@@ -3417,7 +3443,7 @@
       <c r="S66" s="2"/>
       <c r="T66" s="15"/>
     </row>
-    <row r="67" spans="6:20">
+    <row r="67" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
       <c r="H67" s="12"/>
@@ -3434,7 +3460,7 @@
       <c r="S67" s="2"/>
       <c r="T67" s="15"/>
     </row>
-    <row r="68" spans="6:20">
+    <row r="68" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F68" s="12"/>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
@@ -3451,7 +3477,7 @@
       <c r="S68" s="2"/>
       <c r="T68" s="15"/>
     </row>
-    <row r="69" spans="6:20">
+    <row r="69" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
@@ -3468,7 +3494,7 @@
       <c r="S69" s="2"/>
       <c r="T69" s="15"/>
     </row>
-    <row r="70" spans="6:20">
+    <row r="70" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F70" s="12"/>
       <c r="G70" s="12"/>
       <c r="H70" s="12"/>
@@ -3485,7 +3511,7 @@
       <c r="S70" s="2"/>
       <c r="T70" s="15"/>
     </row>
-    <row r="71" spans="6:20">
+    <row r="71" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
@@ -3502,7 +3528,7 @@
       <c r="S71" s="2"/>
       <c r="T71" s="15"/>
     </row>
-    <row r="72" spans="6:20">
+    <row r="72" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
       <c r="H72" s="12"/>
@@ -3519,7 +3545,7 @@
       <c r="S72" s="2"/>
       <c r="T72" s="15"/>
     </row>
-    <row r="73" spans="6:20">
+    <row r="73" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
       <c r="H73" s="12"/>
@@ -3536,7 +3562,7 @@
       <c r="S73" s="2"/>
       <c r="T73" s="15"/>
     </row>
-    <row r="74" spans="6:20">
+    <row r="74" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
       <c r="H74" s="12"/>
@@ -3553,7 +3579,7 @@
       <c r="S74" s="2"/>
       <c r="T74" s="15"/>
     </row>
-    <row r="75" spans="6:20">
+    <row r="75" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
@@ -3570,7 +3596,7 @@
       <c r="S75" s="2"/>
       <c r="T75" s="15"/>
     </row>
-    <row r="76" spans="6:20">
+    <row r="76" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F76" s="12"/>
       <c r="G76" s="12"/>
       <c r="H76" s="12"/>
@@ -3587,7 +3613,7 @@
       <c r="S76" s="2"/>
       <c r="T76" s="15"/>
     </row>
-    <row r="77" spans="6:20">
+    <row r="77" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
       <c r="H77" s="12"/>
@@ -3604,7 +3630,7 @@
       <c r="S77" s="2"/>
       <c r="T77" s="15"/>
     </row>
-    <row r="78" spans="6:20">
+    <row r="78" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F78" s="12"/>
       <c r="G78" s="12"/>
       <c r="H78" s="12"/>
@@ -3621,7 +3647,7 @@
       <c r="S78" s="2"/>
       <c r="T78" s="15"/>
     </row>
-    <row r="79" spans="6:20">
+    <row r="79" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F79" s="12"/>
       <c r="G79" s="12"/>
       <c r="H79" s="12"/>
@@ -3638,7 +3664,7 @@
       <c r="S79" s="2"/>
       <c r="T79" s="15"/>
     </row>
-    <row r="80" spans="6:20">
+    <row r="80" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F80" s="12"/>
       <c r="G80" s="12"/>
       <c r="H80" s="12"/>
@@ -3655,7 +3681,7 @@
       <c r="S80" s="2"/>
       <c r="T80" s="15"/>
     </row>
-    <row r="81" spans="6:20">
+    <row r="81" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F81" s="12"/>
       <c r="G81" s="12"/>
       <c r="H81" s="12"/>
@@ -3672,7 +3698,7 @@
       <c r="S81" s="2"/>
       <c r="T81" s="15"/>
     </row>
-    <row r="82" spans="6:20">
+    <row r="82" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F82" s="12"/>
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
@@ -3689,7 +3715,7 @@
       <c r="S82" s="2"/>
       <c r="T82" s="15"/>
     </row>
-    <row r="83" spans="6:20">
+    <row r="83" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F83" s="12"/>
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
@@ -3706,7 +3732,7 @@
       <c r="S83" s="2"/>
       <c r="T83" s="15"/>
     </row>
-    <row r="84" spans="6:20">
+    <row r="84" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F84" s="12"/>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
@@ -3723,7 +3749,7 @@
       <c r="S84" s="2"/>
       <c r="T84" s="15"/>
     </row>
-    <row r="85" spans="6:20">
+    <row r="85" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F85" s="12"/>
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
@@ -3740,7 +3766,7 @@
       <c r="S85" s="2"/>
       <c r="T85" s="15"/>
     </row>
-    <row r="86" spans="6:20">
+    <row r="86" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F86" s="12"/>
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
@@ -3757,7 +3783,7 @@
       <c r="S86" s="2"/>
       <c r="T86" s="15"/>
     </row>
-    <row r="87" spans="6:20">
+    <row r="87" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F87" s="12"/>
       <c r="G87" s="12"/>
       <c r="H87" s="12"/>
@@ -3774,7 +3800,7 @@
       <c r="S87" s="2"/>
       <c r="T87" s="15"/>
     </row>
-    <row r="88" spans="6:20">
+    <row r="88" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F88" s="12"/>
       <c r="G88" s="12"/>
       <c r="H88" s="12"/>
@@ -3791,7 +3817,7 @@
       <c r="S88" s="2"/>
       <c r="T88" s="15"/>
     </row>
-    <row r="89" spans="6:20">
+    <row r="89" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F89" s="12"/>
       <c r="G89" s="12"/>
       <c r="H89" s="12"/>
@@ -3808,7 +3834,7 @@
       <c r="S89" s="2"/>
       <c r="T89" s="15"/>
     </row>
-    <row r="90" spans="6:20">
+    <row r="90" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F90" s="12"/>
       <c r="G90" s="12"/>
       <c r="H90" s="12"/>
@@ -3825,7 +3851,7 @@
       <c r="S90" s="2"/>
       <c r="T90" s="15"/>
     </row>
-    <row r="91" spans="6:20">
+    <row r="91" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F91" s="12"/>
       <c r="G91" s="12"/>
       <c r="H91" s="12"/>
@@ -3842,7 +3868,7 @@
       <c r="S91" s="2"/>
       <c r="T91" s="15"/>
     </row>
-    <row r="92" spans="6:20">
+    <row r="92" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F92" s="12"/>
       <c r="G92" s="12"/>
       <c r="H92" s="12"/>
@@ -3859,7 +3885,7 @@
       <c r="S92" s="2"/>
       <c r="T92" s="15"/>
     </row>
-    <row r="93" spans="6:20">
+    <row r="93" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F93" s="12"/>
       <c r="G93" s="12"/>
       <c r="H93" s="12"/>
@@ -3876,7 +3902,7 @@
       <c r="S93" s="2"/>
       <c r="T93" s="15"/>
     </row>
-    <row r="94" spans="6:20">
+    <row r="94" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F94" s="12"/>
       <c r="G94" s="12"/>
       <c r="H94" s="12"/>
@@ -3893,7 +3919,7 @@
       <c r="S94" s="2"/>
       <c r="T94" s="15"/>
     </row>
-    <row r="95" spans="6:20">
+    <row r="95" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F95" s="12"/>
       <c r="G95" s="12"/>
       <c r="H95" s="12"/>
@@ -3910,7 +3936,7 @@
       <c r="S95" s="2"/>
       <c r="T95" s="15"/>
     </row>
-    <row r="96" spans="6:20">
+    <row r="96" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F96" s="12"/>
       <c r="G96" s="12"/>
       <c r="H96" s="12"/>
@@ -3927,7 +3953,7 @@
       <c r="S96" s="2"/>
       <c r="T96" s="15"/>
     </row>
-    <row r="97" spans="6:20">
+    <row r="97" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F97" s="12"/>
       <c r="G97" s="12"/>
       <c r="H97" s="12"/>
@@ -3944,7 +3970,7 @@
       <c r="S97" s="2"/>
       <c r="T97" s="15"/>
     </row>
-    <row r="98" spans="6:20">
+    <row r="98" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F98" s="12"/>
       <c r="G98" s="12"/>
       <c r="H98" s="12"/>
@@ -3961,7 +3987,7 @@
       <c r="S98" s="2"/>
       <c r="T98" s="15"/>
     </row>
-    <row r="99" spans="6:20">
+    <row r="99" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F99" s="12"/>
       <c r="G99" s="12"/>
       <c r="H99" s="12"/>
@@ -3978,7 +4004,7 @@
       <c r="S99" s="2"/>
       <c r="T99" s="15"/>
     </row>
-    <row r="100" spans="6:20">
+    <row r="100" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F100" s="12"/>
       <c r="G100" s="12"/>
       <c r="H100" s="12"/>
@@ -3995,7 +4021,7 @@
       <c r="S100" s="2"/>
       <c r="T100" s="15"/>
     </row>
-    <row r="101" spans="6:20">
+    <row r="101" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F101" s="12"/>
       <c r="G101" s="12"/>
       <c r="H101" s="12"/>
@@ -4012,7 +4038,7 @@
       <c r="S101" s="2"/>
       <c r="T101" s="15"/>
     </row>
-    <row r="102" spans="6:20">
+    <row r="102" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F102" s="12"/>
       <c r="G102" s="12"/>
       <c r="H102" s="12"/>
@@ -4029,7 +4055,7 @@
       <c r="S102" s="2"/>
       <c r="T102" s="15"/>
     </row>
-    <row r="103" spans="6:20">
+    <row r="103" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F103" s="12"/>
       <c r="G103" s="12"/>
       <c r="H103" s="12"/>
@@ -4046,7 +4072,7 @@
       <c r="S103" s="2"/>
       <c r="T103" s="15"/>
     </row>
-    <row r="104" spans="6:20">
+    <row r="104" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F104" s="12"/>
       <c r="G104" s="12"/>
       <c r="H104" s="12"/>
@@ -4063,7 +4089,7 @@
       <c r="S104" s="2"/>
       <c r="T104" s="15"/>
     </row>
-    <row r="105" spans="6:20">
+    <row r="105" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F105" s="12"/>
       <c r="G105" s="12"/>
       <c r="H105" s="12"/>
@@ -4080,7 +4106,7 @@
       <c r="S105" s="2"/>
       <c r="T105" s="15"/>
     </row>
-    <row r="106" spans="6:20">
+    <row r="106" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
       <c r="H106" s="12"/>
@@ -4097,7 +4123,7 @@
       <c r="S106" s="2"/>
       <c r="T106" s="15"/>
     </row>
-    <row r="107" spans="6:20">
+    <row r="107" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F107" s="12"/>
       <c r="G107" s="12"/>
       <c r="H107" s="12"/>
@@ -4114,7 +4140,7 @@
       <c r="S107" s="2"/>
       <c r="T107" s="15"/>
     </row>
-    <row r="108" spans="6:20">
+    <row r="108" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F108" s="12"/>
       <c r="G108" s="12"/>
       <c r="H108" s="12"/>
@@ -4131,7 +4157,7 @@
       <c r="S108" s="2"/>
       <c r="T108" s="15"/>
     </row>
-    <row r="109" spans="6:20">
+    <row r="109" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F109" s="12"/>
       <c r="G109" s="12"/>
       <c r="H109" s="12"/>
@@ -4148,7 +4174,7 @@
       <c r="S109" s="2"/>
       <c r="T109" s="15"/>
     </row>
-    <row r="110" spans="6:20">
+    <row r="110" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F110" s="12"/>
       <c r="G110" s="12"/>
       <c r="H110" s="12"/>
@@ -4165,7 +4191,7 @@
       <c r="S110" s="2"/>
       <c r="T110" s="15"/>
     </row>
-    <row r="111" spans="6:20">
+    <row r="111" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F111" s="12"/>
       <c r="G111" s="12"/>
       <c r="H111" s="12"/>
@@ -4182,7 +4208,7 @@
       <c r="S111" s="2"/>
       <c r="T111" s="15"/>
     </row>
-    <row r="112" spans="6:20">
+    <row r="112" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F112" s="12"/>
       <c r="G112" s="12"/>
       <c r="H112" s="12"/>
@@ -4199,7 +4225,7 @@
       <c r="S112" s="2"/>
       <c r="T112" s="15"/>
     </row>
-    <row r="113" spans="6:20">
+    <row r="113" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F113" s="12"/>
       <c r="G113" s="12"/>
       <c r="H113" s="12"/>
@@ -4216,7 +4242,7 @@
       <c r="S113" s="2"/>
       <c r="T113" s="15"/>
     </row>
-    <row r="114" spans="6:20">
+    <row r="114" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F114" s="12"/>
       <c r="G114" s="12"/>
       <c r="H114" s="12"/>
@@ -4233,7 +4259,7 @@
       <c r="S114" s="2"/>
       <c r="T114" s="15"/>
     </row>
-    <row r="115" spans="6:20">
+    <row r="115" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F115" s="12"/>
       <c r="G115" s="12"/>
       <c r="H115" s="12"/>
@@ -4250,7 +4276,7 @@
       <c r="S115" s="2"/>
       <c r="T115" s="15"/>
     </row>
-    <row r="116" spans="6:20">
+    <row r="116" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F116" s="12"/>
       <c r="G116" s="12"/>
       <c r="H116" s="12"/>
@@ -4267,7 +4293,7 @@
       <c r="S116" s="2"/>
       <c r="T116" s="15"/>
     </row>
-    <row r="117" spans="6:20">
+    <row r="117" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F117" s="12"/>
       <c r="G117" s="12"/>
       <c r="H117" s="12"/>
@@ -4284,7 +4310,7 @@
       <c r="S117" s="2"/>
       <c r="T117" s="15"/>
     </row>
-    <row r="118" spans="6:20">
+    <row r="118" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F118" s="12"/>
       <c r="G118" s="12"/>
       <c r="H118" s="12"/>
@@ -4301,7 +4327,7 @@
       <c r="S118" s="2"/>
       <c r="T118" s="15"/>
     </row>
-    <row r="119" spans="6:20">
+    <row r="119" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F119" s="12"/>
       <c r="G119" s="12"/>
       <c r="H119" s="12"/>
@@ -4318,7 +4344,7 @@
       <c r="S119" s="2"/>
       <c r="T119" s="15"/>
     </row>
-    <row r="120" spans="6:20">
+    <row r="120" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F120" s="12"/>
       <c r="G120" s="12"/>
       <c r="H120" s="12"/>
@@ -4335,7 +4361,7 @@
       <c r="S120" s="2"/>
       <c r="T120" s="15"/>
     </row>
-    <row r="121" spans="6:20">
+    <row r="121" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F121" s="12"/>
       <c r="G121" s="12"/>
       <c r="H121" s="12"/>
@@ -4352,7 +4378,7 @@
       <c r="S121" s="2"/>
       <c r="T121" s="15"/>
     </row>
-    <row r="122" spans="6:20">
+    <row r="122" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F122" s="12"/>
       <c r="G122" s="12"/>
       <c r="H122" s="12"/>
@@ -4369,7 +4395,7 @@
       <c r="S122" s="2"/>
       <c r="T122" s="15"/>
     </row>
-    <row r="123" spans="6:20">
+    <row r="123" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F123" s="12"/>
       <c r="G123" s="12"/>
       <c r="H123" s="12"/>
@@ -4386,7 +4412,7 @@
       <c r="S123" s="2"/>
       <c r="T123" s="15"/>
     </row>
-    <row r="124" spans="6:20">
+    <row r="124" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F124" s="12"/>
       <c r="G124" s="12"/>
       <c r="H124" s="12"/>
@@ -4403,7 +4429,7 @@
       <c r="S124" s="2"/>
       <c r="T124" s="15"/>
     </row>
-    <row r="125" spans="6:20">
+    <row r="125" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F125" s="12"/>
       <c r="G125" s="12"/>
       <c r="H125" s="12"/>
@@ -4420,7 +4446,7 @@
       <c r="S125" s="2"/>
       <c r="T125" s="15"/>
     </row>
-    <row r="126" spans="6:20">
+    <row r="126" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F126" s="12"/>
       <c r="G126" s="12"/>
       <c r="H126" s="12"/>
@@ -4437,7 +4463,7 @@
       <c r="S126" s="2"/>
       <c r="T126" s="15"/>
     </row>
-    <row r="127" spans="6:20">
+    <row r="127" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F127" s="12"/>
       <c r="G127" s="12"/>
       <c r="H127" s="12"/>
@@ -4454,7 +4480,7 @@
       <c r="S127" s="2"/>
       <c r="T127" s="15"/>
     </row>
-    <row r="128" spans="6:20">
+    <row r="128" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F128" s="12"/>
       <c r="G128" s="12"/>
       <c r="H128" s="12"/>
@@ -4471,7 +4497,7 @@
       <c r="S128" s="2"/>
       <c r="T128" s="15"/>
     </row>
-    <row r="129" spans="6:20">
+    <row r="129" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F129" s="12"/>
       <c r="G129" s="12"/>
       <c r="H129" s="12"/>
@@ -4488,7 +4514,7 @@
       <c r="S129" s="2"/>
       <c r="T129" s="15"/>
     </row>
-    <row r="130" spans="6:20">
+    <row r="130" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F130" s="12"/>
       <c r="G130" s="12"/>
       <c r="H130" s="12"/>
@@ -4505,7 +4531,7 @@
       <c r="S130" s="2"/>
       <c r="T130" s="15"/>
     </row>
-    <row r="131" spans="6:20">
+    <row r="131" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F131" s="12"/>
       <c r="G131" s="12"/>
       <c r="H131" s="12"/>
@@ -4522,7 +4548,7 @@
       <c r="S131" s="2"/>
       <c r="T131" s="15"/>
     </row>
-    <row r="132" spans="6:20">
+    <row r="132" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F132" s="12"/>
       <c r="G132" s="12"/>
       <c r="H132" s="12"/>
@@ -4539,7 +4565,7 @@
       <c r="S132" s="2"/>
       <c r="T132" s="15"/>
     </row>
-    <row r="133" spans="6:20">
+    <row r="133" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F133" s="12"/>
       <c r="G133" s="12"/>
       <c r="H133" s="12"/>
@@ -4556,7 +4582,7 @@
       <c r="S133" s="2"/>
       <c r="T133" s="15"/>
     </row>
-    <row r="134" spans="6:20">
+    <row r="134" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F134" s="12"/>
       <c r="G134" s="12"/>
       <c r="H134" s="12"/>
@@ -4573,7 +4599,7 @@
       <c r="S134" s="2"/>
       <c r="T134" s="15"/>
     </row>
-    <row r="135" spans="6:20">
+    <row r="135" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F135" s="12"/>
       <c r="G135" s="12"/>
       <c r="H135" s="12"/>
@@ -4590,7 +4616,7 @@
       <c r="S135" s="2"/>
       <c r="T135" s="15"/>
     </row>
-    <row r="136" spans="6:20">
+    <row r="136" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F136" s="12"/>
       <c r="G136" s="12"/>
       <c r="H136" s="12"/>
@@ -4607,7 +4633,7 @@
       <c r="S136" s="2"/>
       <c r="T136" s="15"/>
     </row>
-    <row r="137" spans="6:20">
+    <row r="137" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F137" s="12"/>
       <c r="G137" s="12"/>
       <c r="H137" s="12"/>
@@ -4624,7 +4650,7 @@
       <c r="S137" s="2"/>
       <c r="T137" s="15"/>
     </row>
-    <row r="138" spans="6:20">
+    <row r="138" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F138" s="12"/>
       <c r="G138" s="12"/>
       <c r="H138" s="12"/>
@@ -4641,7 +4667,7 @@
       <c r="S138" s="2"/>
       <c r="T138" s="15"/>
     </row>
-    <row r="139" spans="6:20">
+    <row r="139" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F139" s="12"/>
       <c r="G139" s="12"/>
       <c r="H139" s="12"/>
@@ -4658,7 +4684,7 @@
       <c r="S139" s="2"/>
       <c r="T139" s="15"/>
     </row>
-    <row r="140" spans="6:20">
+    <row r="140" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F140" s="12"/>
       <c r="G140" s="12"/>
       <c r="H140" s="12"/>
@@ -4675,7 +4701,7 @@
       <c r="S140" s="2"/>
       <c r="T140" s="15"/>
     </row>
-    <row r="141" spans="6:20">
+    <row r="141" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F141" s="12"/>
       <c r="G141" s="12"/>
       <c r="H141" s="12"/>
@@ -4692,7 +4718,7 @@
       <c r="S141" s="2"/>
       <c r="T141" s="15"/>
     </row>
-    <row r="142" spans="6:20">
+    <row r="142" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F142" s="12"/>
       <c r="G142" s="12"/>
       <c r="H142" s="12"/>
@@ -4709,7 +4735,7 @@
       <c r="S142" s="2"/>
       <c r="T142" s="15"/>
     </row>
-    <row r="143" spans="6:20">
+    <row r="143" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F143" s="12"/>
       <c r="G143" s="12"/>
       <c r="H143" s="12"/>
@@ -4726,7 +4752,7 @@
       <c r="S143" s="2"/>
       <c r="T143" s="15"/>
     </row>
-    <row r="144" spans="6:20">
+    <row r="144" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F144" s="12"/>
       <c r="G144" s="12"/>
       <c r="H144" s="12"/>
@@ -4743,7 +4769,7 @@
       <c r="S144" s="2"/>
       <c r="T144" s="15"/>
     </row>
-    <row r="145" spans="6:20">
+    <row r="145" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F145" s="12"/>
       <c r="G145" s="12"/>
       <c r="H145" s="12"/>
@@ -4760,7 +4786,7 @@
       <c r="S145" s="2"/>
       <c r="T145" s="15"/>
     </row>
-    <row r="146" spans="6:20">
+    <row r="146" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F146" s="12"/>
       <c r="G146" s="12"/>
       <c r="H146" s="12"/>
@@ -4777,7 +4803,7 @@
       <c r="S146" s="2"/>
       <c r="T146" s="15"/>
     </row>
-    <row r="147" spans="6:20">
+    <row r="147" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F147" s="12"/>
       <c r="G147" s="12"/>
       <c r="H147" s="12"/>
@@ -4794,7 +4820,7 @@
       <c r="S147" s="2"/>
       <c r="T147" s="15"/>
     </row>
-    <row r="148" spans="6:20">
+    <row r="148" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F148" s="12"/>
       <c r="G148" s="12"/>
       <c r="H148" s="12"/>
@@ -4811,7 +4837,7 @@
       <c r="S148" s="2"/>
       <c r="T148" s="15"/>
     </row>
-    <row r="149" spans="6:20">
+    <row r="149" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F149" s="12"/>
       <c r="G149" s="12"/>
       <c r="H149" s="12"/>
@@ -4828,7 +4854,7 @@
       <c r="S149" s="2"/>
       <c r="T149" s="15"/>
     </row>
-    <row r="150" spans="6:20">
+    <row r="150" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F150" s="12"/>
       <c r="G150" s="12"/>
       <c r="H150" s="12"/>
@@ -4845,7 +4871,7 @@
       <c r="S150" s="2"/>
       <c r="T150" s="15"/>
     </row>
-    <row r="151" spans="6:20">
+    <row r="151" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F151" s="12"/>
       <c r="G151" s="12"/>
       <c r="H151" s="12"/>
@@ -4862,7 +4888,7 @@
       <c r="S151" s="2"/>
       <c r="T151" s="15"/>
     </row>
-    <row r="152" spans="6:20">
+    <row r="152" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F152" s="12"/>
       <c r="G152" s="12"/>
       <c r="H152" s="12"/>
@@ -4879,7 +4905,7 @@
       <c r="S152" s="2"/>
       <c r="T152" s="15"/>
     </row>
-    <row r="153" spans="6:20">
+    <row r="153" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F153" s="12"/>
       <c r="G153" s="12"/>
       <c r="H153" s="12"/>
@@ -4896,7 +4922,7 @@
       <c r="S153" s="2"/>
       <c r="T153" s="15"/>
     </row>
-    <row r="154" spans="6:20">
+    <row r="154" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F154" s="12"/>
       <c r="G154" s="12"/>
       <c r="H154" s="12"/>
@@ -4913,7 +4939,7 @@
       <c r="S154" s="2"/>
       <c r="T154" s="15"/>
     </row>
-    <row r="155" spans="6:20">
+    <row r="155" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F155" s="12"/>
       <c r="G155" s="12"/>
       <c r="H155" s="12"/>
@@ -4930,7 +4956,7 @@
       <c r="S155" s="2"/>
       <c r="T155" s="15"/>
     </row>
-    <row r="156" spans="6:20">
+    <row r="156" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F156" s="12"/>
       <c r="G156" s="12"/>
       <c r="H156" s="12"/>
@@ -4947,7 +4973,7 @@
       <c r="S156" s="2"/>
       <c r="T156" s="15"/>
     </row>
-    <row r="157" spans="6:20">
+    <row r="157" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F157" s="12"/>
       <c r="G157" s="12"/>
       <c r="H157" s="12"/>
@@ -4964,7 +4990,7 @@
       <c r="S157" s="2"/>
       <c r="T157" s="15"/>
     </row>
-    <row r="158" spans="6:20">
+    <row r="158" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F158" s="12"/>
       <c r="G158" s="12"/>
       <c r="H158" s="12"/>
@@ -4981,7 +5007,7 @@
       <c r="S158" s="2"/>
       <c r="T158" s="15"/>
     </row>
-    <row r="159" spans="6:20">
+    <row r="159" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F159" s="12"/>
       <c r="G159" s="12"/>
       <c r="H159" s="12"/>
@@ -4998,7 +5024,7 @@
       <c r="S159" s="2"/>
       <c r="T159" s="15"/>
     </row>
-    <row r="160" spans="6:20">
+    <row r="160" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F160" s="12"/>
       <c r="G160" s="12"/>
       <c r="H160" s="12"/>
@@ -5015,7 +5041,7 @@
       <c r="S160" s="2"/>
       <c r="T160" s="15"/>
     </row>
-    <row r="161" spans="6:20">
+    <row r="161" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F161" s="12"/>
       <c r="G161" s="12"/>
       <c r="H161" s="12"/>
@@ -5032,7 +5058,7 @@
       <c r="S161" s="2"/>
       <c r="T161" s="15"/>
     </row>
-    <row r="162" spans="6:20">
+    <row r="162" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F162" s="12"/>
       <c r="G162" s="12"/>
       <c r="H162" s="12"/>
@@ -5049,7 +5075,7 @@
       <c r="S162" s="2"/>
       <c r="T162" s="15"/>
     </row>
-    <row r="163" spans="6:20">
+    <row r="163" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F163" s="12"/>
       <c r="G163" s="12"/>
       <c r="H163" s="12"/>
@@ -5066,7 +5092,7 @@
       <c r="S163" s="2"/>
       <c r="T163" s="15"/>
     </row>
-    <row r="164" spans="6:20">
+    <row r="164" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F164" s="12"/>
       <c r="G164" s="12"/>
       <c r="H164" s="12"/>
@@ -5083,7 +5109,7 @@
       <c r="S164" s="2"/>
       <c r="T164" s="15"/>
     </row>
-    <row r="165" spans="6:20">
+    <row r="165" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F165" s="12"/>
       <c r="G165" s="12"/>
       <c r="H165" s="12"/>
@@ -5100,7 +5126,7 @@
       <c r="S165" s="2"/>
       <c r="T165" s="15"/>
     </row>
-    <row r="166" spans="6:20">
+    <row r="166" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F166" s="12"/>
       <c r="G166" s="12"/>
       <c r="H166" s="12"/>
@@ -5117,7 +5143,7 @@
       <c r="S166" s="2"/>
       <c r="T166" s="15"/>
     </row>
-    <row r="167" spans="6:20">
+    <row r="167" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F167" s="12"/>
       <c r="G167" s="12"/>
       <c r="H167" s="12"/>
@@ -5134,7 +5160,7 @@
       <c r="S167" s="2"/>
       <c r="T167" s="15"/>
     </row>
-    <row r="168" spans="6:20">
+    <row r="168" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F168" s="12"/>
       <c r="G168" s="12"/>
       <c r="H168" s="12"/>
@@ -5151,7 +5177,7 @@
       <c r="S168" s="2"/>
       <c r="T168" s="15"/>
     </row>
-    <row r="169" spans="6:20">
+    <row r="169" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F169" s="12"/>
       <c r="G169" s="12"/>
       <c r="H169" s="12"/>
@@ -5168,7 +5194,7 @@
       <c r="S169" s="2"/>
       <c r="T169" s="15"/>
     </row>
-    <row r="170" spans="6:20">
+    <row r="170" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F170" s="12"/>
       <c r="G170" s="12"/>
       <c r="H170" s="12"/>
@@ -5185,7 +5211,7 @@
       <c r="S170" s="2"/>
       <c r="T170" s="15"/>
     </row>
-    <row r="171" spans="6:20">
+    <row r="171" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F171" s="12"/>
       <c r="G171" s="12"/>
       <c r="H171" s="12"/>
@@ -5202,7 +5228,7 @@
       <c r="S171" s="2"/>
       <c r="T171" s="15"/>
     </row>
-    <row r="172" spans="6:20">
+    <row r="172" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F172" s="12"/>
       <c r="G172" s="12"/>
       <c r="H172" s="12"/>
@@ -5219,7 +5245,7 @@
       <c r="S172" s="2"/>
       <c r="T172" s="15"/>
     </row>
-    <row r="173" spans="6:20">
+    <row r="173" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F173" s="12"/>
       <c r="G173" s="12"/>
       <c r="H173" s="12"/>
@@ -5236,7 +5262,7 @@
       <c r="S173" s="2"/>
       <c r="T173" s="15"/>
     </row>
-    <row r="174" spans="6:20">
+    <row r="174" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F174" s="12"/>
       <c r="G174" s="12"/>
       <c r="H174" s="12"/>
@@ -5253,7 +5279,7 @@
       <c r="S174" s="2"/>
       <c r="T174" s="15"/>
     </row>
-    <row r="175" spans="6:20">
+    <row r="175" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F175" s="12"/>
       <c r="G175" s="12"/>
       <c r="H175" s="12"/>
@@ -5270,7 +5296,7 @@
       <c r="S175" s="2"/>
       <c r="T175" s="15"/>
     </row>
-    <row r="176" spans="6:20">
+    <row r="176" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F176" s="12"/>
       <c r="G176" s="12"/>
       <c r="H176" s="12"/>
@@ -5287,7 +5313,7 @@
       <c r="S176" s="2"/>
       <c r="T176" s="15"/>
     </row>
-    <row r="177" spans="6:20">
+    <row r="177" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F177" s="12"/>
       <c r="G177" s="12"/>
       <c r="H177" s="12"/>
@@ -5304,7 +5330,7 @@
       <c r="S177" s="2"/>
       <c r="T177" s="15"/>
     </row>
-    <row r="178" spans="6:20">
+    <row r="178" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F178" s="12"/>
       <c r="G178" s="12"/>
       <c r="H178" s="12"/>
@@ -5321,7 +5347,7 @@
       <c r="S178" s="2"/>
       <c r="T178" s="15"/>
     </row>
-    <row r="179" spans="6:20">
+    <row r="179" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F179" s="12"/>
       <c r="G179" s="12"/>
       <c r="H179" s="12"/>
@@ -5338,7 +5364,7 @@
       <c r="S179" s="2"/>
       <c r="T179" s="15"/>
     </row>
-    <row r="180" spans="6:20">
+    <row r="180" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F180" s="12"/>
       <c r="G180" s="12"/>
       <c r="H180" s="12"/>
@@ -5355,7 +5381,7 @@
       <c r="S180" s="2"/>
       <c r="T180" s="15"/>
     </row>
-    <row r="181" spans="6:20">
+    <row r="181" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F181" s="12"/>
       <c r="G181" s="12"/>
       <c r="H181" s="12"/>
@@ -5372,7 +5398,7 @@
       <c r="S181" s="2"/>
       <c r="T181" s="15"/>
     </row>
-    <row r="182" spans="6:20">
+    <row r="182" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F182" s="12"/>
       <c r="G182" s="12"/>
       <c r="H182" s="12"/>
@@ -5389,7 +5415,7 @@
       <c r="S182" s="2"/>
       <c r="T182" s="15"/>
     </row>
-    <row r="183" spans="6:20">
+    <row r="183" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F183" s="12"/>
       <c r="G183" s="12"/>
       <c r="H183" s="12"/>
@@ -5406,7 +5432,7 @@
       <c r="S183" s="2"/>
       <c r="T183" s="15"/>
     </row>
-    <row r="184" spans="6:20">
+    <row r="184" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F184" s="12"/>
       <c r="G184" s="12"/>
       <c r="H184" s="12"/>
@@ -5423,7 +5449,7 @@
       <c r="S184" s="2"/>
       <c r="T184" s="15"/>
     </row>
-    <row r="185" spans="6:20">
+    <row r="185" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F185" s="12"/>
       <c r="G185" s="12"/>
       <c r="H185" s="12"/>
@@ -5440,7 +5466,7 @@
       <c r="S185" s="2"/>
       <c r="T185" s="15"/>
     </row>
-    <row r="186" spans="6:20">
+    <row r="186" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F186" s="12"/>
       <c r="G186" s="12"/>
       <c r="H186" s="12"/>
@@ -5457,7 +5483,7 @@
       <c r="S186" s="2"/>
       <c r="T186" s="15"/>
     </row>
-    <row r="187" spans="6:20">
+    <row r="187" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F187" s="12"/>
       <c r="G187" s="12"/>
       <c r="H187" s="12"/>
@@ -5474,7 +5500,7 @@
       <c r="S187" s="2"/>
       <c r="T187" s="15"/>
     </row>
-    <row r="188" spans="6:20">
+    <row r="188" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F188" s="12"/>
       <c r="G188" s="12"/>
       <c r="H188" s="12"/>
@@ -5491,7 +5517,7 @@
       <c r="S188" s="2"/>
       <c r="T188" s="15"/>
     </row>
-    <row r="189" spans="6:20">
+    <row r="189" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F189" s="12"/>
       <c r="G189" s="12"/>
       <c r="H189" s="12"/>
@@ -5508,7 +5534,7 @@
       <c r="S189" s="2"/>
       <c r="T189" s="15"/>
     </row>
-    <row r="190" spans="6:20">
+    <row r="190" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F190" s="12"/>
       <c r="G190" s="12"/>
       <c r="H190" s="12"/>
@@ -5525,7 +5551,7 @@
       <c r="S190" s="2"/>
       <c r="T190" s="15"/>
     </row>
-    <row r="191" spans="6:20">
+    <row r="191" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F191" s="12"/>
       <c r="G191" s="12"/>
       <c r="H191" s="12"/>
@@ -5542,7 +5568,7 @@
       <c r="S191" s="2"/>
       <c r="T191" s="15"/>
     </row>
-    <row r="192" spans="6:20">
+    <row r="192" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F192" s="12"/>
       <c r="G192" s="12"/>
       <c r="H192" s="12"/>
@@ -5559,7 +5585,7 @@
       <c r="S192" s="2"/>
       <c r="T192" s="15"/>
     </row>
-    <row r="193" spans="6:20">
+    <row r="193" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F193" s="12"/>
       <c r="G193" s="12"/>
       <c r="H193" s="12"/>
@@ -5576,7 +5602,7 @@
       <c r="S193" s="2"/>
       <c r="T193" s="15"/>
     </row>
-    <row r="194" spans="6:20">
+    <row r="194" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F194" s="12"/>
       <c r="G194" s="12"/>
       <c r="H194" s="12"/>
@@ -5593,7 +5619,7 @@
       <c r="S194" s="2"/>
       <c r="T194" s="15"/>
     </row>
-    <row r="195" spans="6:20">
+    <row r="195" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F195" s="12"/>
       <c r="G195" s="12"/>
       <c r="H195" s="12"/>
@@ -5610,7 +5636,7 @@
       <c r="S195" s="2"/>
       <c r="T195" s="15"/>
     </row>
-    <row r="196" spans="6:20">
+    <row r="196" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F196" s="12"/>
       <c r="G196" s="12"/>
       <c r="H196" s="12"/>
@@ -5627,7 +5653,7 @@
       <c r="S196" s="2"/>
       <c r="T196" s="15"/>
     </row>
-    <row r="197" spans="6:20">
+    <row r="197" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F197" s="12"/>
       <c r="G197" s="12"/>
       <c r="H197" s="12"/>
@@ -5644,7 +5670,7 @@
       <c r="S197" s="2"/>
       <c r="T197" s="15"/>
     </row>
-    <row r="198" spans="6:20">
+    <row r="198" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F198" s="12"/>
       <c r="G198" s="12"/>
       <c r="H198" s="12"/>
@@ -5661,7 +5687,7 @@
       <c r="S198" s="2"/>
       <c r="T198" s="15"/>
     </row>
-    <row r="199" spans="6:20">
+    <row r="199" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F199" s="12"/>
       <c r="G199" s="12"/>
       <c r="H199" s="12"/>
@@ -5678,7 +5704,7 @@
       <c r="S199" s="2"/>
       <c r="T199" s="15"/>
     </row>
-    <row r="200" spans="6:20">
+    <row r="200" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F200" s="12"/>
       <c r="G200" s="12"/>
       <c r="H200" s="12"/>
@@ -5695,7 +5721,7 @@
       <c r="S200" s="2"/>
       <c r="T200" s="15"/>
     </row>
-    <row r="201" spans="6:20">
+    <row r="201" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F201" s="12"/>
       <c r="G201" s="12"/>
       <c r="H201" s="12"/>
@@ -5712,7 +5738,7 @@
       <c r="S201" s="2"/>
       <c r="T201" s="15"/>
     </row>
-    <row r="202" spans="6:20">
+    <row r="202" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F202" s="12"/>
       <c r="G202" s="12"/>
       <c r="H202" s="12"/>
@@ -5729,7 +5755,7 @@
       <c r="S202" s="2"/>
       <c r="T202" s="15"/>
     </row>
-    <row r="203" spans="6:20">
+    <row r="203" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F203" s="12"/>
       <c r="G203" s="12"/>
       <c r="H203" s="12"/>
@@ -5746,7 +5772,7 @@
       <c r="S203" s="2"/>
       <c r="T203" s="15"/>
     </row>
-    <row r="204" spans="6:20">
+    <row r="204" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F204" s="12"/>
       <c r="G204" s="12"/>
       <c r="H204" s="12"/>
@@ -5763,7 +5789,7 @@
       <c r="S204" s="2"/>
       <c r="T204" s="15"/>
     </row>
-    <row r="205" spans="6:20">
+    <row r="205" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F205" s="12"/>
       <c r="G205" s="12"/>
       <c r="H205" s="12"/>
@@ -5780,7 +5806,7 @@
       <c r="S205" s="2"/>
       <c r="T205" s="15"/>
     </row>
-    <row r="206" spans="6:20">
+    <row r="206" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F206" s="12"/>
       <c r="G206" s="12"/>
       <c r="H206" s="12"/>
@@ -5797,7 +5823,7 @@
       <c r="S206" s="2"/>
       <c r="T206" s="15"/>
     </row>
-    <row r="207" spans="6:20">
+    <row r="207" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F207" s="12"/>
       <c r="G207" s="12"/>
       <c r="H207" s="12"/>
@@ -5814,7 +5840,7 @@
       <c r="S207" s="2"/>
       <c r="T207" s="15"/>
     </row>
-    <row r="208" spans="6:20">
+    <row r="208" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F208" s="12"/>
       <c r="G208" s="12"/>
       <c r="H208" s="12"/>
@@ -5831,7 +5857,7 @@
       <c r="S208" s="2"/>
       <c r="T208" s="15"/>
     </row>
-    <row r="209" spans="6:20">
+    <row r="209" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F209" s="12"/>
       <c r="G209" s="12"/>
       <c r="H209" s="12"/>
@@ -5848,7 +5874,7 @@
       <c r="S209" s="2"/>
       <c r="T209" s="15"/>
     </row>
-    <row r="210" spans="6:20">
+    <row r="210" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F210" s="12"/>
       <c r="G210" s="12"/>
       <c r="H210" s="12"/>
@@ -5865,7 +5891,7 @@
       <c r="S210" s="2"/>
       <c r="T210" s="15"/>
     </row>
-    <row r="211" spans="6:20">
+    <row r="211" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F211" s="12"/>
       <c r="G211" s="12"/>
       <c r="H211" s="12"/>
@@ -5882,7 +5908,7 @@
       <c r="S211" s="2"/>
       <c r="T211" s="15"/>
     </row>
-    <row r="212" spans="6:20">
+    <row r="212" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F212" s="12"/>
       <c r="G212" s="12"/>
       <c r="H212" s="12"/>
@@ -5899,7 +5925,7 @@
       <c r="S212" s="2"/>
       <c r="T212" s="15"/>
     </row>
-    <row r="213" spans="6:20">
+    <row r="213" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F213" s="12"/>
       <c r="G213" s="12"/>
       <c r="H213" s="12"/>
@@ -5916,7 +5942,7 @@
       <c r="S213" s="2"/>
       <c r="T213" s="15"/>
     </row>
-    <row r="214" spans="6:20">
+    <row r="214" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F214" s="12"/>
       <c r="G214" s="12"/>
       <c r="H214" s="12"/>
@@ -5933,7 +5959,7 @@
       <c r="S214" s="2"/>
       <c r="T214" s="15"/>
     </row>
-    <row r="215" spans="6:20">
+    <row r="215" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F215" s="12"/>
       <c r="G215" s="12"/>
       <c r="H215" s="12"/>
@@ -5950,7 +5976,7 @@
       <c r="S215" s="2"/>
       <c r="T215" s="15"/>
     </row>
-    <row r="216" spans="6:20">
+    <row r="216" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F216" s="12"/>
       <c r="G216" s="12"/>
       <c r="H216" s="12"/>
@@ -5967,7 +5993,7 @@
       <c r="S216" s="2"/>
       <c r="T216" s="15"/>
     </row>
-    <row r="217" spans="6:20">
+    <row r="217" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F217" s="12"/>
       <c r="G217" s="12"/>
       <c r="H217" s="12"/>
@@ -5984,7 +6010,7 @@
       <c r="S217" s="2"/>
       <c r="T217" s="15"/>
     </row>
-    <row r="218" spans="6:20">
+    <row r="218" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F218" s="12"/>
       <c r="G218" s="12"/>
       <c r="H218" s="12"/>
@@ -6001,7 +6027,7 @@
       <c r="S218" s="2"/>
       <c r="T218" s="15"/>
     </row>
-    <row r="219" spans="6:20">
+    <row r="219" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F219" s="12"/>
       <c r="G219" s="12"/>
       <c r="H219" s="12"/>
@@ -6018,7 +6044,7 @@
       <c r="S219" s="2"/>
       <c r="T219" s="15"/>
     </row>
-    <row r="220" spans="6:20">
+    <row r="220" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F220" s="12"/>
       <c r="G220" s="12"/>
       <c r="H220" s="12"/>
@@ -6035,7 +6061,7 @@
       <c r="S220" s="2"/>
       <c r="T220" s="15"/>
     </row>
-    <row r="221" spans="6:20">
+    <row r="221" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F221" s="12"/>
       <c r="G221" s="12"/>
       <c r="H221" s="12"/>
@@ -6052,7 +6078,7 @@
       <c r="S221" s="2"/>
       <c r="T221" s="15"/>
     </row>
-    <row r="222" spans="6:20">
+    <row r="222" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F222" s="12"/>
       <c r="G222" s="12"/>
       <c r="H222" s="12"/>
@@ -6069,7 +6095,7 @@
       <c r="S222" s="2"/>
       <c r="T222" s="15"/>
     </row>
-    <row r="223" spans="6:20">
+    <row r="223" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F223" s="12"/>
       <c r="G223" s="12"/>
       <c r="H223" s="12"/>
@@ -6086,7 +6112,7 @@
       <c r="S223" s="2"/>
       <c r="T223" s="15"/>
     </row>
-    <row r="224" spans="6:20">
+    <row r="224" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F224" s="12"/>
       <c r="G224" s="12"/>
       <c r="H224" s="12"/>
@@ -6103,7 +6129,7 @@
       <c r="S224" s="2"/>
       <c r="T224" s="15"/>
     </row>
-    <row r="225" spans="6:20">
+    <row r="225" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F225" s="12"/>
       <c r="G225" s="12"/>
       <c r="H225" s="12"/>
@@ -6120,7 +6146,7 @@
       <c r="S225" s="2"/>
       <c r="T225" s="15"/>
     </row>
-    <row r="226" spans="6:20">
+    <row r="226" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F226" s="12"/>
       <c r="G226" s="12"/>
       <c r="H226" s="12"/>
@@ -6137,7 +6163,7 @@
       <c r="S226" s="2"/>
       <c r="T226" s="15"/>
     </row>
-    <row r="227" spans="6:20">
+    <row r="227" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F227" s="12"/>
       <c r="G227" s="12"/>
       <c r="H227" s="12"/>
@@ -6154,1255 +6180,1255 @@
       <c r="S227" s="2"/>
       <c r="T227" s="15"/>
     </row>
-    <row r="228" spans="6:20">
+    <row r="228" spans="6:20" x14ac:dyDescent="0.25">
       <c r="T228" s="13"/>
     </row>
-    <row r="229" spans="6:20">
+    <row r="229" spans="6:20" x14ac:dyDescent="0.25">
       <c r="T229" s="13"/>
     </row>
-    <row r="230" spans="6:20">
+    <row r="230" spans="6:20" x14ac:dyDescent="0.25">
       <c r="T230" s="13"/>
     </row>
-    <row r="231" spans="6:20">
+    <row r="231" spans="6:20" x14ac:dyDescent="0.25">
       <c r="T231" s="13"/>
     </row>
-    <row r="232" spans="6:20">
+    <row r="232" spans="6:20" x14ac:dyDescent="0.25">
       <c r="T232" s="13"/>
     </row>
-    <row r="233" spans="6:20">
+    <row r="233" spans="6:20" x14ac:dyDescent="0.25">
       <c r="T233" s="13"/>
     </row>
-    <row r="234" spans="6:20">
+    <row r="234" spans="6:20" x14ac:dyDescent="0.25">
       <c r="T234" s="13"/>
     </row>
-    <row r="235" spans="6:20">
+    <row r="235" spans="6:20" x14ac:dyDescent="0.25">
       <c r="T235" s="13"/>
     </row>
-    <row r="236" spans="6:20">
+    <row r="236" spans="6:20" x14ac:dyDescent="0.25">
       <c r="T236" s="13"/>
     </row>
-    <row r="237" spans="6:20">
+    <row r="237" spans="6:20" x14ac:dyDescent="0.25">
       <c r="T237" s="13"/>
     </row>
-    <row r="238" spans="6:20">
+    <row r="238" spans="6:20" x14ac:dyDescent="0.25">
       <c r="T238" s="13"/>
     </row>
-    <row r="239" spans="6:20">
+    <row r="239" spans="6:20" x14ac:dyDescent="0.25">
       <c r="T239" s="13"/>
     </row>
-    <row r="240" spans="6:20">
+    <row r="240" spans="6:20" x14ac:dyDescent="0.25">
       <c r="T240" s="13"/>
     </row>
-    <row r="241" spans="20:20">
+    <row r="241" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T241" s="13"/>
     </row>
-    <row r="242" spans="20:20">
+    <row r="242" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T242" s="13"/>
     </row>
-    <row r="243" spans="20:20">
+    <row r="243" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T243" s="13"/>
     </row>
-    <row r="244" spans="20:20">
+    <row r="244" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T244" s="13"/>
     </row>
-    <row r="245" spans="20:20">
+    <row r="245" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T245" s="13"/>
     </row>
-    <row r="246" spans="20:20">
+    <row r="246" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T246" s="13"/>
     </row>
-    <row r="247" spans="20:20">
+    <row r="247" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T247" s="13"/>
     </row>
-    <row r="248" spans="20:20">
+    <row r="248" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T248" s="13"/>
     </row>
-    <row r="249" spans="20:20">
+    <row r="249" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T249" s="13"/>
     </row>
-    <row r="250" spans="20:20">
+    <row r="250" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T250" s="13"/>
     </row>
-    <row r="251" spans="20:20">
+    <row r="251" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T251" s="13"/>
     </row>
-    <row r="252" spans="20:20">
+    <row r="252" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T252" s="13"/>
     </row>
-    <row r="253" spans="20:20">
+    <row r="253" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T253" s="13"/>
     </row>
-    <row r="254" spans="20:20">
+    <row r="254" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T254" s="13"/>
     </row>
-    <row r="255" spans="20:20">
+    <row r="255" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T255" s="13"/>
     </row>
-    <row r="256" spans="20:20">
+    <row r="256" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T256" s="13"/>
     </row>
-    <row r="257" spans="20:20">
+    <row r="257" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T257" s="13"/>
     </row>
-    <row r="258" spans="20:20">
+    <row r="258" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T258" s="13"/>
     </row>
-    <row r="259" spans="20:20">
+    <row r="259" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T259" s="13"/>
     </row>
-    <row r="260" spans="20:20">
+    <row r="260" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T260" s="13"/>
     </row>
-    <row r="261" spans="20:20">
+    <row r="261" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T261" s="13"/>
     </row>
-    <row r="262" spans="20:20">
+    <row r="262" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T262" s="13"/>
     </row>
-    <row r="263" spans="20:20">
+    <row r="263" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T263" s="13"/>
     </row>
-    <row r="264" spans="20:20">
+    <row r="264" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T264" s="13"/>
     </row>
-    <row r="265" spans="20:20">
+    <row r="265" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T265" s="13"/>
     </row>
-    <row r="266" spans="20:20">
+    <row r="266" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T266" s="13"/>
     </row>
-    <row r="267" spans="20:20">
+    <row r="267" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T267" s="13"/>
     </row>
-    <row r="268" spans="20:20">
+    <row r="268" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T268" s="13"/>
     </row>
-    <row r="269" spans="20:20">
+    <row r="269" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T269" s="13"/>
     </row>
-    <row r="270" spans="20:20">
+    <row r="270" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T270" s="13"/>
     </row>
-    <row r="271" spans="20:20">
+    <row r="271" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T271" s="13"/>
     </row>
-    <row r="272" spans="20:20">
+    <row r="272" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T272" s="13"/>
     </row>
-    <row r="273" spans="20:20">
+    <row r="273" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T273" s="13"/>
     </row>
-    <row r="274" spans="20:20">
+    <row r="274" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T274" s="13"/>
     </row>
-    <row r="275" spans="20:20">
+    <row r="275" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T275" s="13"/>
     </row>
-    <row r="276" spans="20:20">
+    <row r="276" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T276" s="13"/>
     </row>
-    <row r="277" spans="20:20">
+    <row r="277" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T277" s="13"/>
     </row>
-    <row r="278" spans="20:20">
+    <row r="278" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T278" s="13"/>
     </row>
-    <row r="279" spans="20:20">
+    <row r="279" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T279" s="13"/>
     </row>
-    <row r="280" spans="20:20">
+    <row r="280" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T280" s="13"/>
     </row>
-    <row r="281" spans="20:20">
+    <row r="281" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T281" s="13"/>
     </row>
-    <row r="282" spans="20:20">
+    <row r="282" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T282" s="13"/>
     </row>
-    <row r="283" spans="20:20">
+    <row r="283" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T283" s="13"/>
     </row>
-    <row r="284" spans="20:20">
+    <row r="284" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T284" s="13"/>
     </row>
-    <row r="285" spans="20:20">
+    <row r="285" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T285" s="13"/>
     </row>
-    <row r="286" spans="20:20">
+    <row r="286" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T286" s="13"/>
     </row>
-    <row r="287" spans="20:20">
+    <row r="287" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T287" s="13"/>
     </row>
-    <row r="288" spans="20:20">
+    <row r="288" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T288" s="13"/>
     </row>
-    <row r="289" spans="20:20">
+    <row r="289" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T289" s="13"/>
     </row>
-    <row r="290" spans="20:20">
+    <row r="290" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T290" s="13"/>
     </row>
-    <row r="291" spans="20:20">
+    <row r="291" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T291" s="13"/>
     </row>
-    <row r="292" spans="20:20">
+    <row r="292" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T292" s="13"/>
     </row>
-    <row r="293" spans="20:20">
+    <row r="293" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T293" s="13"/>
     </row>
-    <row r="294" spans="20:20">
+    <row r="294" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T294" s="13"/>
     </row>
-    <row r="295" spans="20:20">
+    <row r="295" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T295" s="13"/>
     </row>
-    <row r="296" spans="20:20">
+    <row r="296" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T296" s="13"/>
     </row>
-    <row r="297" spans="20:20">
+    <row r="297" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T297" s="13"/>
     </row>
-    <row r="298" spans="20:20">
+    <row r="298" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T298" s="13"/>
     </row>
-    <row r="299" spans="20:20">
+    <row r="299" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T299" s="13"/>
     </row>
-    <row r="300" spans="20:20">
+    <row r="300" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T300" s="13"/>
     </row>
-    <row r="301" spans="20:20">
+    <row r="301" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T301" s="13"/>
     </row>
-    <row r="302" spans="20:20">
+    <row r="302" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T302" s="13"/>
     </row>
-    <row r="303" spans="20:20">
+    <row r="303" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T303" s="13"/>
     </row>
-    <row r="304" spans="20:20">
+    <row r="304" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T304" s="13"/>
     </row>
-    <row r="305" spans="20:20">
+    <row r="305" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T305" s="13"/>
     </row>
-    <row r="306" spans="20:20">
+    <row r="306" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T306" s="13"/>
     </row>
-    <row r="307" spans="20:20">
+    <row r="307" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T307" s="13"/>
     </row>
-    <row r="308" spans="20:20">
+    <row r="308" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T308" s="13"/>
     </row>
-    <row r="309" spans="20:20">
+    <row r="309" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T309" s="13"/>
     </row>
-    <row r="310" spans="20:20">
+    <row r="310" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T310" s="13"/>
     </row>
-    <row r="311" spans="20:20">
+    <row r="311" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T311" s="13"/>
     </row>
-    <row r="312" spans="20:20">
+    <row r="312" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T312" s="13"/>
     </row>
-    <row r="313" spans="20:20">
+    <row r="313" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T313" s="13"/>
     </row>
-    <row r="314" spans="20:20">
+    <row r="314" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T314" s="13"/>
     </row>
-    <row r="315" spans="20:20">
+    <row r="315" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T315" s="13"/>
     </row>
-    <row r="316" spans="20:20">
+    <row r="316" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T316" s="13"/>
     </row>
-    <row r="317" spans="20:20">
+    <row r="317" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T317" s="13"/>
     </row>
-    <row r="318" spans="20:20">
+    <row r="318" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T318" s="13"/>
     </row>
-    <row r="319" spans="20:20">
+    <row r="319" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T319" s="13"/>
     </row>
-    <row r="320" spans="20:20">
+    <row r="320" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T320" s="13"/>
     </row>
-    <row r="321" spans="20:20">
+    <row r="321" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T321" s="13"/>
     </row>
-    <row r="322" spans="20:20">
+    <row r="322" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T322" s="13"/>
     </row>
-    <row r="323" spans="20:20">
+    <row r="323" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T323" s="13"/>
     </row>
-    <row r="324" spans="20:20">
+    <row r="324" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T324" s="13"/>
     </row>
-    <row r="325" spans="20:20">
+    <row r="325" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T325" s="13"/>
     </row>
-    <row r="326" spans="20:20">
+    <row r="326" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T326" s="13"/>
     </row>
-    <row r="327" spans="20:20">
+    <row r="327" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T327" s="13"/>
     </row>
-    <row r="328" spans="20:20">
+    <row r="328" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T328" s="13"/>
     </row>
-    <row r="329" spans="20:20">
+    <row r="329" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T329" s="13"/>
     </row>
-    <row r="330" spans="20:20">
+    <row r="330" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T330" s="13"/>
     </row>
-    <row r="331" spans="20:20">
+    <row r="331" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T331" s="13"/>
     </row>
-    <row r="332" spans="20:20">
+    <row r="332" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T332" s="13"/>
     </row>
-    <row r="333" spans="20:20">
+    <row r="333" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T333" s="13"/>
     </row>
-    <row r="334" spans="20:20">
+    <row r="334" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T334" s="13"/>
     </row>
-    <row r="335" spans="20:20">
+    <row r="335" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T335" s="13"/>
     </row>
-    <row r="336" spans="20:20">
+    <row r="336" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T336" s="13"/>
     </row>
-    <row r="337" spans="20:20">
+    <row r="337" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T337" s="13"/>
     </row>
-    <row r="338" spans="20:20">
+    <row r="338" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T338" s="13"/>
     </row>
-    <row r="339" spans="20:20">
+    <row r="339" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T339" s="13"/>
     </row>
-    <row r="340" spans="20:20">
+    <row r="340" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T340" s="13"/>
     </row>
-    <row r="341" spans="20:20">
+    <row r="341" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T341" s="13"/>
     </row>
-    <row r="342" spans="20:20">
+    <row r="342" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T342" s="13"/>
     </row>
-    <row r="343" spans="20:20">
+    <row r="343" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T343" s="13"/>
     </row>
-    <row r="344" spans="20:20">
+    <row r="344" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T344" s="13"/>
     </row>
-    <row r="345" spans="20:20">
+    <row r="345" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T345" s="13"/>
     </row>
-    <row r="346" spans="20:20">
+    <row r="346" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T346" s="13"/>
     </row>
-    <row r="347" spans="20:20">
+    <row r="347" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T347" s="13"/>
     </row>
-    <row r="348" spans="20:20">
+    <row r="348" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T348" s="13"/>
     </row>
-    <row r="349" spans="20:20">
+    <row r="349" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T349" s="13"/>
     </row>
-    <row r="350" spans="20:20">
+    <row r="350" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T350" s="13"/>
     </row>
-    <row r="351" spans="20:20">
+    <row r="351" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T351" s="13"/>
     </row>
-    <row r="352" spans="20:20">
+    <row r="352" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T352" s="13"/>
     </row>
-    <row r="353" spans="20:20">
+    <row r="353" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T353" s="13"/>
     </row>
-    <row r="354" spans="20:20">
+    <row r="354" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T354" s="13"/>
     </row>
-    <row r="355" spans="20:20">
+    <row r="355" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T355" s="13"/>
     </row>
-    <row r="356" spans="20:20">
+    <row r="356" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T356" s="13"/>
     </row>
-    <row r="357" spans="20:20">
+    <row r="357" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T357" s="13"/>
     </row>
-    <row r="358" spans="20:20">
+    <row r="358" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T358" s="13"/>
     </row>
-    <row r="359" spans="20:20">
+    <row r="359" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T359" s="13"/>
     </row>
-    <row r="360" spans="20:20">
+    <row r="360" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T360" s="13"/>
     </row>
-    <row r="361" spans="20:20">
+    <row r="361" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T361" s="13"/>
     </row>
-    <row r="362" spans="20:20">
+    <row r="362" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T362" s="13"/>
     </row>
-    <row r="363" spans="20:20">
+    <row r="363" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T363" s="13"/>
     </row>
-    <row r="364" spans="20:20">
+    <row r="364" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T364" s="13"/>
     </row>
-    <row r="365" spans="20:20">
+    <row r="365" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T365" s="13"/>
     </row>
-    <row r="366" spans="20:20">
+    <row r="366" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T366" s="13"/>
     </row>
-    <row r="367" spans="20:20">
+    <row r="367" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T367" s="13"/>
     </row>
-    <row r="368" spans="20:20">
+    <row r="368" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T368" s="13"/>
     </row>
-    <row r="369" spans="20:20">
+    <row r="369" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T369" s="13"/>
     </row>
-    <row r="370" spans="20:20">
+    <row r="370" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T370" s="13"/>
     </row>
-    <row r="371" spans="20:20">
+    <row r="371" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T371" s="13"/>
     </row>
-    <row r="372" spans="20:20">
+    <row r="372" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T372" s="13"/>
     </row>
-    <row r="373" spans="20:20">
+    <row r="373" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T373" s="13"/>
     </row>
-    <row r="374" spans="20:20">
+    <row r="374" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T374" s="13"/>
     </row>
-    <row r="375" spans="20:20">
+    <row r="375" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T375" s="13"/>
     </row>
-    <row r="376" spans="20:20">
+    <row r="376" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T376" s="13"/>
     </row>
-    <row r="377" spans="20:20">
+    <row r="377" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T377" s="13"/>
     </row>
-    <row r="378" spans="20:20">
+    <row r="378" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T378" s="13"/>
     </row>
-    <row r="379" spans="20:20">
+    <row r="379" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T379" s="13"/>
     </row>
-    <row r="380" spans="20:20">
+    <row r="380" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T380" s="13"/>
     </row>
-    <row r="381" spans="20:20">
+    <row r="381" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T381" s="13"/>
     </row>
-    <row r="382" spans="20:20">
+    <row r="382" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T382" s="13"/>
     </row>
-    <row r="383" spans="20:20">
+    <row r="383" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T383" s="13"/>
     </row>
-    <row r="384" spans="20:20">
+    <row r="384" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T384" s="13"/>
     </row>
-    <row r="385" spans="20:20">
+    <row r="385" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T385" s="13"/>
     </row>
-    <row r="386" spans="20:20">
+    <row r="386" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T386" s="13"/>
     </row>
-    <row r="387" spans="20:20">
+    <row r="387" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T387" s="13"/>
     </row>
-    <row r="388" spans="20:20">
+    <row r="388" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T388" s="13"/>
     </row>
-    <row r="389" spans="20:20">
+    <row r="389" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T389" s="13"/>
     </row>
-    <row r="390" spans="20:20">
+    <row r="390" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T390" s="13"/>
     </row>
-    <row r="391" spans="20:20">
+    <row r="391" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T391" s="13"/>
     </row>
-    <row r="392" spans="20:20">
+    <row r="392" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T392" s="13"/>
     </row>
-    <row r="393" spans="20:20">
+    <row r="393" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T393" s="13"/>
     </row>
-    <row r="394" spans="20:20">
+    <row r="394" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T394" s="13"/>
     </row>
-    <row r="395" spans="20:20">
+    <row r="395" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T395" s="13"/>
     </row>
-    <row r="396" spans="20:20">
+    <row r="396" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T396" s="13"/>
     </row>
-    <row r="397" spans="20:20">
+    <row r="397" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T397" s="13"/>
     </row>
-    <row r="398" spans="20:20">
+    <row r="398" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T398" s="13"/>
     </row>
-    <row r="399" spans="20:20">
+    <row r="399" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T399" s="13"/>
     </row>
-    <row r="400" spans="20:20">
+    <row r="400" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T400" s="13"/>
     </row>
-    <row r="401" spans="20:20">
+    <row r="401" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T401" s="13"/>
     </row>
-    <row r="402" spans="20:20">
+    <row r="402" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T402" s="13"/>
     </row>
-    <row r="403" spans="20:20">
+    <row r="403" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T403" s="13"/>
     </row>
-    <row r="404" spans="20:20">
+    <row r="404" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T404" s="13"/>
     </row>
-    <row r="405" spans="20:20">
+    <row r="405" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T405" s="13"/>
     </row>
-    <row r="406" spans="20:20">
+    <row r="406" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T406" s="13"/>
     </row>
-    <row r="407" spans="20:20">
+    <row r="407" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T407" s="13"/>
     </row>
-    <row r="408" spans="20:20">
+    <row r="408" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T408" s="13"/>
     </row>
-    <row r="409" spans="20:20">
+    <row r="409" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T409" s="13"/>
     </row>
-    <row r="410" spans="20:20">
+    <row r="410" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T410" s="13"/>
     </row>
-    <row r="411" spans="20:20">
+    <row r="411" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T411" s="13"/>
     </row>
-    <row r="412" spans="20:20">
+    <row r="412" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T412" s="13"/>
     </row>
-    <row r="413" spans="20:20">
+    <row r="413" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T413" s="13"/>
     </row>
-    <row r="414" spans="20:20">
+    <row r="414" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T414" s="13"/>
     </row>
-    <row r="415" spans="20:20">
+    <row r="415" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T415" s="13"/>
     </row>
-    <row r="416" spans="20:20">
+    <row r="416" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T416" s="13"/>
     </row>
-    <row r="417" spans="20:20">
+    <row r="417" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T417" s="13"/>
     </row>
-    <row r="418" spans="20:20">
+    <row r="418" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T418" s="13"/>
     </row>
-    <row r="419" spans="20:20">
+    <row r="419" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T419" s="13"/>
     </row>
-    <row r="420" spans="20:20">
+    <row r="420" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T420" s="13"/>
     </row>
-    <row r="421" spans="20:20">
+    <row r="421" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T421" s="13"/>
     </row>
-    <row r="422" spans="20:20">
+    <row r="422" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T422" s="13"/>
     </row>
-    <row r="423" spans="20:20">
+    <row r="423" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T423" s="13"/>
     </row>
-    <row r="424" spans="20:20">
+    <row r="424" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T424" s="13"/>
     </row>
-    <row r="425" spans="20:20">
+    <row r="425" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T425" s="13"/>
     </row>
-    <row r="426" spans="20:20">
+    <row r="426" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T426" s="13"/>
     </row>
-    <row r="427" spans="20:20">
+    <row r="427" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T427" s="13"/>
     </row>
-    <row r="428" spans="20:20">
+    <row r="428" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T428" s="13"/>
     </row>
-    <row r="429" spans="20:20">
+    <row r="429" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T429" s="13"/>
     </row>
-    <row r="430" spans="20:20">
+    <row r="430" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T430" s="13"/>
     </row>
-    <row r="431" spans="20:20">
+    <row r="431" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T431" s="13"/>
     </row>
-    <row r="432" spans="20:20">
+    <row r="432" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T432" s="13"/>
     </row>
-    <row r="433" spans="20:20">
+    <row r="433" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T433" s="13"/>
     </row>
-    <row r="434" spans="20:20">
+    <row r="434" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T434" s="13"/>
     </row>
-    <row r="435" spans="20:20">
+    <row r="435" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T435" s="13"/>
     </row>
-    <row r="436" spans="20:20">
+    <row r="436" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T436" s="13"/>
     </row>
-    <row r="437" spans="20:20">
+    <row r="437" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T437" s="13"/>
     </row>
-    <row r="438" spans="20:20">
+    <row r="438" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T438" s="13"/>
     </row>
-    <row r="439" spans="20:20">
+    <row r="439" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T439" s="13"/>
     </row>
-    <row r="440" spans="20:20">
+    <row r="440" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T440" s="13"/>
     </row>
-    <row r="441" spans="20:20">
+    <row r="441" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T441" s="13"/>
     </row>
-    <row r="442" spans="20:20">
+    <row r="442" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T442" s="13"/>
     </row>
-    <row r="443" spans="20:20">
+    <row r="443" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T443" s="13"/>
     </row>
-    <row r="444" spans="20:20">
+    <row r="444" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T444" s="13"/>
     </row>
-    <row r="445" spans="20:20">
+    <row r="445" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T445" s="13"/>
     </row>
-    <row r="446" spans="20:20">
+    <row r="446" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T446" s="13"/>
     </row>
-    <row r="447" spans="20:20">
+    <row r="447" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T447" s="13"/>
     </row>
-    <row r="448" spans="20:20">
+    <row r="448" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T448" s="13"/>
     </row>
-    <row r="449" spans="20:20">
+    <row r="449" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T449" s="13"/>
     </row>
-    <row r="450" spans="20:20">
+    <row r="450" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T450" s="13"/>
     </row>
-    <row r="451" spans="20:20">
+    <row r="451" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T451" s="13"/>
     </row>
-    <row r="452" spans="20:20">
+    <row r="452" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T452" s="13"/>
     </row>
-    <row r="453" spans="20:20">
+    <row r="453" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T453" s="13"/>
     </row>
-    <row r="454" spans="20:20">
+    <row r="454" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T454" s="13"/>
     </row>
-    <row r="455" spans="20:20">
+    <row r="455" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T455" s="13"/>
     </row>
-    <row r="456" spans="20:20">
+    <row r="456" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T456" s="13"/>
     </row>
-    <row r="457" spans="20:20">
+    <row r="457" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T457" s="13"/>
     </row>
-    <row r="458" spans="20:20">
+    <row r="458" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T458" s="13"/>
     </row>
-    <row r="459" spans="20:20">
+    <row r="459" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T459" s="13"/>
     </row>
-    <row r="460" spans="20:20">
+    <row r="460" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T460" s="13"/>
     </row>
-    <row r="461" spans="20:20">
+    <row r="461" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T461" s="13"/>
     </row>
-    <row r="462" spans="20:20">
+    <row r="462" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T462" s="13"/>
     </row>
-    <row r="463" spans="20:20">
+    <row r="463" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T463" s="13"/>
     </row>
-    <row r="464" spans="20:20">
+    <row r="464" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T464" s="13"/>
     </row>
-    <row r="465" spans="20:20">
+    <row r="465" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T465" s="13"/>
     </row>
-    <row r="466" spans="20:20">
+    <row r="466" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T466" s="13"/>
     </row>
-    <row r="467" spans="20:20">
+    <row r="467" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T467" s="13"/>
     </row>
-    <row r="468" spans="20:20">
+    <row r="468" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T468" s="13"/>
     </row>
-    <row r="469" spans="20:20">
+    <row r="469" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T469" s="13"/>
     </row>
-    <row r="470" spans="20:20">
+    <row r="470" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T470" s="13"/>
     </row>
-    <row r="471" spans="20:20">
+    <row r="471" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T471" s="13"/>
     </row>
-    <row r="472" spans="20:20">
+    <row r="472" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T472" s="13"/>
     </row>
-    <row r="473" spans="20:20">
+    <row r="473" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T473" s="13"/>
     </row>
-    <row r="474" spans="20:20">
+    <row r="474" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T474" s="13"/>
     </row>
-    <row r="475" spans="20:20">
+    <row r="475" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T475" s="13"/>
     </row>
-    <row r="476" spans="20:20">
+    <row r="476" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T476" s="13"/>
     </row>
-    <row r="477" spans="20:20">
+    <row r="477" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T477" s="13"/>
     </row>
-    <row r="478" spans="20:20">
+    <row r="478" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T478" s="13"/>
     </row>
-    <row r="479" spans="20:20">
+    <row r="479" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T479" s="13"/>
     </row>
-    <row r="480" spans="20:20">
+    <row r="480" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T480" s="13"/>
     </row>
-    <row r="481" spans="20:20">
+    <row r="481" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T481" s="13"/>
     </row>
-    <row r="482" spans="20:20">
+    <row r="482" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T482" s="13"/>
     </row>
-    <row r="483" spans="20:20">
+    <row r="483" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T483" s="13"/>
     </row>
-    <row r="484" spans="20:20">
+    <row r="484" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T484" s="13"/>
     </row>
-    <row r="485" spans="20:20">
+    <row r="485" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T485" s="13"/>
     </row>
-    <row r="486" spans="20:20">
+    <row r="486" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T486" s="13"/>
     </row>
-    <row r="487" spans="20:20">
+    <row r="487" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T487" s="13"/>
     </row>
-    <row r="488" spans="20:20">
+    <row r="488" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T488" s="13"/>
     </row>
-    <row r="489" spans="20:20">
+    <row r="489" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T489" s="13"/>
     </row>
-    <row r="490" spans="20:20">
+    <row r="490" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T490" s="13"/>
     </row>
-    <row r="491" spans="20:20">
+    <row r="491" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T491" s="13"/>
     </row>
-    <row r="492" spans="20:20">
+    <row r="492" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T492" s="13"/>
     </row>
-    <row r="493" spans="20:20">
+    <row r="493" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T493" s="13"/>
     </row>
-    <row r="494" spans="20:20">
+    <row r="494" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T494" s="13"/>
     </row>
-    <row r="495" spans="20:20">
+    <row r="495" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T495" s="13"/>
     </row>
-    <row r="496" spans="20:20">
+    <row r="496" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T496" s="13"/>
     </row>
-    <row r="497" spans="20:20">
+    <row r="497" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T497" s="13"/>
     </row>
-    <row r="498" spans="20:20">
+    <row r="498" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T498" s="13"/>
     </row>
-    <row r="499" spans="20:20">
+    <row r="499" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T499" s="13"/>
     </row>
-    <row r="500" spans="20:20">
+    <row r="500" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T500" s="13"/>
     </row>
-    <row r="501" spans="20:20">
+    <row r="501" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T501" s="13"/>
     </row>
-    <row r="502" spans="20:20">
+    <row r="502" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T502" s="13"/>
     </row>
-    <row r="503" spans="20:20">
+    <row r="503" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T503" s="13"/>
     </row>
-    <row r="504" spans="20:20">
+    <row r="504" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T504" s="13"/>
     </row>
-    <row r="505" spans="20:20">
+    <row r="505" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T505" s="13"/>
     </row>
-    <row r="506" spans="20:20">
+    <row r="506" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T506" s="13"/>
     </row>
-    <row r="507" spans="20:20">
+    <row r="507" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T507" s="13"/>
     </row>
-    <row r="508" spans="20:20">
+    <row r="508" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T508" s="13"/>
     </row>
-    <row r="509" spans="20:20">
+    <row r="509" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T509" s="13"/>
     </row>
-    <row r="510" spans="20:20">
+    <row r="510" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T510" s="13"/>
     </row>
-    <row r="511" spans="20:20">
+    <row r="511" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T511" s="13"/>
     </row>
-    <row r="512" spans="20:20">
+    <row r="512" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T512" s="13"/>
     </row>
-    <row r="513" spans="20:20">
+    <row r="513" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T513" s="13"/>
     </row>
-    <row r="514" spans="20:20">
+    <row r="514" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T514" s="13"/>
     </row>
-    <row r="515" spans="20:20">
+    <row r="515" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T515" s="13"/>
     </row>
-    <row r="516" spans="20:20">
+    <row r="516" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T516" s="13"/>
     </row>
-    <row r="517" spans="20:20">
+    <row r="517" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T517" s="13"/>
     </row>
-    <row r="518" spans="20:20">
+    <row r="518" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T518" s="13"/>
     </row>
-    <row r="519" spans="20:20">
+    <row r="519" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T519" s="13"/>
     </row>
-    <row r="520" spans="20:20">
+    <row r="520" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T520" s="13"/>
     </row>
-    <row r="521" spans="20:20">
+    <row r="521" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T521" s="13"/>
     </row>
-    <row r="522" spans="20:20">
+    <row r="522" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T522" s="13"/>
     </row>
-    <row r="523" spans="20:20">
+    <row r="523" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T523" s="13"/>
     </row>
-    <row r="524" spans="20:20">
+    <row r="524" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T524" s="13"/>
     </row>
-    <row r="525" spans="20:20">
+    <row r="525" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T525" s="13"/>
     </row>
-    <row r="526" spans="20:20">
+    <row r="526" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T526" s="13"/>
     </row>
-    <row r="527" spans="20:20">
+    <row r="527" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T527" s="13"/>
     </row>
-    <row r="528" spans="20:20">
+    <row r="528" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T528" s="13"/>
     </row>
-    <row r="529" spans="20:20">
+    <row r="529" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T529" s="13"/>
     </row>
-    <row r="530" spans="20:20">
+    <row r="530" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T530" s="13"/>
     </row>
-    <row r="531" spans="20:20">
+    <row r="531" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T531" s="13"/>
     </row>
-    <row r="532" spans="20:20">
+    <row r="532" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T532" s="13"/>
     </row>
-    <row r="533" spans="20:20">
+    <row r="533" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T533" s="13"/>
     </row>
-    <row r="534" spans="20:20">
+    <row r="534" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T534" s="13"/>
     </row>
-    <row r="535" spans="20:20">
+    <row r="535" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T535" s="13"/>
     </row>
-    <row r="536" spans="20:20">
+    <row r="536" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T536" s="13"/>
     </row>
-    <row r="537" spans="20:20">
+    <row r="537" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T537" s="13"/>
     </row>
-    <row r="538" spans="20:20">
+    <row r="538" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T538" s="13"/>
     </row>
-    <row r="539" spans="20:20">
+    <row r="539" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T539" s="13"/>
     </row>
-    <row r="540" spans="20:20">
+    <row r="540" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T540" s="13"/>
     </row>
-    <row r="541" spans="20:20">
+    <row r="541" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T541" s="13"/>
     </row>
-    <row r="542" spans="20:20">
+    <row r="542" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T542" s="13"/>
     </row>
-    <row r="543" spans="20:20">
+    <row r="543" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T543" s="13"/>
     </row>
-    <row r="544" spans="20:20">
+    <row r="544" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T544" s="13"/>
     </row>
-    <row r="545" spans="20:20">
+    <row r="545" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T545" s="13"/>
     </row>
-    <row r="546" spans="20:20">
+    <row r="546" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T546" s="13"/>
     </row>
-    <row r="547" spans="20:20">
+    <row r="547" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T547" s="13"/>
     </row>
-    <row r="548" spans="20:20">
+    <row r="548" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T548" s="13"/>
     </row>
-    <row r="549" spans="20:20">
+    <row r="549" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T549" s="13"/>
     </row>
-    <row r="550" spans="20:20">
+    <row r="550" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T550" s="13"/>
     </row>
-    <row r="551" spans="20:20">
+    <row r="551" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T551" s="13"/>
     </row>
-    <row r="552" spans="20:20">
+    <row r="552" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T552" s="13"/>
     </row>
-    <row r="553" spans="20:20">
+    <row r="553" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T553" s="13"/>
     </row>
-    <row r="554" spans="20:20">
+    <row r="554" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T554" s="13"/>
     </row>
-    <row r="555" spans="20:20">
+    <row r="555" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T555" s="13"/>
     </row>
-    <row r="556" spans="20:20">
+    <row r="556" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T556" s="13"/>
     </row>
-    <row r="557" spans="20:20">
+    <row r="557" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T557" s="13"/>
     </row>
-    <row r="558" spans="20:20">
+    <row r="558" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T558" s="13"/>
     </row>
-    <row r="559" spans="20:20">
+    <row r="559" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T559" s="13"/>
     </row>
-    <row r="560" spans="20:20">
+    <row r="560" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T560" s="13"/>
     </row>
-    <row r="561" spans="20:20">
+    <row r="561" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T561" s="13"/>
     </row>
-    <row r="562" spans="20:20">
+    <row r="562" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T562" s="13"/>
     </row>
-    <row r="563" spans="20:20">
+    <row r="563" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T563" s="13"/>
     </row>
-    <row r="564" spans="20:20">
+    <row r="564" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T564" s="13"/>
     </row>
-    <row r="565" spans="20:20">
+    <row r="565" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T565" s="13"/>
     </row>
-    <row r="566" spans="20:20">
+    <row r="566" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T566" s="13"/>
     </row>
-    <row r="567" spans="20:20">
+    <row r="567" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T567" s="13"/>
     </row>
-    <row r="568" spans="20:20">
+    <row r="568" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T568" s="13"/>
     </row>
-    <row r="569" spans="20:20">
+    <row r="569" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T569" s="13"/>
     </row>
-    <row r="570" spans="20:20">
+    <row r="570" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T570" s="13"/>
     </row>
-    <row r="571" spans="20:20">
+    <row r="571" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T571" s="13"/>
     </row>
-    <row r="572" spans="20:20">
+    <row r="572" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T572" s="13"/>
     </row>
-    <row r="573" spans="20:20">
+    <row r="573" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T573" s="13"/>
     </row>
-    <row r="574" spans="20:20">
+    <row r="574" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T574" s="13"/>
     </row>
-    <row r="575" spans="20:20">
+    <row r="575" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T575" s="13"/>
     </row>
-    <row r="576" spans="20:20">
+    <row r="576" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T576" s="13"/>
     </row>
-    <row r="577" spans="20:20">
+    <row r="577" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T577" s="13"/>
     </row>
-    <row r="578" spans="20:20">
+    <row r="578" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T578" s="13"/>
     </row>
-    <row r="579" spans="20:20">
+    <row r="579" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T579" s="13"/>
     </row>
-    <row r="580" spans="20:20">
+    <row r="580" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T580" s="13"/>
     </row>
-    <row r="581" spans="20:20">
+    <row r="581" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T581" s="13"/>
     </row>
-    <row r="582" spans="20:20">
+    <row r="582" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T582" s="13"/>
     </row>
-    <row r="583" spans="20:20">
+    <row r="583" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T583" s="13"/>
     </row>
-    <row r="584" spans="20:20">
+    <row r="584" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T584" s="13"/>
     </row>
-    <row r="585" spans="20:20">
+    <row r="585" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T585" s="13"/>
     </row>
-    <row r="586" spans="20:20">
+    <row r="586" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T586" s="13"/>
     </row>
-    <row r="587" spans="20:20">
+    <row r="587" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T587" s="13"/>
     </row>
-    <row r="588" spans="20:20">
+    <row r="588" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T588" s="13"/>
     </row>
-    <row r="589" spans="20:20">
+    <row r="589" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T589" s="13"/>
     </row>
-    <row r="590" spans="20:20">
+    <row r="590" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T590" s="13"/>
     </row>
-    <row r="591" spans="20:20">
+    <row r="591" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T591" s="13"/>
     </row>
-    <row r="592" spans="20:20">
+    <row r="592" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T592" s="13"/>
     </row>
-    <row r="593" spans="20:20">
+    <row r="593" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T593" s="13"/>
     </row>
-    <row r="594" spans="20:20">
+    <row r="594" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T594" s="13"/>
     </row>
-    <row r="595" spans="20:20">
+    <row r="595" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T595" s="13"/>
     </row>
-    <row r="596" spans="20:20">
+    <row r="596" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T596" s="13"/>
     </row>
-    <row r="597" spans="20:20">
+    <row r="597" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T597" s="13"/>
     </row>
-    <row r="598" spans="20:20">
+    <row r="598" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T598" s="13"/>
     </row>
-    <row r="599" spans="20:20">
+    <row r="599" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T599" s="13"/>
     </row>
-    <row r="600" spans="20:20">
+    <row r="600" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T600" s="13"/>
     </row>
-    <row r="601" spans="20:20">
+    <row r="601" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T601" s="13"/>
     </row>
-    <row r="602" spans="20:20">
+    <row r="602" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T602" s="13"/>
     </row>
-    <row r="603" spans="20:20">
+    <row r="603" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T603" s="13"/>
     </row>
-    <row r="604" spans="20:20">
+    <row r="604" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T604" s="13"/>
     </row>
-    <row r="605" spans="20:20">
+    <row r="605" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T605" s="13"/>
     </row>
-    <row r="606" spans="20:20">
+    <row r="606" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T606" s="13"/>
     </row>
-    <row r="607" spans="20:20">
+    <row r="607" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T607" s="13"/>
     </row>
-    <row r="608" spans="20:20">
+    <row r="608" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T608" s="13"/>
     </row>
-    <row r="609" spans="20:20">
+    <row r="609" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T609" s="13"/>
     </row>
-    <row r="610" spans="20:20">
+    <row r="610" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T610" s="13"/>
     </row>
-    <row r="611" spans="20:20">
+    <row r="611" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T611" s="13"/>
     </row>
-    <row r="612" spans="20:20">
+    <row r="612" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T612" s="13"/>
     </row>
-    <row r="613" spans="20:20">
+    <row r="613" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T613" s="13"/>
     </row>
-    <row r="614" spans="20:20">
+    <row r="614" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T614" s="13"/>
     </row>
-    <row r="615" spans="20:20">
+    <row r="615" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T615" s="13"/>
     </row>
-    <row r="616" spans="20:20">
+    <row r="616" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T616" s="13"/>
     </row>
-    <row r="617" spans="20:20">
+    <row r="617" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T617" s="13"/>
     </row>
-    <row r="618" spans="20:20">
+    <row r="618" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T618" s="13"/>
     </row>
-    <row r="619" spans="20:20">
+    <row r="619" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T619" s="13"/>
     </row>
-    <row r="620" spans="20:20">
+    <row r="620" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T620" s="13"/>
     </row>
-    <row r="621" spans="20:20">
+    <row r="621" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T621" s="13"/>
     </row>
-    <row r="622" spans="20:20">
+    <row r="622" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T622" s="13"/>
     </row>
-    <row r="623" spans="20:20">
+    <row r="623" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T623" s="13"/>
     </row>
-    <row r="624" spans="20:20">
+    <row r="624" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T624" s="13"/>
     </row>
-    <row r="625" spans="20:20">
+    <row r="625" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T625" s="13"/>
     </row>
-    <row r="626" spans="20:20">
+    <row r="626" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T626" s="13"/>
     </row>
-    <row r="627" spans="20:20">
+    <row r="627" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T627" s="13"/>
     </row>
-    <row r="628" spans="20:20">
+    <row r="628" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T628" s="13"/>
     </row>
-    <row r="629" spans="20:20">
+    <row r="629" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T629" s="13"/>
     </row>
-    <row r="630" spans="20:20">
+    <row r="630" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T630" s="13"/>
     </row>
-    <row r="631" spans="20:20">
+    <row r="631" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T631" s="13"/>
     </row>
-    <row r="632" spans="20:20">
+    <row r="632" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T632" s="13"/>
     </row>
-    <row r="633" spans="20:20">
+    <row r="633" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T633" s="13"/>
     </row>
-    <row r="634" spans="20:20">
+    <row r="634" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T634" s="13"/>
     </row>
-    <row r="635" spans="20:20">
+    <row r="635" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T635" s="13"/>
     </row>
-    <row r="636" spans="20:20">
+    <row r="636" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T636" s="13"/>
     </row>
-    <row r="637" spans="20:20">
+    <row r="637" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T637" s="13"/>
     </row>
-    <row r="638" spans="20:20">
+    <row r="638" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T638" s="13"/>
     </row>
-    <row r="639" spans="20:20">
+    <row r="639" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T639" s="13"/>
     </row>
-    <row r="640" spans="20:20">
+    <row r="640" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T640" s="13"/>
     </row>
-    <row r="641" spans="20:20">
+    <row r="641" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T641" s="13"/>
     </row>
-    <row r="642" spans="20:20">
+    <row r="642" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T642" s="13"/>
     </row>
-    <row r="643" spans="20:20">
+    <row r="643" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T643" s="13"/>
     </row>
-    <row r="644" spans="20:20">
+    <row r="644" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T644" s="13"/>
     </row>
   </sheetData>
@@ -7450,7 +7476,7 @@
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
@@ -7459,7 +7485,7 @@
     <col min="5" max="6" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" customHeight="1">
+    <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>26</v>
       </c>
@@ -7473,7 +7499,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.25" customHeight="1">
+    <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>45</v>
       </c>
@@ -7487,7 +7513,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="3" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>57</v>
       </c>
@@ -7501,7 +7527,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="4" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>58</v>
       </c>
@@ -7515,7 +7541,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="5" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>59</v>
       </c>
@@ -7529,7 +7555,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="6" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>60</v>
       </c>
@@ -7543,7 +7569,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>61</v>
       </c>
@@ -7557,7 +7583,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>66</v>
       </c>
@@ -7571,7 +7597,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>65</v>
       </c>
@@ -7585,7 +7611,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45" hidden="1">
+    <row r="10" spans="1:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>111</v>
       </c>
@@ -7599,7 +7625,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="11" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>45</v>
       </c>
@@ -7613,7 +7639,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="12" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>57</v>
       </c>
@@ -7627,7 +7653,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="13" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>58</v>
       </c>
@@ -7641,7 +7667,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="14" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>59</v>
       </c>
@@ -7655,7 +7681,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="15" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>60</v>
       </c>
@@ -7669,7 +7695,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="16" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>61</v>
       </c>
@@ -7683,7 +7709,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="17" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>66</v>
       </c>
@@ -7697,7 +7723,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13.5" hidden="1" customHeight="1">
+    <row r="18" spans="1:4" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>65</v>
       </c>
@@ -7711,7 +7737,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="19" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>45</v>
       </c>
@@ -7725,7 +7751,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="20" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>57</v>
       </c>
@@ -7739,7 +7765,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="21" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>58</v>
       </c>
@@ -7753,7 +7779,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="22" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>59</v>
       </c>
@@ -7767,7 +7793,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="23" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>60</v>
       </c>
@@ -7781,7 +7807,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="24" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>61</v>
       </c>
@@ -7795,7 +7821,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="25" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>66</v>
       </c>
@@ -7809,7 +7835,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="26" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>65</v>
       </c>
@@ -7823,7 +7849,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="27" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>45</v>
       </c>
@@ -7837,7 +7863,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="28" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>57</v>
       </c>
@@ -7851,7 +7877,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="29" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>58</v>
       </c>
@@ -7865,7 +7891,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="30" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>59</v>
       </c>
@@ -7879,7 +7905,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="31" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>60</v>
       </c>
@@ -7893,7 +7919,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="32" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>61</v>
       </c>
@@ -7907,7 +7933,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="33" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>66</v>
       </c>
@@ -7921,7 +7947,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="34" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>65</v>
       </c>
@@ -7935,7 +7961,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="35" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>45</v>
       </c>
@@ -7949,7 +7975,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="36" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>57</v>
       </c>
@@ -7963,7 +7989,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="37" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>58</v>
       </c>
@@ -7977,7 +8003,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="38" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>59</v>
       </c>
@@ -7991,7 +8017,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="39" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>60</v>
       </c>
@@ -8005,7 +8031,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="40" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>61</v>
       </c>
@@ -8019,7 +8045,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="41" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>66</v>
       </c>
@@ -8033,7 +8059,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="42" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>65</v>
       </c>
@@ -8047,7 +8073,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="43" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>45</v>
       </c>
@@ -8061,7 +8087,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="44" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>57</v>
       </c>
@@ -8075,7 +8101,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="45" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>58</v>
       </c>
@@ -8089,7 +8115,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="46" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>59</v>
       </c>
@@ -8103,7 +8129,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="47" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>60</v>
       </c>
@@ -8117,7 +8143,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="48" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>61</v>
       </c>
@@ -8131,7 +8157,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="49" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>66</v>
       </c>
@@ -8145,7 +8171,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="14.25" hidden="1" customHeight="1">
+    <row r="50" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>65</v>
       </c>
@@ -8159,956 +8185,956 @@
         <v>319</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="52" spans="1:4" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="53" spans="1:4" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="54" spans="1:4" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="55" spans="1:4" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="56" spans="1:4" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="57" spans="1:4" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="58" spans="1:4" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="59" spans="1:4" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="60" spans="1:4" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="61" spans="1:4" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="62" spans="1:4" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="63" spans="1:4" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="64" spans="1:4" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="65" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="66" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="67" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="68" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="69" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="70" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="71" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="72" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="73" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="74" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="75" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="76" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="77" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="78" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="79" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="80" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="81" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="82" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="83" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="84" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="85" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="86" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="87" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="88" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="89" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="90" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="91" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="92" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="93" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="94" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="95" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="96" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="97" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="98" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="99" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="100" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="101" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="102" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="103" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="104" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="105" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="106" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="107" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="108" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="109" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="110" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="111" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="112" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="113" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="114" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="115" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="116" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="117" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="118" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="119" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="120" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="121" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="122" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="123" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="124" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="125" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="126" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="127" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="128" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="129" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="130" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="131" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="132" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="133" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="134" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="135" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="136" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="137" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="138" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="139" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="140" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="141" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="142" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="143" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="144" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="145" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="146" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="147" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="148" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="149" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="150" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="151" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="152" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="153" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="154" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="155" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="156" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="157" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="158" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="159" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="160" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="161" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="162" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="163" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="164" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="165" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="166" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="167" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="168" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="169" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="170" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="171" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="172" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="173" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="174" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="175" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="176" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="177" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="178" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="179" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="180" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="181" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="182" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="183" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="184" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="185" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="186" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="187" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="188" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="189" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="190" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="191" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="192" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="193" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="194" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="195" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="196" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="197" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="198" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="199" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="200" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="201" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="202" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="203" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="204" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="205" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="206" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="207" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="208" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="209" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="210" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="211" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="212" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="213" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="214" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="215" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="216" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="217" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="218" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="219" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="220" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="221" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="222" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="223" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="224" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="225" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="226" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="227" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="228" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="229" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="230" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="231" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="232" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="233" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="234" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="235" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="236" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="237" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="238" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="239" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="240" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="241" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="242" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="243" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="244" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="245" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="246" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="247" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="248" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="249" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="250" ht="14.25" hidden="1" customHeight="1"/>
-    <row r="251" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="252" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="253" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="254" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="255" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="256" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="257" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="258" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="259" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="260" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="261" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="262" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="263" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="264" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="265" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="266" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="267" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="268" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="269" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="270" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="271" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="272" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="273" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="274" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="275" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="276" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="277" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="278" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="279" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="280" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="281" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="282" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="283" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="284" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="285" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="286" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="287" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="288" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="289" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="290" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="291" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="292" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="293" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="294" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="295" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="296" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="297" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="298" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="299" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="300" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="301" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="302" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="303" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="304" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="305" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="306" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="307" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="308" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="309" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="310" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="311" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="312" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="313" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="314" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="315" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="316" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="317" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="318" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="319" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="320" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="321" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="322" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="323" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="324" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="325" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="326" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="327" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="328" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="329" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="330" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="331" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="332" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="333" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="334" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="335" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="336" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="337" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="338" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="339" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="340" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="341" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="342" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="343" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="344" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="345" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="346" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="347" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="348" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="349" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="350" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="351" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="352" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="353" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="354" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="355" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="356" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="357" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="358" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="359" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="360" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="361" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="362" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="363" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="364" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="365" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="366" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="367" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="368" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="369" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="370" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="371" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="372" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="373" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="374" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="375" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="376" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="377" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="378" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="379" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="380" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="381" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="382" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="383" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="384" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="385" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="386" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="387" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="388" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="389" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="390" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="391" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="392" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="393" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="394" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="395" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="396" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="397" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="398" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="399" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="400" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="401" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="402" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="403" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="404" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="405" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="406" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="407" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="408" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="409" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="410" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="411" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="412" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="413" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="414" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="415" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="416" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="417" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="418" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="419" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="420" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="421" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="422" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="423" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="424" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="425" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="426" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="427" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="428" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="429" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="430" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="431" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="432" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="433" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="434" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="435" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="436" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="437" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="438" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="439" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="440" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="441" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="442" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="443" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="444" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="445" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="446" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="447" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="448" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="449" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="450" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="451" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="452" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="453" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="454" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="455" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="456" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="457" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="458" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="459" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="460" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="461" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="462" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="463" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="464" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="465" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="466" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="467" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="468" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="469" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="470" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="471" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="472" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="473" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="474" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="475" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="476" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="477" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="478" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="479" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="480" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="481" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="482" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="483" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="484" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="485" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="486" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="487" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="488" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="489" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="490" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="491" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="492" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="493" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="494" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="495" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="496" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="497" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="498" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="499" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="500" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="501" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="502" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="503" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="504" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="505" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="506" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="507" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="508" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="509" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="510" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="511" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="512" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="513" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="514" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="515" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="516" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="517" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="518" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="519" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="520" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="521" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="522" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="523" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="524" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="525" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="526" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="527" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="528" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="529" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="530" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="531" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="532" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="533" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="534" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="535" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="536" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="537" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="538" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="539" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="540" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="541" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="542" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="543" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="544" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="545" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="546" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="547" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="548" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="549" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="550" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="551" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="552" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="553" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="554" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="555" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="556" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="557" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="558" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="559" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="560" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="561" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="562" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="563" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="564" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="565" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="566" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="567" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="568" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="569" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="570" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="571" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="572" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="573" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="574" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="575" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="576" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="577" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="578" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="579" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="580" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="581" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="582" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="583" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="584" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="585" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="586" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="587" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="588" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="589" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="590" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="591" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="592" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="593" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="594" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="595" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="596" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="597" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="598" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="599" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="600" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="601" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="602" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="603" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="604" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="605" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="606" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="607" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="608" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="609" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="610" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="611" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="612" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="613" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="614" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="615" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="616" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="617" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="618" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="619" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="620" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="621" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="622" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="623" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="624" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="625" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="626" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="627" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="628" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="629" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="630" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="631" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="632" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="633" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="634" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="635" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="636" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="637" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="638" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="639" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="640" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="641" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="642" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="643" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="644" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="645" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="646" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="647" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="648" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="649" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="650" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="651" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="652" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="653" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="654" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="655" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="656" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="657" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="658" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="659" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="660" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="661" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="662" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="663" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="664" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="665" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="666" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="667" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="668" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="669" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="670" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="671" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="672" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="673" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="674" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="675" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="676" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="677" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="678" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="679" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="680" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="681" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="682" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="683" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="684" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="685" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="686" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="687" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="688" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="689" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="690" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="691" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="692" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="693" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="694" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="695" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="696" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="697" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="698" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="699" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="700" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="701" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="702" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="703" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="704" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="705" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="706" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="707" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="708" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="709" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="710" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="711" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="712" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="713" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="714" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="715" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="716" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="717" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="718" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="719" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="720" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="721" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="722" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="723" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="724" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="725" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="726" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="727" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="728" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="729" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="730" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="731" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="732" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="733" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="734" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="735" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="736" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="737" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="738" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="739" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="740" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="741" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="742" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="743" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="744" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="745" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="746" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="747" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="748" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="749" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="750" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="751" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="752" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="753" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="754" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="755" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="756" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="757" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="758" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="759" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="760" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="761" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="762" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="763" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="764" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="765" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="766" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="767" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="768" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="769" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="770" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="771" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="772" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="773" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="774" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="775" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="776" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="777" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="778" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="779" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="780" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="781" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="782" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="783" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="784" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="785" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="786" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="787" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="788" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="789" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="790" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="791" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="792" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="793" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="794" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="795" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="796" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="797" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="798" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="799" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="800" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="801" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="802" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="803" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="804" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="805" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="806" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="807" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="808" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="809" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="810" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="811" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="812" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="813" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="814" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="815" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="816" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="817" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="818" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="819" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="820" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="821" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="822" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="823" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="824" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="825" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="826" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="827" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="828" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="829" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="830" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="831" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="832" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="833" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="834" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="835" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="836" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="837" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="838" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="839" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="840" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="841" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="842" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="843" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="844" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="845" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="846" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="847" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="848" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="849" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="850" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="851" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="852" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="853" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="854" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="855" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="856" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="857" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="858" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="859" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="860" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="861" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="862" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="863" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="864" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="865" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="866" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="867" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="868" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="869" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="870" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="871" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="872" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="873" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="874" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="875" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="876" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="877" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="878" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="879" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="880" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="881" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="882" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="883" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="884" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="885" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="886" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="887" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="888" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="889" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="890" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="891" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="892" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="893" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="894" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="895" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="896" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="897" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="898" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="899" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="900" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="901" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="902" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="903" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="904" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="905" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="906" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="907" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="908" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="909" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="910" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="911" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="912" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="913" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="914" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="915" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="916" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="917" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="918" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="919" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="920" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="921" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="922" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="923" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="924" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="925" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="926" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="927" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="928" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="929" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="930" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="931" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="932" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="933" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="934" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="935" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="936" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="937" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="938" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="939" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="940" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="941" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="942" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="943" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="944" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="945" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="946" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="947" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="948" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="949" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="950" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="951" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="952" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="953" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="954" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="955" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="956" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="957" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="958" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="959" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="960" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="961" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="962" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="963" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="964" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="965" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="966" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="967" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="968" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="969" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="970" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="971" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="972" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="973" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="974" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="975" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="976" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="977" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="978" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="979" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="980" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="981" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="982" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="983" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="984" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="985" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="986" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="987" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="988" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="989" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="990" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="991" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="992" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="993" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="994" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="995" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="996" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="997" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="998" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="999" ht="15.75" hidden="1" customHeight="1"/>
-    <row r="1000" ht="15.75" hidden="1" customHeight="1"/>
+    <row r="51" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:D1000" xr:uid="{00000000-0001-0000-0300-000000000000}">
     <filterColumn colId="0">
@@ -9133,14 +9159,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="6" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" customHeight="1">
+    <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>40</v>
       </c>
@@ -9148,7 +9174,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>143</v>
       </c>
@@ -9156,7 +9182,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.25" customHeight="1">
+    <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>144</v>
       </c>
@@ -9164,1006 +9190,1006 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.25" customHeight="1">
+    <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/GATEWAY/A1#111PROACTIVEXX/Proactive/Labpro/5.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111PROACTIVEXX/Proactive/Labpro/5.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vb_net_prj\API_REGIONETOSCANA\FSE 2.0\perValidazione\TESTCASEVALIDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD3140D-D980-439D-B2AC-5B580210BA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81325940-578E-48A7-AE65-C8E5E1FB251B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="185">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -755,22 +755,10 @@
     <t>20240102171337</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.1c527ef88b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>cee865c7a119ad5c</t>
-  </si>
-  <si>
-    <t>20240103122838</t>
-  </si>
-  <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.60f361d4f3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>ae18c270c07de1c9</t>
-  </si>
-  <si>
-    <t>20240103153951</t>
   </si>
   <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
@@ -835,6 +823,15 @@
   </si>
   <si>
     <t>20240110133242</t>
+  </si>
+  <si>
+    <t>20240111095628</t>
+  </si>
+  <si>
+    <t>27739902048d99eb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.63f805c6a2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -1769,10 +1766,10 @@
   <dimension ref="A1:T644"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2175,16 +2172,16 @@
         <v>54</v>
       </c>
       <c r="F13" s="23">
-        <v>45294</v>
+        <v>45302</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="J13" s="25" t="s">
         <v>71</v>
@@ -2222,13 +2219,13 @@
         <v>45294</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="H14" s="24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J14" s="25" t="s">
         <v>71</v>
@@ -2266,13 +2263,13 @@
         <v>45301</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J15" s="25" t="s">
         <v>71</v>
@@ -2285,13 +2282,13 @@
         <v>71</v>
       </c>
       <c r="N15" s="25" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="O15" s="25" t="s">
         <v>71</v>
       </c>
       <c r="P15" s="25" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Q15" s="25"/>
       <c r="R15" s="26"/>
@@ -2320,13 +2317,13 @@
         <v>45301</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J16" s="25" t="s">
         <v>71</v>
@@ -2339,13 +2336,13 @@
         <v>71</v>
       </c>
       <c r="N16" s="25" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="O16" s="25" t="s">
         <v>71</v>
       </c>
       <c r="P16" s="25" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Q16" s="25"/>
       <c r="R16" s="26"/>
@@ -2383,13 +2380,13 @@
         <v>71</v>
       </c>
       <c r="N17" s="25" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="O17" s="25" t="s">
         <v>71</v>
       </c>
       <c r="P17" s="25" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Q17" s="25"/>
       <c r="R17" s="26"/>
@@ -2422,7 +2419,7 @@
         <v>145</v>
       </c>
       <c r="K18" s="25" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
@@ -2460,14 +2457,14 @@
         <v>145</v>
       </c>
       <c r="K19" s="25" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
       <c r="O19" s="25"/>
       <c r="P19" s="25" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q19" s="25"/>
       <c r="R19" s="26"/>
@@ -2500,7 +2497,7 @@
         <v>145</v>
       </c>
       <c r="K20" s="25" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="L20" s="25"/>
       <c r="M20" s="25"/>
@@ -2538,7 +2535,7 @@
         <v>145</v>
       </c>
       <c r="K21" s="25" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
@@ -2576,7 +2573,7 @@
         <v>145</v>
       </c>
       <c r="K22" s="25" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L22" s="25"/>
       <c r="M22" s="25"/>
@@ -2614,7 +2611,7 @@
         <v>145</v>
       </c>
       <c r="K23" s="25" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
@@ -2652,7 +2649,7 @@
         <v>145</v>
       </c>
       <c r="K24" s="25" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
@@ -2690,7 +2687,7 @@
         <v>145</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
@@ -2728,7 +2725,7 @@
         <v>145</v>
       </c>
       <c r="K26" s="25" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L26" s="25"/>
       <c r="M26" s="25"/>
@@ -2766,7 +2763,7 @@
         <v>145</v>
       </c>
       <c r="K27" s="25" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L27" s="25"/>
       <c r="M27" s="25"/>

--- a/GATEWAY/A1#111PROACTIVEXX/Proactive/Labpro/5.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111PROACTIVEXX/Proactive/Labpro/5.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vb_net_prj\API_REGIONETOSCANA\FSE 2.0\perValidazione\TESTCASEVALIDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81325940-578E-48A7-AE65-C8E5E1FB251B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C5BEA1-BEAA-400D-AC97-C3B43656672F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="191">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -833,6 +833,25 @@
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.63f805c6a2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT16_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>20240112180353</t>
+  </si>
+  <si>
+    <t>38307b48881219da</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.dff24801c3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>[W002 | Si consiglia di valorizzare l'elemento organizer[CLUSTER]/code]</t>
+  </si>
 </sst>
 </file>
 
@@ -841,7 +860,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -900,6 +919,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1162,7 +1186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1253,6 +1277,36 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1766,10 +1820,10 @@
   <dimension ref="A1:T644"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1808,14 +1862,14 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="D2" s="37"/>
+      <c r="D2" s="47"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -1833,14 +1887,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="45" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="37"/>
+      <c r="D3" s="47"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -1858,12 +1912,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="45" t="s">
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="37"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -1882,12 +1936,12 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45" t="s">
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="37"/>
+      <c r="D5" s="47"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -1905,8 +1959,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -2739,7 +2793,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
         <v>61</v>
       </c>
@@ -2777,22 +2831,59 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="15"/>
+    <row r="28" spans="1:20" ht="180" x14ac:dyDescent="0.25">
+      <c r="A28" s="34">
+        <v>62</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="F28" s="37">
+        <v>45303</v>
+      </c>
+      <c r="G28" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="H28" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="I28" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="K28" s="39"/>
+      <c r="L28" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="M28" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="N28" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="O28" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="P28" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="42" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F29" s="12"/>
@@ -7449,7 +7540,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>O10:O27 L10:M27 J10:J27</xm:sqref>
+          <xm:sqref>O10:O28 J10:J28 L10:M28</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>
@@ -7470,7 +7561,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="B1014" sqref="B1014"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/GATEWAY/A1#111PROACTIVEXX/Proactive/Labpro/5.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111PROACTIVEXX/Proactive/Labpro/5.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vb_net_prj\API_REGIONETOSCANA\FSE 2.0\perValidazione\TESTCASEVALIDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C5BEA1-BEAA-400D-AC97-C3B43656672F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0752CB78-829F-4FDD-8247-D4B8BD8117DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -813,18 +813,6 @@
     <t>L'utente riceve una segnalazione che indica di aprire un ticket verso Proactive e uno dei Nostri addetti risolverà il proplema in assistenza remota</t>
   </si>
   <si>
-    <t>0ed9c44f781b1f31</t>
-  </si>
-  <si>
-    <t>20240110132717</t>
-  </si>
-  <si>
-    <t>23102b9be18ec2b9</t>
-  </si>
-  <si>
-    <t>20240110133242</t>
-  </si>
-  <si>
     <t>20240111095628</t>
   </si>
   <si>
@@ -851,6 +839,18 @@
   </si>
   <si>
     <t>[W002 | Si consiglia di valorizzare l'elemento organizer[CLUSTER]/code]</t>
+  </si>
+  <si>
+    <t>20240115173748</t>
+  </si>
+  <si>
+    <t>4ebe00312176e199</t>
+  </si>
+  <si>
+    <t>20240115174324</t>
+  </si>
+  <si>
+    <t>92038db3af751528</t>
   </si>
 </sst>
 </file>
@@ -1820,10 +1820,10 @@
   <dimension ref="A1:T644"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2229,13 +2229,13 @@
         <v>45302</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J13" s="25" t="s">
         <v>71</v>
@@ -2253,7 +2253,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>5</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>45294</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H14" s="24" t="s">
         <v>160</v>
@@ -2297,7 +2297,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
         <v>28</v>
       </c>
@@ -2314,13 +2314,13 @@
         <v>63</v>
       </c>
       <c r="F15" s="23">
-        <v>45301</v>
+        <v>45306</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="I15" s="24" t="s">
         <v>161</v>
@@ -2351,7 +2351,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>36</v>
       </c>
@@ -2368,13 +2368,13 @@
         <v>68</v>
       </c>
       <c r="F16" s="23">
-        <v>45301</v>
+        <v>45306</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>180</v>
+        <v>189</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>190</v>
       </c>
       <c r="I16" s="24" t="s">
         <v>161</v>
@@ -2405,7 +2405,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <v>44</v>
       </c>
@@ -2842,22 +2842,22 @@
         <v>45</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F28" s="37">
         <v>45303</v>
       </c>
       <c r="G28" s="43" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H28" s="38" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I28" s="38" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J28" s="25" t="s">
         <v>71</v>
@@ -2870,7 +2870,7 @@
         <v>71</v>
       </c>
       <c r="N28" s="39" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="O28" s="25" t="s">
         <v>71</v>

--- a/GATEWAY/A1#111PROACTIVEXX/Proactive/Labpro/5.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111PROACTIVEXX/Proactive/Labpro/5.0/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vb_net_prj\API_REGIONETOSCANA\FSE 2.0\perValidazione\TESTCASEVALIDI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vb_net_prj\API_REGIONETOSCANA\FSE 2.0\perValidazione\LAB+RAD+RSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0752CB78-829F-4FDD-8247-D4B8BD8117DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F894B9A-2C68-4940-B583-3E6144A01B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,8 +20,8 @@
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Summary!$A$1:$D$1000</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$T$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Summary!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$T$80</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="292">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -352,19 +352,7 @@
 </t>
   </si>
   <si>
-    <t>LDO</t>
-  </si>
-  <si>
     <t>RAD</t>
-  </si>
-  <si>
-    <t>CERT_VAC</t>
-  </si>
-  <si>
-    <t>SING_VAC</t>
-  </si>
-  <si>
-    <t>VPS</t>
   </si>
   <si>
     <t>VALIDAZIONE_TOKEN_JWT_LAB_KO</t>
@@ -419,9 +407,6 @@
     <t>KO</t>
   </si>
   <si>
-    <t>PSS</t>
-  </si>
-  <si>
     <t>RSA</t>
   </si>
   <si>
@@ -569,142 +554,16 @@
     <t>28,36,44,52,53,54,55,56,57,58,59,60,61,62</t>
   </si>
   <si>
-    <t>6,7,8,9,369</t>
-  </si>
-  <si>
-    <t>29,37,45,63,64,65,66,67,68,69,70,71,72,73,74</t>
-  </si>
-  <si>
     <t>11,12,13,14,370</t>
   </si>
   <si>
     <t>31,39,47,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93</t>
   </si>
   <si>
-    <t>16,17,18,19,371</t>
-  </si>
-  <si>
-    <t>33,41,49,94,95,96,97,98,99,100,101,102,103,104,105,106</t>
-  </si>
-  <si>
-    <t>20,21,22,23,372</t>
-  </si>
-  <si>
-    <t>34,42,50,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121</t>
-  </si>
-  <si>
-    <t>24,25,26,27,373</t>
-  </si>
-  <si>
-    <t>35,43,51,122,123,124,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,145,146</t>
-  </si>
-  <si>
     <t>147,148,149,150,374</t>
   </si>
   <si>
     <t>32,40,48,151,152,153,154,155,156,157,158,159,160,161,162,163,164,165,166,167,168,169</t>
-  </si>
-  <si>
-    <t>170,171,172,173,375</t>
-  </si>
-  <si>
-    <t>30,38,46,174,175,176,177,178,179,180,181,182,183,184,185,186,187,188,189,190</t>
-  </si>
-  <si>
-    <t>LAB - TRASF</t>
-  </si>
-  <si>
-    <t>191,376 più ove possibile fare riferimento agli "ID TEST CASE OK" del Tipo "LAB"</t>
-  </si>
-  <si>
-    <t>Fare riferimento agli "ID TEST CASE KO" del Tipo "LAB"</t>
-  </si>
-  <si>
-    <t>Pubblicazione Creazione</t>
-  </si>
-  <si>
-    <t>197,198,199,200,201,202,203,320,321</t>
-  </si>
-  <si>
-    <t>213,214,215,216,217,218,219,324,325</t>
-  </si>
-  <si>
-    <t>229,230,231,232,233,234,235,328,329</t>
-  </si>
-  <si>
-    <t>245,246,247,248,249,250,251,332,333</t>
-  </si>
-  <si>
-    <t>261,262,263,264,265,266,267,336,337</t>
-  </si>
-  <si>
-    <t>277,278,279,280,281,282,283,340,341</t>
-  </si>
-  <si>
-    <t>293,294,295,296,297,298,299,344,345</t>
-  </si>
-  <si>
-    <t>309,310,311,312,313,314,315,348,349</t>
-  </si>
-  <si>
-    <t>Pubblicazione Sostituizione</t>
-  </si>
-  <si>
-    <t>206,322,323</t>
-  </si>
-  <si>
-    <t>222,326,327</t>
-  </si>
-  <si>
-    <t>238,330,331</t>
-  </si>
-  <si>
-    <t>254,334,335</t>
-  </si>
-  <si>
-    <t>270,338,339</t>
-  </si>
-  <si>
-    <t>286,342,343</t>
-  </si>
-  <si>
-    <t>302,346,347</t>
-  </si>
-  <si>
-    <t>318,350,351</t>
-  </si>
-  <si>
-    <t>Aggiornamento Metadati</t>
-  </si>
-  <si>
-    <t>205,352,353</t>
-  </si>
-  <si>
-    <t>221,354,355</t>
-  </si>
-  <si>
-    <t>237,356,357</t>
-  </si>
-  <si>
-    <t>253,358,359</t>
-  </si>
-  <si>
-    <t>269,360,361</t>
-  </si>
-  <si>
-    <t>285,362,363</t>
-  </si>
-  <si>
-    <t>301,364,365</t>
-  </si>
-  <si>
-    <t>317,366,367</t>
-  </si>
-  <si>
-    <t>Eliminazione</t>
-  </si>
-  <si>
-    <t>Oscuramento</t>
   </si>
   <si>
     <t>PASS</t>
@@ -851,6 +710,549 @@
   </si>
   <si>
     <t>92038db3af751528</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_RAD_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RAD_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_RAD_TIMEOUT</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT5_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT6_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT7_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT8_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT9_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT10_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT11_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT12_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.  
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT13_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT14_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT15_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT16_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT17_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT18_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT19_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT20_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT21_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT22_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT23_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_RSA_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_RSA_TIMEOUT</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT5_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT6_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT7_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT8_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT9_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT10_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT11_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT12_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT13_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT14_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT15_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT16_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT17_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT18_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT19_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT20_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT21_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT22_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT23_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>74c9c48fe4d114a7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.ba95bb71f2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>20240122120752</t>
+  </si>
+  <si>
+    <t>L'applicativo non gestisce le sezioni opzionali</t>
+  </si>
+  <si>
+    <t>20240122125810</t>
+  </si>
+  <si>
+    <t>71559ecc210d64d6</t>
+  </si>
+  <si>
+    <t>8fdb6c455c579650</t>
+  </si>
+  <si>
+    <t>20240122130310</t>
+  </si>
+  <si>
+    <t>Il campo confidentialityCode è obbligatorio senza di esso viene generato un errore bloccante in fase di creazione del referto.</t>
+  </si>
+  <si>
+    <t>Il Software converte automaticamente i caratteri in formato Maiuscolo</t>
+  </si>
+  <si>
+    <t>Gli unici valori applicabili per la generazione del CDA sono "Normal" e "Very Restricted"</t>
+  </si>
+  <si>
+    <t>Il Software rende obbligatoria la compilazione del campo del comune di residenza del paziente</t>
+  </si>
+  <si>
+    <t>Il Software rende obbligatoria la compilazione del campo nome del paziente</t>
+  </si>
+  <si>
+    <t>Il software vincola, attraverso una combo, l'inserimento dei soli valori "maschio", "femmina" o "indifferenziato"</t>
+  </si>
+  <si>
+    <t>Il software vincola la compilazione dei soli codici associati al dizionario "ISCO-08"</t>
+  </si>
+  <si>
+    <t>Il software prevede esclusivamente la possibilità di inserire un valore "Normale" o "Urgente"</t>
+  </si>
+  <si>
+    <t>gli Identificativi univoci della richiesta e/o della prescrizione sono sempre valorizzati</t>
+  </si>
+  <si>
+    <t>Il Software non gestisce la sezione richiesta</t>
+  </si>
+  <si>
+    <t>ddfe579d91c6b7f6</t>
+  </si>
+  <si>
+    <t>20240122131705</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.e8da827793^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>The content of element 'component' is not complete</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.44d98a986e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>1888893f7f091729</t>
+  </si>
+  <si>
+    <t>20240122141428</t>
+  </si>
+  <si>
+    <t>95ea717b08ae2309</t>
+  </si>
+  <si>
+    <t>20240122142335</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>9dcd4cdec4191ccf</t>
+  </si>
+  <si>
+    <t>20240122142718</t>
+  </si>
+  <si>
+    <t>L'applicativo non gestisce l'inserimento nel documento delle seguenti section opzionali :
+- Confronto con precedenti esami eseguiti
+- Diagnosi
+- Accertamenti e controlli consigliati</t>
+  </si>
+  <si>
+    <t>L'applicativo non gestisce l'inserimento nel documento delle seguenti section opzionali :
+- Confronto con precedenti esami eseguiti
+- Diagnosi
+- Accertamenti e controlli consigliati
+- Terapia Farmacologica Consigliata</t>
+  </si>
+  <si>
+    <t>L'applicativo non gestisce l'inserimento nel documento di tutte le section opzionali.</t>
+  </si>
+  <si>
+    <t>Il tag cofidentialityCode viene sempre inserito nel CDA. Il valore di default è N</t>
+  </si>
+  <si>
+    <t>Il tag cofidentialityCode viene sempre inserito nel CDA. I valori previsti sono N e V. Non è possibile che siano inseriti valori differenti.</t>
+  </si>
+  <si>
+    <t>Non è possibile avere un CDA senza il codice della prestazione. In assenza della prestazione non può essere prodotto il referto.</t>
+  </si>
+  <si>
+    <t>Non è possibile avere un CDA senza almeno una prestazione associata. In assenza della prestazione non può essere prodotto il referto. Il tag entry è sempre presente all'interno del CDA prodotto.</t>
+  </si>
+  <si>
+    <t>Il sw Labpro gestisce il campo della tipologia di accesso ma se il valore non corrisponde ai valori gestiti il tag NON viene inserito nel CDA2.</t>
+  </si>
+  <si>
+    <t>Il sw Labpro non gesisce il campo della tipologia di priorità.</t>
+  </si>
+  <si>
+    <t>Il sw Labpro gestisce inserisce nel CDA l'intero tag inFulfillmentOf solo se esiste una richiesta associata al caso. 
+Non è quindi possibile avere il tag inFulfillmentOf senza inFulfillmentOf/order/id.</t>
+  </si>
+  <si>
+    <t>per Il sw Labpro il campo REFERTO è obbligatorio che esista e che sia valorizzato per la produzione del documento e quindi del CDA2.
+Non può sussistere il caso in cui ci sia un documento (PDF + CDA2) senza testo del referto.</t>
+  </si>
+  <si>
+    <t>Il sw Labpro  inserisce il tag "ClinicalDocument/component/structuredBody/component/section[@ID=Quesito_Diagnostico]" con i soli sotto campi obbligatori solo se esite un testo del Quesito Diagnostico. 
+Non può sussitere il cao di avere il tag "section[@ID=Quesito_Diagnostico]" senza il sotto campo "text".</t>
+  </si>
+  <si>
+    <t>Il sw Labpro include la sorica clinica in solo formato testuale a livello applicativo. Nel documento CDA2 viene quindi popolata la section relativa con la parte testuale. L'entry specifica richiesta dal test (ClinicalDocument/component/structuredBody/component/section[@ID=Storia_Clinica]/entry) non è quindi gestibile.</t>
+  </si>
+  <si>
+    <t>Il sw Labpro include la sorica clinica in solo formato testuale a livello applicativo. Nel documento CDA2 viene quindi popolata la section relativa con la parte testuale. L'entry specifica richiesta dal test (ClinicalDocument/component/structuredBody/component/section[@ID=Storia_Clinica]/component/section[@ID=Allergie]/entry/) non è quindi gestibile.</t>
+  </si>
+  <si>
+    <t>Il sw Labpro gestisce l'informazione testuale del quesito diagnostico ma NON le codifiche delle diagnosi sospette.
+Per questo non è possibile avere una codifica errata della diagnosi sospettata.</t>
+  </si>
+  <si>
+    <t>Il sw Labpro inserisce il campo "ClinicalDocument/legalAuthenticator/signatureCode/@code" solo nel caso il documento risulta corretto con il valore corretto "S". 
+Non è possibile generare un CDA popolando il campo richiesto dal test con un valore diverso da S.</t>
+  </si>
+  <si>
+    <t>Il comune di residenza è un dato obbligatorio per il software.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il nome del paziente è un dato obbligatorio per il software </t>
+  </si>
+  <si>
+    <t>Il codice fiscale viene controllato a livello applicativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> il sesso del pazioente è gestito con trascodifica a livello applicativo nojn è possibile avere valori diversi da "male", "female" o "undifferentiated"</t>
   </si>
 </sst>
 </file>
@@ -860,11 +1262,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -925,8 +1334,21 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -945,8 +1367,14 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1182,153 +1610,178 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1817,13 +2270,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:T644"/>
+  <dimension ref="A1:T642"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1862,14 +2315,14 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" s="47"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="53"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -1887,14 +2340,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" s="47"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="53"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -1912,12 +2365,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="47"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="53"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -1936,12 +2389,12 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" s="47"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="53"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -1959,8 +2412,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="45"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -1998,7 +2451,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="15"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -2015,7 +2468,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="15"/>
     </row>
-    <row r="9" spans="1:20" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>24</v>
       </c>
@@ -2077,1697 +2530,2893 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
+    <row r="10" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25">
         <v>1</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="28">
         <v>45293</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25">
+        <v>2</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="28">
+        <v>45293</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="I11" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25">
+        <v>3</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="28">
+        <v>45293</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25">
+        <v>4</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="28">
+        <v>45302</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25">
+        <v>5</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="28">
+        <v>45294</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25">
+        <v>28</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="28">
+        <v>45306</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="M15" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="O15" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="P15" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25">
+        <v>36</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="28">
+        <v>45306</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="J16" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="N16" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="O16" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="25">
+        <v>44</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="M17" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="N17" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="O17" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="25">
+        <v>52</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="K18" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="25">
+        <v>53</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="K19" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="25">
+        <v>54</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="25">
+        <v>55</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="K21" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="25">
+        <v>56</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="K22" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="25">
+        <v>57</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="28"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="K23" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="25">
+        <v>58</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="28"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="K24" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="25">
+        <v>59</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="K25" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="25">
+        <v>60</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="28"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="K26" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="25">
+        <v>61</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="K27" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="35">
+        <v>62</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" s="38">
+        <v>45303</v>
+      </c>
+      <c r="G28" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="H28" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="I28" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="J28" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" s="41"/>
+      <c r="L28" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="M28" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="N28" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="O28" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="P28" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="45">
+        <v>11</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="F29" s="28">
+        <v>45313</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="J29" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="45">
+        <v>12</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="K30" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="45">
+        <v>13</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="F31" s="28"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="K31" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="45">
+        <v>14</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F32" s="28"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="K32" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="25">
+        <v>31</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="E33" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="28">
+        <v>45313</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="J33" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="M33" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="N33" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="O33" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="P33" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="25">
+        <v>39</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="28">
+        <v>45313</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="I34" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="J34" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="M34" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="N34" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="O34" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="P34" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="33"/>
+      <c r="T34" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="25">
+        <v>47</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="28"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="M35" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="N35" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="O35" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="P35" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="25">
+        <v>75</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="F36" s="28"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="K36" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="25">
+        <v>76</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="F37" s="28"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="K37" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="25">
+        <v>77</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="F38" s="28"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="K38" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="25">
+        <v>78</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="F39" s="28"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="K39" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="25">
+        <v>79</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="F40" s="28"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="K40" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="25">
+        <v>80</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="F41" s="28"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="K41" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="25">
+        <v>81</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="F42" s="28"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="K42" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="33"/>
+      <c r="T42" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="25">
+        <v>82</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="F43" s="28"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="K43" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="31"/>
+      <c r="Q43" s="31"/>
+      <c r="R43" s="32"/>
+      <c r="S43" s="33"/>
+      <c r="T43" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="25">
+        <v>83</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="F44" s="28"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="K44" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="33"/>
+      <c r="T44" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="25">
+        <v>84</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="F45" s="28"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="K45" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="32"/>
+      <c r="S45" s="33"/>
+      <c r="T45" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="25">
+        <v>85</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="F46" s="28">
+        <v>45313</v>
+      </c>
+      <c r="G46" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="H46" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="I46" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="J46" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="M46" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="N46" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="O46" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="P46" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q46" s="31"/>
+      <c r="R46" s="32"/>
+      <c r="S46" s="33"/>
+      <c r="T46" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="25">
+        <v>86</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="F47" s="28"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="K47" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="31"/>
+      <c r="Q47" s="31"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="33"/>
+      <c r="T47" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="25">
+        <v>87</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="F48" s="28"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="K48" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="31"/>
+      <c r="Q48" s="31"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="33"/>
+      <c r="T48" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="25">
+        <v>88</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="F49" s="28"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="K49" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="31"/>
+      <c r="Q49" s="31"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="33"/>
+      <c r="T49" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="25">
+        <v>89</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="F50" s="28"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="K50" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="Q50" s="31"/>
+      <c r="R50" s="32"/>
+      <c r="S50" s="33"/>
+      <c r="T50" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="25">
+        <v>90</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="F51" s="28"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="K51" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="31"/>
+      <c r="Q51" s="31"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="33"/>
+      <c r="T51" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="25">
+        <v>91</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="F52" s="28"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="K52" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="31"/>
+      <c r="Q52" s="31"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="25">
+        <v>92</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="F53" s="28"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="K53" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
+      <c r="Q53" s="31"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="25">
+        <v>93</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="E54" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="F54" s="28"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="K54" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="25">
+        <v>32</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="E55" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F55" s="28">
+        <v>45313</v>
+      </c>
+      <c r="G55" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="H55" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="I55" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="J55" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="M55" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="N55" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="O55" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="P55" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="25">
+        <v>40</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="E56" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F56" s="28">
+        <v>45313</v>
+      </c>
+      <c r="G56" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="H56" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="I56" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="J56" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="M56" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="N56" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="O56" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="P56" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q56" s="31"/>
+      <c r="R56" s="32"/>
+      <c r="S56" s="33"/>
+      <c r="T56" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="25">
+        <v>48</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E57" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="F57" s="28"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="M57" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="N57" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="O57" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="P57" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q57" s="31"/>
+      <c r="R57" s="32"/>
+      <c r="S57" s="33"/>
+      <c r="T57" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="49">
+        <v>147</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E58" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="F58" s="28">
+        <v>45313</v>
+      </c>
+      <c r="G58" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="H58" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="I58" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="J58" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="31"/>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="32"/>
+      <c r="S58" s="33"/>
+      <c r="T58" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="49">
+        <v>148</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="F59" s="28"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="K59" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="31"/>
+      <c r="Q59" s="31"/>
+      <c r="R59" s="32"/>
+      <c r="S59" s="33"/>
+      <c r="T59" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="49">
+        <v>149</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="E60" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="F60" s="28"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="K60" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="31"/>
+      <c r="P60" s="31"/>
+      <c r="Q60" s="31"/>
+      <c r="R60" s="32"/>
+      <c r="S60" s="33"/>
+      <c r="T60" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="49">
+        <v>150</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E61" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="F61" s="28"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="K61" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="L61" s="31"/>
+      <c r="M61" s="31"/>
+      <c r="N61" s="31"/>
+      <c r="O61" s="31"/>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="31"/>
+      <c r="R61" s="32"/>
+      <c r="S61" s="33"/>
+      <c r="T61" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="25">
         <v>151</v>
       </c>
-      <c r="I10" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
-        <v>2</v>
-      </c>
-      <c r="B11" s="21" t="s">
+      <c r="B62" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="23">
-        <v>45293</v>
-      </c>
-      <c r="G11" s="33" t="s">
+      <c r="C62" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="E62" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="F62" s="28"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="K62" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="L62" s="41"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="31"/>
+      <c r="P62" s="31"/>
+      <c r="Q62" s="31"/>
+      <c r="R62" s="32"/>
+      <c r="S62" s="33"/>
+      <c r="T62" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="25">
+        <v>152</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="E63" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="F63" s="28"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="K63" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="L63" s="31"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="31"/>
+      <c r="O63" s="31"/>
+      <c r="P63" s="31"/>
+      <c r="Q63" s="31"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="33"/>
+      <c r="T63" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="25">
+        <v>153</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="E64" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="F64" s="28"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="K64" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="L64" s="31"/>
+      <c r="M64" s="31"/>
+      <c r="N64" s="31"/>
+      <c r="O64" s="31"/>
+      <c r="P64" s="31"/>
+      <c r="Q64" s="31"/>
+      <c r="R64" s="32"/>
+      <c r="S64" s="33"/>
+      <c r="T64" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="25">
+        <v>154</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="E65" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="F65" s="28"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="K65" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="L65" s="31"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="31"/>
+      <c r="O65" s="31"/>
+      <c r="P65" s="31"/>
+      <c r="Q65" s="31"/>
+      <c r="R65" s="32"/>
+      <c r="S65" s="33"/>
+      <c r="T65" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="25">
         <v>155</v>
       </c>
-      <c r="H11" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
-        <v>3</v>
-      </c>
-      <c r="B12" s="21" t="s">
+      <c r="B66" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="23">
-        <v>45293</v>
-      </c>
-      <c r="G12" s="33" t="s">
+      <c r="C66" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="E66" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="F66" s="28"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="K66" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="L66" s="31"/>
+      <c r="M66" s="31"/>
+      <c r="N66" s="31"/>
+      <c r="O66" s="31"/>
+      <c r="P66" s="31"/>
+      <c r="Q66" s="31"/>
+      <c r="R66" s="32"/>
+      <c r="S66" s="33"/>
+      <c r="T66" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="25">
+        <v>156</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D67" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="E67" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="F67" s="28"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="K67" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="L67" s="31"/>
+      <c r="M67" s="31"/>
+      <c r="N67" s="31"/>
+      <c r="O67" s="31"/>
+      <c r="P67" s="31"/>
+      <c r="Q67" s="31"/>
+      <c r="R67" s="32"/>
+      <c r="S67" s="33"/>
+      <c r="T67" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="25">
+        <v>157</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="E68" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="F68" s="28"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="K68" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="L68" s="31"/>
+      <c r="M68" s="31"/>
+      <c r="N68" s="31"/>
+      <c r="O68" s="31"/>
+      <c r="P68" s="31"/>
+      <c r="Q68" s="31"/>
+      <c r="R68" s="32"/>
+      <c r="S68" s="33"/>
+      <c r="T68" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="25">
         <v>158</v>
       </c>
-      <c r="H12" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
-        <v>4</v>
-      </c>
-      <c r="B13" s="21" t="s">
+      <c r="B69" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="23">
-        <v>45302</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="20">
-        <v>5</v>
-      </c>
-      <c r="B14" s="21" t="s">
+      <c r="C69" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="E69" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="F69" s="28"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="K69" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="L69" s="31"/>
+      <c r="M69" s="31"/>
+      <c r="N69" s="31"/>
+      <c r="O69" s="31"/>
+      <c r="P69" s="31"/>
+      <c r="Q69" s="31"/>
+      <c r="R69" s="32"/>
+      <c r="S69" s="33"/>
+      <c r="T69" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="25">
+        <v>159</v>
+      </c>
+      <c r="B70" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="23">
-        <v>45294</v>
-      </c>
-      <c r="G14" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="H14" s="24" t="s">
+      <c r="C70" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="E70" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="F70" s="28"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="K70" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="L70" s="31"/>
+      <c r="M70" s="31"/>
+      <c r="N70" s="31"/>
+      <c r="O70" s="31"/>
+      <c r="P70" s="31"/>
+      <c r="Q70" s="31"/>
+      <c r="R70" s="32"/>
+      <c r="S70" s="33"/>
+      <c r="T70" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="25">
         <v>160</v>
       </c>
-      <c r="I14" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20">
-        <v>28</v>
-      </c>
-      <c r="B15" s="21" t="s">
+      <c r="B71" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="23">
-        <v>45306</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="I15" s="24" t="s">
+      <c r="C71" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="E71" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="F71" s="28"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="K71" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="L71" s="31"/>
+      <c r="M71" s="31"/>
+      <c r="N71" s="31"/>
+      <c r="O71" s="31"/>
+      <c r="P71" s="31"/>
+      <c r="Q71" s="31"/>
+      <c r="R71" s="32"/>
+      <c r="S71" s="33"/>
+      <c r="T71" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="25">
         <v>161</v>
       </c>
-      <c r="J15" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="M15" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="N15" s="25" t="s">
+      <c r="B72" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="E72" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="F72" s="28"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="K72" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="L72" s="31"/>
+      <c r="M72" s="31"/>
+      <c r="N72" s="31"/>
+      <c r="O72" s="31"/>
+      <c r="P72" s="31"/>
+      <c r="Q72" s="31"/>
+      <c r="R72" s="32"/>
+      <c r="S72" s="33"/>
+      <c r="T72" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="25">
         <v>162</v>
       </c>
-      <c r="O15" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="P15" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20">
-        <v>36</v>
-      </c>
-      <c r="B16" s="21" t="s">
+      <c r="B73" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="23">
-        <v>45306</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="H16" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="J16" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="M16" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="N16" s="25" t="s">
+      <c r="C73" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="E73" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="F73" s="28"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="K73" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="L73" s="31"/>
+      <c r="M73" s="31"/>
+      <c r="N73" s="31"/>
+      <c r="O73" s="31"/>
+      <c r="P73" s="31"/>
+      <c r="Q73" s="31"/>
+      <c r="R73" s="32"/>
+      <c r="S73" s="33"/>
+      <c r="T73" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="25">
         <v>163</v>
       </c>
-      <c r="O16" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="P16" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20">
+      <c r="B74" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="C74" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="E74" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="F74" s="28"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="K74" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="L74" s="31"/>
+      <c r="M74" s="31"/>
+      <c r="N74" s="31"/>
+      <c r="O74" s="31"/>
+      <c r="P74" s="31"/>
+      <c r="Q74" s="31"/>
+      <c r="R74" s="32"/>
+      <c r="S74" s="33"/>
+      <c r="T74" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="25">
+        <v>164</v>
+      </c>
+      <c r="B75" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="M17" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="N17" s="25" t="s">
+      <c r="C75" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="E75" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="F75" s="28"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="K75" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="L75" s="31"/>
+      <c r="M75" s="31"/>
+      <c r="N75" s="31"/>
+      <c r="O75" s="31"/>
+      <c r="P75" s="31"/>
+      <c r="Q75" s="31"/>
+      <c r="R75" s="32"/>
+      <c r="S75" s="33"/>
+      <c r="T75" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="25">
         <v>165</v>
       </c>
-      <c r="O17" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="P17" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
-        <v>52</v>
-      </c>
-      <c r="B18" s="21" t="s">
+      <c r="B76" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="K18" s="25" t="s">
+      <c r="C76" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="E76" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="F76" s="28"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="K76" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="L76" s="31"/>
+      <c r="M76" s="31"/>
+      <c r="N76" s="31"/>
+      <c r="O76" s="31"/>
+      <c r="P76" s="31"/>
+      <c r="Q76" s="31"/>
+      <c r="R76" s="32"/>
+      <c r="S76" s="33"/>
+      <c r="T76" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="25">
         <v>166</v>
       </c>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
-        <v>53</v>
-      </c>
-      <c r="B19" s="21" t="s">
+      <c r="B77" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="K19" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25" t="s">
+      <c r="C77" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="E77" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="F77" s="28"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="K77" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="L77" s="31"/>
+      <c r="M77" s="31"/>
+      <c r="N77" s="31"/>
+      <c r="O77" s="31"/>
+      <c r="P77" s="31"/>
+      <c r="Q77" s="31"/>
+      <c r="R77" s="32"/>
+      <c r="S77" s="33"/>
+      <c r="T77" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="25">
         <v>167</v>
       </c>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
-        <v>54</v>
-      </c>
-      <c r="B20" s="21" t="s">
+      <c r="B78" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="K20" s="25" t="s">
+      <c r="C78" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="E78" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F78" s="28"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="K78" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="L78" s="31"/>
+      <c r="M78" s="31"/>
+      <c r="N78" s="31"/>
+      <c r="O78" s="31"/>
+      <c r="P78" s="31"/>
+      <c r="Q78" s="31"/>
+      <c r="R78" s="32"/>
+      <c r="S78" s="33"/>
+      <c r="T78" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="25">
         <v>168</v>
       </c>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20">
-        <v>55</v>
-      </c>
-      <c r="B21" s="21" t="s">
+      <c r="B79" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="K21" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20">
-        <v>56</v>
-      </c>
-      <c r="B22" s="21" t="s">
+      <c r="C79" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="E79" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="F79" s="28"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="K79" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="L79" s="31"/>
+      <c r="M79" s="31"/>
+      <c r="N79" s="31"/>
+      <c r="O79" s="31"/>
+      <c r="P79" s="31"/>
+      <c r="Q79" s="31"/>
+      <c r="R79" s="32"/>
+      <c r="S79" s="33"/>
+      <c r="T79" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="25">
+        <v>169</v>
+      </c>
+      <c r="B80" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="K22" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
-        <v>57</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="K23" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
-        <v>58</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="K24" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
-        <v>59</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="K25" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20">
+      <c r="C80" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D80" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="E80" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="F80" s="28"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="K80" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="L80" s="31"/>
+      <c r="M80" s="31"/>
+      <c r="N80" s="31"/>
+      <c r="O80" s="31"/>
+      <c r="P80" s="31"/>
+      <c r="Q80" s="31"/>
+      <c r="R80" s="32"/>
+      <c r="S80" s="33"/>
+      <c r="T80" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="K26" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20">
-        <v>61</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="K27" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="180" x14ac:dyDescent="0.25">
-      <c r="A28" s="34">
-        <v>62</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="E28" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="F28" s="37">
-        <v>45303</v>
-      </c>
-      <c r="G28" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="H28" s="38" t="s">
-        <v>184</v>
-      </c>
-      <c r="I28" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="J28" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="K28" s="39"/>
-      <c r="L28" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="M28" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="N28" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="O28" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="P28" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="41"/>
-      <c r="T28" s="42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="15"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="15"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="15"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="15"/>
-    </row>
-    <row r="33" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="15"/>
-    </row>
-    <row r="34" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="15"/>
-    </row>
-    <row r="35" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="15"/>
-    </row>
-    <row r="36" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="15"/>
-    </row>
-    <row r="37" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="15"/>
-    </row>
-    <row r="38" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="15"/>
-    </row>
-    <row r="39" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="15"/>
-    </row>
-    <row r="40" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="15"/>
-    </row>
-    <row r="41" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="15"/>
-    </row>
-    <row r="42" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="15"/>
-    </row>
-    <row r="43" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="15"/>
-    </row>
-    <row r="44" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="15"/>
-    </row>
-    <row r="45" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="14"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="15"/>
-    </row>
-    <row r="46" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="14"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="15"/>
-    </row>
-    <row r="47" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="14"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="15"/>
-    </row>
-    <row r="48" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="14"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="15"/>
-    </row>
-    <row r="49" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="15"/>
-    </row>
-    <row r="50" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="13"/>
-      <c r="Q50" s="13"/>
-      <c r="R50" s="14"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="15"/>
-    </row>
-    <row r="51" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="13"/>
-      <c r="Q51" s="13"/>
-      <c r="R51" s="14"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="15"/>
-    </row>
-    <row r="52" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="13"/>
-      <c r="R52" s="14"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="15"/>
-    </row>
-    <row r="53" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="13"/>
-      <c r="Q53" s="13"/>
-      <c r="R53" s="14"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="15"/>
-    </row>
-    <row r="54" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="13"/>
-      <c r="O54" s="13"/>
-      <c r="P54" s="13"/>
-      <c r="Q54" s="13"/>
-      <c r="R54" s="14"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="15"/>
-    </row>
-    <row r="55" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="13"/>
-      <c r="Q55" s="13"/>
-      <c r="R55" s="14"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="15"/>
-    </row>
-    <row r="56" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="13"/>
-      <c r="P56" s="13"/>
-      <c r="Q56" s="13"/>
-      <c r="R56" s="14"/>
-      <c r="S56" s="2"/>
-      <c r="T56" s="15"/>
-    </row>
-    <row r="57" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13"/>
-      <c r="Q57" s="13"/>
-      <c r="R57" s="14"/>
-      <c r="S57" s="2"/>
-      <c r="T57" s="15"/>
-    </row>
-    <row r="58" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13"/>
-      <c r="Q58" s="13"/>
-      <c r="R58" s="14"/>
-      <c r="S58" s="2"/>
-      <c r="T58" s="15"/>
-    </row>
-    <row r="59" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="13"/>
-      <c r="P59" s="13"/>
-      <c r="Q59" s="13"/>
-      <c r="R59" s="14"/>
-      <c r="S59" s="2"/>
-      <c r="T59" s="15"/>
-    </row>
-    <row r="60" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="13"/>
-      <c r="O60" s="13"/>
-      <c r="P60" s="13"/>
-      <c r="Q60" s="13"/>
-      <c r="R60" s="14"/>
-      <c r="S60" s="2"/>
-      <c r="T60" s="15"/>
-    </row>
-    <row r="61" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="13"/>
-      <c r="Q61" s="13"/>
-      <c r="R61" s="14"/>
-      <c r="S61" s="2"/>
-      <c r="T61" s="15"/>
-    </row>
-    <row r="62" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="13"/>
-      <c r="O62" s="13"/>
-      <c r="P62" s="13"/>
-      <c r="Q62" s="13"/>
-      <c r="R62" s="14"/>
-      <c r="S62" s="2"/>
-      <c r="T62" s="15"/>
-    </row>
-    <row r="63" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="13"/>
-      <c r="Q63" s="13"/>
-      <c r="R63" s="14"/>
-      <c r="S63" s="2"/>
-      <c r="T63" s="15"/>
-    </row>
-    <row r="64" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="13"/>
-      <c r="O64" s="13"/>
-      <c r="P64" s="13"/>
-      <c r="Q64" s="13"/>
-      <c r="R64" s="14"/>
-      <c r="S64" s="2"/>
-      <c r="T64" s="15"/>
-    </row>
-    <row r="65" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="13"/>
-      <c r="O65" s="13"/>
-      <c r="P65" s="13"/>
-      <c r="Q65" s="13"/>
-      <c r="R65" s="14"/>
-      <c r="S65" s="2"/>
-      <c r="T65" s="15"/>
-    </row>
-    <row r="66" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="13"/>
-      <c r="O66" s="13"/>
-      <c r="P66" s="13"/>
-      <c r="Q66" s="13"/>
-      <c r="R66" s="14"/>
-      <c r="S66" s="2"/>
-      <c r="T66" s="15"/>
-    </row>
-    <row r="67" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="13"/>
-      <c r="L67" s="13"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="13"/>
-      <c r="O67" s="13"/>
-      <c r="P67" s="13"/>
-      <c r="Q67" s="13"/>
-      <c r="R67" s="14"/>
-      <c r="S67" s="2"/>
-      <c r="T67" s="15"/>
-    </row>
-    <row r="68" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="13"/>
-      <c r="L68" s="13"/>
-      <c r="M68" s="13"/>
-      <c r="N68" s="13"/>
-      <c r="O68" s="13"/>
-      <c r="P68" s="13"/>
-      <c r="Q68" s="13"/>
-      <c r="R68" s="14"/>
-      <c r="S68" s="2"/>
-      <c r="T68" s="15"/>
-    </row>
-    <row r="69" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="13"/>
-      <c r="L69" s="13"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="13"/>
-      <c r="O69" s="13"/>
-      <c r="P69" s="13"/>
-      <c r="Q69" s="13"/>
-      <c r="R69" s="14"/>
-      <c r="S69" s="2"/>
-      <c r="T69" s="15"/>
-    </row>
-    <row r="70" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="13"/>
-      <c r="L70" s="13"/>
-      <c r="M70" s="13"/>
-      <c r="N70" s="13"/>
-      <c r="O70" s="13"/>
-      <c r="P70" s="13"/>
-      <c r="Q70" s="13"/>
-      <c r="R70" s="14"/>
-      <c r="S70" s="2"/>
-      <c r="T70" s="15"/>
-    </row>
-    <row r="71" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="13"/>
-      <c r="K71" s="13"/>
-      <c r="L71" s="13"/>
-      <c r="M71" s="13"/>
-      <c r="N71" s="13"/>
-      <c r="O71" s="13"/>
-      <c r="P71" s="13"/>
-      <c r="Q71" s="13"/>
-      <c r="R71" s="14"/>
-      <c r="S71" s="2"/>
-      <c r="T71" s="15"/>
-    </row>
-    <row r="72" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="13"/>
-      <c r="L72" s="13"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="13"/>
-      <c r="O72" s="13"/>
-      <c r="P72" s="13"/>
-      <c r="Q72" s="13"/>
-      <c r="R72" s="14"/>
-      <c r="S72" s="2"/>
-      <c r="T72" s="15"/>
-    </row>
-    <row r="73" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
-      <c r="N73" s="13"/>
-      <c r="O73" s="13"/>
-      <c r="P73" s="13"/>
-      <c r="Q73" s="13"/>
-      <c r="R73" s="14"/>
-      <c r="S73" s="2"/>
-      <c r="T73" s="15"/>
-    </row>
-    <row r="74" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="13"/>
-      <c r="O74" s="13"/>
-      <c r="P74" s="13"/>
-      <c r="Q74" s="13"/>
-      <c r="R74" s="14"/>
-      <c r="S74" s="2"/>
-      <c r="T74" s="15"/>
-    </row>
-    <row r="75" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="13"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
-      <c r="N75" s="13"/>
-      <c r="O75" s="13"/>
-      <c r="P75" s="13"/>
-      <c r="Q75" s="13"/>
-      <c r="R75" s="14"/>
-      <c r="S75" s="2"/>
-      <c r="T75" s="15"/>
-    </row>
-    <row r="76" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="13"/>
-      <c r="O76" s="13"/>
-      <c r="P76" s="13"/>
-      <c r="Q76" s="13"/>
-      <c r="R76" s="14"/>
-      <c r="S76" s="2"/>
-      <c r="T76" s="15"/>
-    </row>
-    <row r="77" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
-      <c r="O77" s="13"/>
-      <c r="P77" s="13"/>
-      <c r="Q77" s="13"/>
-      <c r="R77" s="14"/>
-      <c r="S77" s="2"/>
-      <c r="T77" s="15"/>
-    </row>
-    <row r="78" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="13"/>
-      <c r="O78" s="13"/>
-      <c r="P78" s="13"/>
-      <c r="Q78" s="13"/>
-      <c r="R78" s="14"/>
-      <c r="S78" s="2"/>
-      <c r="T78" s="15"/>
-    </row>
-    <row r="79" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="13"/>
-      <c r="K79" s="13"/>
-      <c r="L79" s="13"/>
-      <c r="M79" s="13"/>
-      <c r="N79" s="13"/>
-      <c r="O79" s="13"/>
-      <c r="P79" s="13"/>
-      <c r="Q79" s="13"/>
-      <c r="R79" s="14"/>
-      <c r="S79" s="2"/>
-      <c r="T79" s="15"/>
-    </row>
-    <row r="80" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="13"/>
-      <c r="K80" s="13"/>
-      <c r="L80" s="13"/>
-      <c r="M80" s="13"/>
-      <c r="N80" s="13"/>
-      <c r="O80" s="13"/>
-      <c r="P80" s="13"/>
-      <c r="Q80" s="13"/>
-      <c r="R80" s="14"/>
-      <c r="S80" s="2"/>
-      <c r="T80" s="15"/>
     </row>
     <row r="81" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F81" s="12"/>
@@ -6235,38 +7884,10 @@
       <c r="T225" s="15"/>
     </row>
     <row r="226" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F226" s="12"/>
-      <c r="G226" s="12"/>
-      <c r="H226" s="12"/>
-      <c r="I226" s="12"/>
-      <c r="J226" s="13"/>
-      <c r="K226" s="13"/>
-      <c r="L226" s="13"/>
-      <c r="M226" s="13"/>
-      <c r="N226" s="13"/>
-      <c r="O226" s="13"/>
-      <c r="P226" s="13"/>
-      <c r="Q226" s="13"/>
-      <c r="R226" s="14"/>
-      <c r="S226" s="2"/>
-      <c r="T226" s="15"/>
+      <c r="T226" s="13"/>
     </row>
     <row r="227" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F227" s="12"/>
-      <c r="G227" s="12"/>
-      <c r="H227" s="12"/>
-      <c r="I227" s="12"/>
-      <c r="J227" s="13"/>
-      <c r="K227" s="13"/>
-      <c r="L227" s="13"/>
-      <c r="M227" s="13"/>
-      <c r="N227" s="13"/>
-      <c r="O227" s="13"/>
-      <c r="P227" s="13"/>
-      <c r="Q227" s="13"/>
-      <c r="R227" s="14"/>
-      <c r="S227" s="2"/>
-      <c r="T227" s="15"/>
+      <c r="T227" s="13"/>
     </row>
     <row r="228" spans="6:20" x14ac:dyDescent="0.25">
       <c r="T228" s="13"/>
@@ -7513,14 +9134,12 @@
     <row r="642" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T642" s="13"/>
     </row>
-    <row r="643" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T643" s="13"/>
-    </row>
-    <row r="644" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T644" s="13"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A9:T27" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A9:T80" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:T80">
+      <sortCondition ref="C9:C80"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>
@@ -7556,1686 +9175,78 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1014" sqref="B1014"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" customWidth="1"/>
-    <col min="4" max="4" width="102" customWidth="1"/>
-    <col min="5" max="6" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D3" s="23" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="11" t="s">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="D4" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="30">
-        <v>192</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="30">
-        <v>208</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="30">
-        <v>224</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" s="30">
-        <v>240</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="30">
-        <v>256</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="30">
-        <v>272</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="30">
-        <v>288</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="30">
-        <v>304</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="30">
-        <v>193</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="30">
-        <v>209</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="30">
-        <v>225</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="30">
-        <v>241</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="30">
-        <v>257</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="30">
-        <v>273</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="30">
-        <v>289</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" s="30">
-        <v>305</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C27" s="30">
-        <v>194</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C28" s="30">
-        <v>210</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29" s="30">
-        <v>226</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C30" s="30">
-        <v>242</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C31" s="30">
-        <v>258</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C32" s="30">
-        <v>274</v>
-      </c>
-      <c r="D32" s="31" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C33" s="30">
-        <v>290</v>
-      </c>
-      <c r="D33" s="31" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C34" s="30">
-        <v>306</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C35" s="30">
-        <v>195</v>
-      </c>
-      <c r="D35" s="30">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="30">
-        <v>211</v>
-      </c>
-      <c r="D36" s="30">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C37" s="30">
-        <v>227</v>
-      </c>
-      <c r="D37" s="31">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C38" s="30">
-        <v>243</v>
-      </c>
-      <c r="D38" s="30">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C39" s="30">
-        <v>259</v>
-      </c>
-      <c r="D39" s="31">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C40" s="30">
-        <v>275</v>
-      </c>
-      <c r="D40" s="31">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C41" s="30">
-        <v>291</v>
-      </c>
-      <c r="D41" s="31">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C42" s="30">
-        <v>307</v>
-      </c>
-      <c r="D42" s="31">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C43" s="30">
-        <v>196</v>
-      </c>
-      <c r="D43" s="30">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C44" s="30">
-        <v>212</v>
-      </c>
-      <c r="D44" s="30">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C45" s="30">
-        <v>228</v>
-      </c>
-      <c r="D45" s="31">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C46" s="30">
-        <v>244</v>
-      </c>
-      <c r="D46" s="30">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C47" s="30">
-        <v>260</v>
-      </c>
-      <c r="D47" s="31">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C48" s="30">
-        <v>276</v>
-      </c>
-      <c r="D48" s="31">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C49" s="30">
-        <v>292</v>
-      </c>
-      <c r="D49" s="31">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C50" s="30">
-        <v>308</v>
-      </c>
-      <c r="D50" s="31">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:4" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D1000" xr:uid="{00000000-0001-0000-0300-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="LAB"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Validazione"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -9264,18 +9275,18 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/GATEWAY/A1#111PROACTIVEXX/Proactive/Labpro/5.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111PROACTIVEXX/Proactive/Labpro/5.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vb_net_prj\API_REGIONETOSCANA\FSE 2.0\perValidazione\LAB+RAD+RSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F894B9A-2C68-4940-B583-3E6144A01B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23963DF1-F7B8-49FF-B3D5-6F224CB091E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="297">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1253,6 +1253,24 @@
   </si>
   <si>
     <t xml:space="preserve"> il sesso del pazioente è gestito con trascodifica a livello applicativo nojn è possibile avere valori diversi da "male", "female" o "undifferentiated"</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LAB_TRASF_CT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST- OK" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>20240122181755</t>
+  </si>
+  <si>
+    <t>6bc36adac097cf0b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.d7a484329f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2273,10 +2291,10 @@
   <dimension ref="A1:T642"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A58" sqref="A58"/>
+      <selection pane="bottomRight" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3339,52 +3357,52 @@
       </c>
     </row>
     <row r="29" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="45">
-        <v>11</v>
-      </c>
-      <c r="B29" s="26" t="s">
+      <c r="A29" s="35">
+        <v>191</v>
+      </c>
+      <c r="B29" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="F29" s="28">
+      <c r="C29" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>292</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="F29" s="38">
         <v>45313</v>
       </c>
-      <c r="G29" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="H29" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="I29" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="J29" s="31" t="s">
+      <c r="G29" s="39" t="s">
+        <v>294</v>
+      </c>
+      <c r="H29" s="40" t="s">
+        <v>295</v>
+      </c>
+      <c r="I29" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="J29" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="34" t="s">
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="44" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="45">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30" s="26" t="s">
         <v>44</v>
@@ -3393,21 +3411,27 @@
         <v>57</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="F30" s="28"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
+        <v>145</v>
+      </c>
+      <c r="F30" s="28">
+        <v>45313</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="I30" s="30" t="s">
+        <v>243</v>
+      </c>
       <c r="J30" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="K30" s="31" t="s">
-        <v>245</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="K30" s="31"/>
       <c r="L30" s="31"/>
       <c r="M30" s="31"/>
       <c r="N30" s="31"/>
@@ -3422,7 +3446,7 @@
     </row>
     <row r="31" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="45">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31" s="26" t="s">
         <v>44</v>
@@ -3431,13 +3455,13 @@
         <v>57</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F31" s="28"/>
-      <c r="G31" s="30"/>
+      <c r="G31" s="29"/>
       <c r="H31" s="30"/>
       <c r="I31" s="30"/>
       <c r="J31" s="31" t="s">
@@ -3460,7 +3484,7 @@
     </row>
     <row r="32" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="45">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B32" s="26" t="s">
         <v>44</v>
@@ -3469,10 +3493,10 @@
         <v>57</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F32" s="28"/>
       <c r="G32" s="30"/>
@@ -3497,8 +3521,8 @@
       </c>
     </row>
     <row r="33" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="25">
-        <v>31</v>
+      <c r="A33" s="45">
+        <v>14</v>
       </c>
       <c r="B33" s="26" t="s">
         <v>44</v>
@@ -3507,52 +3531,36 @@
         <v>57</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="28">
-        <v>45313</v>
-      </c>
-      <c r="G33" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="H33" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="I33" s="30" t="s">
-        <v>114</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="F33" s="28"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
       <c r="J33" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="M33" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="N33" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="O33" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="P33" s="31" t="s">
-        <v>130</v>
-      </c>
+      <c r="K33" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
       <c r="Q33" s="31"/>
       <c r="R33" s="32"/>
       <c r="S33" s="33"/>
       <c r="T33" s="34" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="25">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B34" s="26" t="s">
         <v>44</v>
@@ -3561,19 +3569,19 @@
         <v>57</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F34" s="28">
         <v>45313</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H34" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I34" s="30" t="s">
         <v>114</v>
@@ -3589,7 +3597,7 @@
         <v>66</v>
       </c>
       <c r="N34" s="31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O34" s="31" t="s">
         <v>66</v>
@@ -3606,7 +3614,7 @@
     </row>
     <row r="35" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="25">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B35" s="26" t="s">
         <v>44</v>
@@ -3615,16 +3623,26 @@
         <v>57</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F35" s="28"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="31"/>
+        <v>63</v>
+      </c>
+      <c r="F35" s="28">
+        <v>45313</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="I35" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="J35" s="31" t="s">
+        <v>66</v>
+      </c>
       <c r="K35" s="31"/>
       <c r="L35" s="31" t="s">
         <v>98</v>
@@ -3633,13 +3651,13 @@
         <v>66</v>
       </c>
       <c r="N35" s="31" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O35" s="31" t="s">
         <v>66</v>
       </c>
       <c r="P35" s="31" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="Q35" s="31"/>
       <c r="R35" s="32"/>
@@ -3650,7 +3668,7 @@
     </row>
     <row r="36" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="25">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="B36" s="26" t="s">
         <v>44</v>
@@ -3659,26 +3677,32 @@
         <v>57</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>156</v>
+        <v>65</v>
       </c>
       <c r="F36" s="28"/>
       <c r="G36" s="30"/>
       <c r="H36" s="30"/>
       <c r="I36" s="30"/>
-      <c r="J36" s="31" t="s">
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="K36" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
+      <c r="M36" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="N36" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="O36" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="P36" s="31" t="s">
+        <v>117</v>
+      </c>
       <c r="Q36" s="31"/>
       <c r="R36" s="32"/>
       <c r="S36" s="33"/>
@@ -3688,7 +3712,7 @@
     </row>
     <row r="37" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37" s="26" t="s">
         <v>44</v>
@@ -3697,20 +3721,20 @@
         <v>57</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F37" s="28"/>
       <c r="G37" s="30"/>
       <c r="H37" s="30"/>
       <c r="I37" s="30"/>
-      <c r="J37" s="41" t="s">
+      <c r="J37" s="31" t="s">
         <v>98</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L37" s="31"/>
       <c r="M37" s="31"/>
@@ -3726,7 +3750,7 @@
     </row>
     <row r="38" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="25">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B38" s="26" t="s">
         <v>44</v>
@@ -3735,10 +3759,10 @@
         <v>57</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F38" s="28"/>
       <c r="G38" s="30"/>
@@ -3748,7 +3772,7 @@
         <v>98</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L38" s="31"/>
       <c r="M38" s="31"/>
@@ -3764,7 +3788,7 @@
     </row>
     <row r="39" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="25">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B39" s="26" t="s">
         <v>44</v>
@@ -3773,10 +3797,10 @@
         <v>57</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F39" s="28"/>
       <c r="G39" s="30"/>
@@ -3786,7 +3810,7 @@
         <v>98</v>
       </c>
       <c r="K39" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L39" s="31"/>
       <c r="M39" s="31"/>
@@ -3802,7 +3826,7 @@
     </row>
     <row r="40" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="25">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B40" s="26" t="s">
         <v>44</v>
@@ -3811,10 +3835,10 @@
         <v>57</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F40" s="28"/>
       <c r="G40" s="30"/>
@@ -3824,7 +3848,7 @@
         <v>98</v>
       </c>
       <c r="K40" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L40" s="31"/>
       <c r="M40" s="31"/>
@@ -3840,7 +3864,7 @@
     </row>
     <row r="41" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="25">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B41" s="26" t="s">
         <v>44</v>
@@ -3849,10 +3873,10 @@
         <v>57</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F41" s="28"/>
       <c r="G41" s="30"/>
@@ -3862,7 +3886,7 @@
         <v>98</v>
       </c>
       <c r="K41" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L41" s="31"/>
       <c r="M41" s="31"/>
@@ -3878,7 +3902,7 @@
     </row>
     <row r="42" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="25">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B42" s="26" t="s">
         <v>44</v>
@@ -3887,10 +3911,10 @@
         <v>57</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F42" s="28"/>
       <c r="G42" s="30"/>
@@ -3900,7 +3924,7 @@
         <v>98</v>
       </c>
       <c r="K42" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L42" s="31"/>
       <c r="M42" s="31"/>
@@ -3916,7 +3940,7 @@
     </row>
     <row r="43" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="25">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B43" s="26" t="s">
         <v>44</v>
@@ -3925,20 +3949,20 @@
         <v>57</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F43" s="28"/>
       <c r="G43" s="30"/>
       <c r="H43" s="30"/>
       <c r="I43" s="30"/>
-      <c r="J43" s="31" t="s">
+      <c r="J43" s="41" t="s">
         <v>98</v>
       </c>
       <c r="K43" s="24" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L43" s="31"/>
       <c r="M43" s="31"/>
@@ -3954,7 +3978,7 @@
     </row>
     <row r="44" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="25">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B44" s="26" t="s">
         <v>44</v>
@@ -3963,10 +3987,10 @@
         <v>57</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F44" s="28"/>
       <c r="G44" s="30"/>
@@ -3976,7 +4000,7 @@
         <v>98</v>
       </c>
       <c r="K44" s="24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L44" s="31"/>
       <c r="M44" s="31"/>
@@ -3992,7 +4016,7 @@
     </row>
     <row r="45" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="25">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B45" s="26" t="s">
         <v>44</v>
@@ -4001,19 +4025,19 @@
         <v>57</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F45" s="28"/>
       <c r="G45" s="30"/>
       <c r="H45" s="30"/>
       <c r="I45" s="30"/>
-      <c r="J45" s="47" t="s">
+      <c r="J45" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="K45" s="31" t="s">
+      <c r="K45" s="24" t="s">
         <v>258</v>
       </c>
       <c r="L45" s="31"/>
@@ -4030,7 +4054,7 @@
     </row>
     <row r="46" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="25">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B46" s="26" t="s">
         <v>44</v>
@@ -4039,42 +4063,26 @@
         <v>57</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="F46" s="28">
-        <v>45313</v>
-      </c>
-      <c r="G46" s="29" t="s">
-        <v>261</v>
-      </c>
-      <c r="H46" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="I46" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="J46" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="M46" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="N46" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="O46" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="P46" s="31" t="s">
-        <v>130</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="F46" s="28"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="K46" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="31"/>
       <c r="Q46" s="31"/>
       <c r="R46" s="32"/>
       <c r="S46" s="33"/>
@@ -4084,7 +4092,7 @@
     </row>
     <row r="47" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="25">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B47" s="26" t="s">
         <v>44</v>
@@ -4093,26 +4101,42 @@
         <v>57</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="F47" s="28"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="K47" s="31" t="s">
-        <v>259</v>
-      </c>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="31"/>
-      <c r="P47" s="31"/>
+        <v>176</v>
+      </c>
+      <c r="F47" s="28">
+        <v>45313</v>
+      </c>
+      <c r="G47" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="H47" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="I47" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="J47" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="M47" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="N47" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="O47" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="P47" s="31" t="s">
+        <v>130</v>
+      </c>
       <c r="Q47" s="31"/>
       <c r="R47" s="32"/>
       <c r="S47" s="33"/>
@@ -4122,7 +4146,7 @@
     </row>
     <row r="48" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="25">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B48" s="26" t="s">
         <v>44</v>
@@ -4131,16 +4155,16 @@
         <v>57</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F48" s="28"/>
       <c r="G48" s="30"/>
       <c r="H48" s="30"/>
       <c r="I48" s="30"/>
-      <c r="J48" s="31" t="s">
+      <c r="J48" s="41" t="s">
         <v>98</v>
       </c>
       <c r="K48" s="31" t="s">
@@ -4160,7 +4184,7 @@
     </row>
     <row r="49" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="25">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B49" s="26" t="s">
         <v>44</v>
@@ -4169,10 +4193,10 @@
         <v>57</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F49" s="28"/>
       <c r="G49" s="30"/>
@@ -4198,7 +4222,7 @@
     </row>
     <row r="50" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="25">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B50" s="26" t="s">
         <v>44</v>
@@ -4207,10 +4231,10 @@
         <v>57</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F50" s="28"/>
       <c r="G50" s="30"/>
@@ -4236,7 +4260,7 @@
     </row>
     <row r="51" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="25">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B51" s="26" t="s">
         <v>44</v>
@@ -4245,10 +4269,10 @@
         <v>57</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F51" s="28"/>
       <c r="G51" s="30"/>
@@ -4274,7 +4298,7 @@
     </row>
     <row r="52" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="25">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B52" s="26" t="s">
         <v>44</v>
@@ -4283,10 +4307,10 @@
         <v>57</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F52" s="28"/>
       <c r="G52" s="30"/>
@@ -4312,7 +4336,7 @@
     </row>
     <row r="53" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="25">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B53" s="26" t="s">
         <v>44</v>
@@ -4321,10 +4345,10 @@
         <v>57</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E53" s="27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F53" s="28"/>
       <c r="G53" s="30"/>
@@ -4350,7 +4374,7 @@
     </row>
     <row r="54" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="25">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B54" s="26" t="s">
         <v>44</v>
@@ -4359,10 +4383,10 @@
         <v>57</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F54" s="28"/>
       <c r="G54" s="30"/>
@@ -4388,51 +4412,35 @@
     </row>
     <row r="55" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="25">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="B55" s="26" t="s">
         <v>44</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E55" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="F55" s="28">
-        <v>45313</v>
-      </c>
-      <c r="G55" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="H55" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="I55" s="30" t="s">
-        <v>114</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F55" s="28"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
       <c r="J55" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="K55" s="31"/>
-      <c r="L55" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="M55" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="N55" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="O55" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="P55" s="31" t="s">
-        <v>130</v>
-      </c>
+      <c r="K55" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="31"/>
       <c r="Q55" s="31"/>
       <c r="R55" s="32"/>
       <c r="S55" s="33"/>
@@ -4442,7 +4450,7 @@
     </row>
     <row r="56" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="25">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B56" s="26" t="s">
         <v>44</v>
@@ -4451,25 +4459,25 @@
         <v>61</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F56" s="28">
         <v>45313</v>
       </c>
       <c r="G56" s="29" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H56" s="30" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I56" s="30" t="s">
         <v>114</v>
       </c>
       <c r="J56" s="31" t="s">
-        <v>269</v>
+        <v>66</v>
       </c>
       <c r="K56" s="31"/>
       <c r="L56" s="31" t="s">
@@ -4479,7 +4487,7 @@
         <v>66</v>
       </c>
       <c r="N56" s="31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O56" s="31" t="s">
         <v>66</v>
@@ -4496,7 +4504,7 @@
     </row>
     <row r="57" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="25">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B57" s="26" t="s">
         <v>44</v>
@@ -4505,16 +4513,26 @@
         <v>61</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F57" s="28"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="31"/>
+        <v>63</v>
+      </c>
+      <c r="F57" s="28">
+        <v>45313</v>
+      </c>
+      <c r="G57" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="H57" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="I57" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="J57" s="31" t="s">
+        <v>269</v>
+      </c>
       <c r="K57" s="31"/>
       <c r="L57" s="31" t="s">
         <v>98</v>
@@ -4523,13 +4541,13 @@
         <v>66</v>
       </c>
       <c r="N57" s="31" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O57" s="31" t="s">
         <v>66</v>
       </c>
       <c r="P57" s="31" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="Q57" s="31"/>
       <c r="R57" s="32"/>
@@ -4539,8 +4557,8 @@
       </c>
     </row>
     <row r="58" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="49">
-        <v>147</v>
+      <c r="A58" s="25">
+        <v>48</v>
       </c>
       <c r="B58" s="26" t="s">
         <v>44</v>
@@ -4549,42 +4567,42 @@
         <v>61</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="F58" s="28">
-        <v>45313</v>
-      </c>
-      <c r="G58" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="H58" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="I58" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="J58" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="F58" s="28"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="M58" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="K58" s="31"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="31"/>
-      <c r="P58" s="31"/>
+      <c r="N58" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="O58" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="P58" s="31" t="s">
+        <v>117</v>
+      </c>
       <c r="Q58" s="31"/>
       <c r="R58" s="32"/>
       <c r="S58" s="33"/>
       <c r="T58" s="34" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="49">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B59" s="26" t="s">
         <v>44</v>
@@ -4593,21 +4611,27 @@
         <v>61</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="F59" s="28"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
+        <v>197</v>
+      </c>
+      <c r="F59" s="28">
+        <v>45313</v>
+      </c>
+      <c r="G59" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="H59" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="I59" s="30" t="s">
+        <v>264</v>
+      </c>
       <c r="J59" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="K59" s="31" t="s">
-        <v>272</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="K59" s="31"/>
       <c r="L59" s="31"/>
       <c r="M59" s="31"/>
       <c r="N59" s="31"/>
@@ -4622,7 +4646,7 @@
     </row>
     <row r="60" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="49">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B60" s="26" t="s">
         <v>44</v>
@@ -4631,10 +4655,10 @@
         <v>61</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E60" s="27" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F60" s="28"/>
       <c r="G60" s="30"/>
@@ -4644,7 +4668,7 @@
         <v>98</v>
       </c>
       <c r="K60" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L60" s="31"/>
       <c r="M60" s="31"/>
@@ -4660,7 +4684,7 @@
     </row>
     <row r="61" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="49">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B61" s="26" t="s">
         <v>44</v>
@@ -4669,10 +4693,10 @@
         <v>61</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E61" s="27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F61" s="28"/>
       <c r="G61" s="30"/>
@@ -4682,7 +4706,7 @@
         <v>98</v>
       </c>
       <c r="K61" s="31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L61" s="31"/>
       <c r="M61" s="31"/>
@@ -4697,8 +4721,8 @@
       </c>
     </row>
     <row r="62" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="25">
-        <v>151</v>
+      <c r="A62" s="49">
+        <v>150</v>
       </c>
       <c r="B62" s="26" t="s">
         <v>44</v>
@@ -4707,22 +4731,22 @@
         <v>61</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E62" s="27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F62" s="28"/>
       <c r="G62" s="30"/>
       <c r="H62" s="30"/>
       <c r="I62" s="30"/>
-      <c r="J62" s="41" t="s">
+      <c r="J62" s="31" t="s">
         <v>98</v>
       </c>
       <c r="K62" s="31" t="s">
-        <v>275</v>
-      </c>
-      <c r="L62" s="41"/>
+        <v>274</v>
+      </c>
+      <c r="L62" s="31"/>
       <c r="M62" s="31"/>
       <c r="N62" s="31"/>
       <c r="O62" s="31"/>
@@ -4731,12 +4755,12 @@
       <c r="R62" s="32"/>
       <c r="S62" s="33"/>
       <c r="T62" s="34" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="25">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B63" s="26" t="s">
         <v>44</v>
@@ -4745,22 +4769,22 @@
         <v>61</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F63" s="28"/>
       <c r="G63" s="30"/>
       <c r="H63" s="30"/>
       <c r="I63" s="30"/>
-      <c r="J63" s="31" t="s">
+      <c r="J63" s="41" t="s">
         <v>98</v>
       </c>
       <c r="K63" s="31" t="s">
-        <v>290</v>
-      </c>
-      <c r="L63" s="31"/>
+        <v>275</v>
+      </c>
+      <c r="L63" s="41"/>
       <c r="M63" s="31"/>
       <c r="N63" s="31"/>
       <c r="O63" s="31"/>
@@ -4774,7 +4798,7 @@
     </row>
     <row r="64" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="25">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B64" s="26" t="s">
         <v>44</v>
@@ -4783,20 +4807,20 @@
         <v>61</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E64" s="27" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F64" s="28"/>
       <c r="G64" s="30"/>
       <c r="H64" s="30"/>
       <c r="I64" s="30"/>
-      <c r="J64" s="41" t="s">
+      <c r="J64" s="31" t="s">
         <v>98</v>
       </c>
       <c r="K64" s="31" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="L64" s="31"/>
       <c r="M64" s="31"/>
@@ -4812,7 +4836,7 @@
     </row>
     <row r="65" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="25">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B65" s="26" t="s">
         <v>44</v>
@@ -4821,10 +4845,10 @@
         <v>61</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F65" s="28"/>
       <c r="G65" s="30"/>
@@ -4833,8 +4857,8 @@
       <c r="J65" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="K65" s="41" t="s">
-        <v>288</v>
+      <c r="K65" s="31" t="s">
+        <v>276</v>
       </c>
       <c r="L65" s="31"/>
       <c r="M65" s="31"/>
@@ -4850,7 +4874,7 @@
     </row>
     <row r="66" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="25">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B66" s="26" t="s">
         <v>44</v>
@@ -4859,10 +4883,10 @@
         <v>61</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F66" s="28"/>
       <c r="G66" s="30"/>
@@ -4872,7 +4896,7 @@
         <v>98</v>
       </c>
       <c r="K66" s="41" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L66" s="31"/>
       <c r="M66" s="31"/>
@@ -4888,7 +4912,7 @@
     </row>
     <row r="67" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="25">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B67" s="26" t="s">
         <v>44</v>
@@ -4897,20 +4921,20 @@
         <v>61</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F67" s="28"/>
       <c r="G67" s="30"/>
       <c r="H67" s="30"/>
       <c r="I67" s="30"/>
-      <c r="J67" s="31" t="s">
+      <c r="J67" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="K67" s="31" t="s">
-        <v>291</v>
+      <c r="K67" s="41" t="s">
+        <v>289</v>
       </c>
       <c r="L67" s="31"/>
       <c r="M67" s="31"/>
@@ -4926,7 +4950,7 @@
     </row>
     <row r="68" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="25">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B68" s="26" t="s">
         <v>44</v>
@@ -4935,20 +4959,20 @@
         <v>61</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F68" s="28"/>
       <c r="G68" s="30"/>
       <c r="H68" s="30"/>
       <c r="I68" s="30"/>
-      <c r="J68" s="41" t="s">
+      <c r="J68" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="K68" s="41" t="s">
-        <v>279</v>
+      <c r="K68" s="31" t="s">
+        <v>291</v>
       </c>
       <c r="L68" s="31"/>
       <c r="M68" s="31"/>
@@ -4964,7 +4988,7 @@
     </row>
     <row r="69" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="25">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B69" s="26" t="s">
         <v>44</v>
@@ -4973,10 +4997,10 @@
         <v>61</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F69" s="28"/>
       <c r="G69" s="30"/>
@@ -4986,7 +5010,7 @@
         <v>98</v>
       </c>
       <c r="K69" s="41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L69" s="31"/>
       <c r="M69" s="31"/>
@@ -5002,7 +5026,7 @@
     </row>
     <row r="70" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="25">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B70" s="26" t="s">
         <v>44</v>
@@ -5011,10 +5035,10 @@
         <v>61</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F70" s="28"/>
       <c r="G70" s="30"/>
@@ -5024,7 +5048,7 @@
         <v>98</v>
       </c>
       <c r="K70" s="41" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L70" s="31"/>
       <c r="M70" s="31"/>
@@ -5040,7 +5064,7 @@
     </row>
     <row r="71" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="25">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B71" s="26" t="s">
         <v>44</v>
@@ -5049,10 +5073,10 @@
         <v>61</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F71" s="28"/>
       <c r="G71" s="30"/>
@@ -5062,7 +5086,7 @@
         <v>98</v>
       </c>
       <c r="K71" s="41" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L71" s="31"/>
       <c r="M71" s="31"/>
@@ -5078,7 +5102,7 @@
     </row>
     <row r="72" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="25">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B72" s="26" t="s">
         <v>44</v>
@@ -5087,10 +5111,10 @@
         <v>61</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F72" s="28"/>
       <c r="G72" s="30"/>
@@ -5100,7 +5124,7 @@
         <v>98</v>
       </c>
       <c r="K72" s="41" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="L72" s="31"/>
       <c r="M72" s="31"/>
@@ -5116,7 +5140,7 @@
     </row>
     <row r="73" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="25">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B73" s="26" t="s">
         <v>44</v>
@@ -5125,10 +5149,10 @@
         <v>61</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F73" s="28"/>
       <c r="G73" s="30"/>
@@ -5138,7 +5162,7 @@
         <v>98</v>
       </c>
       <c r="K73" s="41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L73" s="31"/>
       <c r="M73" s="31"/>
@@ -5154,7 +5178,7 @@
     </row>
     <row r="74" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="25">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B74" s="26" t="s">
         <v>44</v>
@@ -5163,10 +5187,10 @@
         <v>61</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E74" s="27" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F74" s="28"/>
       <c r="G74" s="30"/>
@@ -5176,7 +5200,7 @@
         <v>98</v>
       </c>
       <c r="K74" s="41" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="L74" s="31"/>
       <c r="M74" s="31"/>
@@ -5192,7 +5216,7 @@
     </row>
     <row r="75" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="25">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B75" s="26" t="s">
         <v>44</v>
@@ -5201,10 +5225,10 @@
         <v>61</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E75" s="27" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F75" s="28"/>
       <c r="G75" s="30"/>
@@ -5214,7 +5238,7 @@
         <v>98</v>
       </c>
       <c r="K75" s="41" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="L75" s="31"/>
       <c r="M75" s="31"/>
@@ -5230,7 +5254,7 @@
     </row>
     <row r="76" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="25">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B76" s="26" t="s">
         <v>44</v>
@@ -5239,10 +5263,10 @@
         <v>61</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E76" s="27" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F76" s="28"/>
       <c r="G76" s="30"/>
@@ -5268,7 +5292,7 @@
     </row>
     <row r="77" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="25">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B77" s="26" t="s">
         <v>44</v>
@@ -5277,10 +5301,10 @@
         <v>61</v>
       </c>
       <c r="D77" s="26" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E77" s="27" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F77" s="28"/>
       <c r="G77" s="30"/>
@@ -5290,7 +5314,7 @@
         <v>98</v>
       </c>
       <c r="K77" s="41" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L77" s="31"/>
       <c r="M77" s="31"/>
@@ -5306,7 +5330,7 @@
     </row>
     <row r="78" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="25">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B78" s="26" t="s">
         <v>44</v>
@@ -5315,10 +5339,10 @@
         <v>61</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E78" s="27" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F78" s="28"/>
       <c r="G78" s="30"/>
@@ -5344,7 +5368,7 @@
     </row>
     <row r="79" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="25">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B79" s="26" t="s">
         <v>44</v>
@@ -5353,10 +5377,10 @@
         <v>61</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F79" s="28"/>
       <c r="G79" s="30"/>
@@ -5366,7 +5390,7 @@
         <v>98</v>
       </c>
       <c r="K79" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L79" s="31"/>
       <c r="M79" s="31"/>
@@ -5380,9 +5404,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="25">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B80" s="26" t="s">
         <v>44</v>
@@ -5391,10 +5415,10 @@
         <v>61</v>
       </c>
       <c r="D80" s="26" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E80" s="27" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F80" s="28"/>
       <c r="G80" s="30"/>
@@ -5404,7 +5428,7 @@
         <v>98</v>
       </c>
       <c r="K80" s="41" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L80" s="31"/>
       <c r="M80" s="31"/>
@@ -5418,24 +5442,45 @@
         <v>60</v>
       </c>
     </row>
-    <row r="81" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="13"/>
-      <c r="K81" s="13"/>
-      <c r="L81" s="13"/>
-      <c r="M81" s="13"/>
-      <c r="N81" s="13"/>
-      <c r="O81" s="13"/>
-      <c r="P81" s="13"/>
-      <c r="Q81" s="13"/>
-      <c r="R81" s="14"/>
-      <c r="S81" s="2"/>
-      <c r="T81" s="15"/>
-    </row>
-    <row r="82" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="25">
+        <v>169</v>
+      </c>
+      <c r="B81" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D81" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="E81" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="F81" s="28"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="K81" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="L81" s="31"/>
+      <c r="M81" s="31"/>
+      <c r="N81" s="31"/>
+      <c r="O81" s="31"/>
+      <c r="P81" s="31"/>
+      <c r="Q81" s="31"/>
+      <c r="R81" s="32"/>
+      <c r="S81" s="33"/>
+      <c r="T81" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F82" s="12"/>
       <c r="G82" s="12"/>
       <c r="H82" s="12"/>
@@ -5452,7 +5497,7 @@
       <c r="S82" s="2"/>
       <c r="T82" s="15"/>
     </row>
-    <row r="83" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F83" s="12"/>
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
@@ -5469,7 +5514,7 @@
       <c r="S83" s="2"/>
       <c r="T83" s="15"/>
     </row>
-    <row r="84" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F84" s="12"/>
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
@@ -5486,7 +5531,7 @@
       <c r="S84" s="2"/>
       <c r="T84" s="15"/>
     </row>
-    <row r="85" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F85" s="12"/>
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
@@ -5503,7 +5548,7 @@
       <c r="S85" s="2"/>
       <c r="T85" s="15"/>
     </row>
-    <row r="86" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F86" s="12"/>
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
@@ -5520,7 +5565,7 @@
       <c r="S86" s="2"/>
       <c r="T86" s="15"/>
     </row>
-    <row r="87" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F87" s="12"/>
       <c r="G87" s="12"/>
       <c r="H87" s="12"/>
@@ -5537,7 +5582,7 @@
       <c r="S87" s="2"/>
       <c r="T87" s="15"/>
     </row>
-    <row r="88" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F88" s="12"/>
       <c r="G88" s="12"/>
       <c r="H88" s="12"/>
@@ -5554,7 +5599,7 @@
       <c r="S88" s="2"/>
       <c r="T88" s="15"/>
     </row>
-    <row r="89" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F89" s="12"/>
       <c r="G89" s="12"/>
       <c r="H89" s="12"/>
@@ -5571,7 +5616,7 @@
       <c r="S89" s="2"/>
       <c r="T89" s="15"/>
     </row>
-    <row r="90" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F90" s="12"/>
       <c r="G90" s="12"/>
       <c r="H90" s="12"/>
@@ -5588,7 +5633,7 @@
       <c r="S90" s="2"/>
       <c r="T90" s="15"/>
     </row>
-    <row r="91" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F91" s="12"/>
       <c r="G91" s="12"/>
       <c r="H91" s="12"/>
@@ -5605,7 +5650,7 @@
       <c r="S91" s="2"/>
       <c r="T91" s="15"/>
     </row>
-    <row r="92" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F92" s="12"/>
       <c r="G92" s="12"/>
       <c r="H92" s="12"/>
@@ -5622,7 +5667,7 @@
       <c r="S92" s="2"/>
       <c r="T92" s="15"/>
     </row>
-    <row r="93" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F93" s="12"/>
       <c r="G93" s="12"/>
       <c r="H93" s="12"/>
@@ -5639,7 +5684,7 @@
       <c r="S93" s="2"/>
       <c r="T93" s="15"/>
     </row>
-    <row r="94" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F94" s="12"/>
       <c r="G94" s="12"/>
       <c r="H94" s="12"/>
@@ -5656,7 +5701,7 @@
       <c r="S94" s="2"/>
       <c r="T94" s="15"/>
     </row>
-    <row r="95" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F95" s="12"/>
       <c r="G95" s="12"/>
       <c r="H95" s="12"/>
@@ -5673,7 +5718,7 @@
       <c r="S95" s="2"/>
       <c r="T95" s="15"/>
     </row>
-    <row r="96" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F96" s="12"/>
       <c r="G96" s="12"/>
       <c r="H96" s="12"/>
@@ -9136,7 +9181,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A9:T80" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:T80">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:T81">
       <sortCondition ref="C9:C80"/>
     </sortState>
   </autoFilter>

--- a/GATEWAY/A1#111PROACTIVEXX/Proactive/Labpro/5.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111PROACTIVEXX/Proactive/Labpro/5.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vb_net_prj\API_REGIONETOSCANA\FSE 2.0\perValidazione\LAB+RAD+RSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23963DF1-F7B8-49FF-B3D5-6F224CB091E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64A4402-2534-4AA7-8E39-69E21A97CA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="298">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -587,39 +587,6 @@
     <t>subject_application_id:LabPro</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.f5f302e564^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>63a4d2cb5369798e</t>
-  </si>
-  <si>
-    <t>20240102112507</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.e68539fa85^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>c23ffe63482c8b1d</t>
-  </si>
-  <si>
-    <t>20240102124411</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.a91359632d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>a7b876ec05833161</t>
-  </si>
-  <si>
-    <t>20240102171337</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.60f361d4f3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>ae18c270c07de1c9</t>
-  </si>
-  <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
@@ -672,15 +639,6 @@
     <t>L'utente riceve una segnalazione che indica di aprire un ticket verso Proactive e uno dei Nostri addetti risolverà il proplema in assistenza remota</t>
   </si>
   <si>
-    <t>20240111095628</t>
-  </si>
-  <si>
-    <t>27739902048d99eb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.63f805c6a2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LAB_CT16_KO</t>
   </si>
   <si>
@@ -688,28 +646,7 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>20240112180353</t>
-  </si>
-  <si>
-    <t>38307b48881219da</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.dff24801c3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>[W002 | Si consiglia di valorizzare l'elemento organizer[CLUSTER]/code]</t>
-  </si>
-  <si>
-    <t>20240115173748</t>
-  </si>
-  <si>
-    <t>4ebe00312176e199</t>
-  </si>
-  <si>
-    <t>20240115174324</t>
-  </si>
-  <si>
-    <t>92038db3af751528</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT1</t>
@@ -1271,6 +1208,72 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.46a41df0ab0514f11c0811056832c3225e06c8e11824f27c7e5517ca5cfc57fe.d7a484329f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.dbf669add2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2096732d8ef0497f</t>
+  </si>
+  <si>
+    <t>20240124170001</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.b38674b268^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>f025b33434117e85</t>
+  </si>
+  <si>
+    <t>20240124170222</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.9ab0e826ed^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>91f107713f995bdb</t>
+  </si>
+  <si>
+    <t>20240124170413</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.256da66e1f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>5228e9952d4aeb2a</t>
+  </si>
+  <si>
+    <t>20240124170603</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.be8d08b318^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>25e6cb5d27f90860</t>
+  </si>
+  <si>
+    <t>20240124170849</t>
+  </si>
+  <si>
+    <t>88f94089caa11e13</t>
+  </si>
+  <si>
+    <t>20240124171203</t>
+  </si>
+  <si>
+    <t>685c3a51354e6547</t>
+  </si>
+  <si>
+    <t>20240124171433</t>
+  </si>
+  <si>
+    <t>e61287d54201c753</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.97bb3fc5bee3032679f4f07419e04af6375baafa17024527a98ede920c6812ed.11f3a4ce8d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>20240124171704</t>
   </si>
 </sst>
 </file>
@@ -1366,7 +1369,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1388,6 +1391,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1643,7 +1658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1801,6 +1816,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2291,10 +2342,10 @@
   <dimension ref="A1:T642"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2549,32 +2600,32 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25">
+      <c r="A10" s="62">
         <v>1</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="28">
-        <v>45293</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>103</v>
+      <c r="F10" s="68">
+        <v>45315</v>
+      </c>
+      <c r="G10" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="H10" s="69" t="s">
+        <v>277</v>
+      </c>
+      <c r="I10" s="69" t="s">
+        <v>276</v>
       </c>
       <c r="J10" s="31" t="s">
         <v>66</v>
@@ -2593,32 +2644,32 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25">
+      <c r="A11" s="62">
         <v>2</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="28">
-        <v>45293</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>106</v>
+      <c r="F11" s="68">
+        <v>45315</v>
+      </c>
+      <c r="G11" s="70" t="s">
+        <v>281</v>
+      </c>
+      <c r="H11" s="69" t="s">
+        <v>280</v>
+      </c>
+      <c r="I11" s="69" t="s">
+        <v>279</v>
       </c>
       <c r="J11" s="31" t="s">
         <v>66</v>
@@ -2637,32 +2688,32 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25">
+      <c r="A12" s="62">
         <v>3</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="28">
-        <v>45293</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>109</v>
+      <c r="F12" s="68">
+        <v>45315</v>
+      </c>
+      <c r="G12" s="70" t="s">
+        <v>284</v>
+      </c>
+      <c r="H12" s="69" t="s">
+        <v>283</v>
+      </c>
+      <c r="I12" s="69" t="s">
+        <v>282</v>
       </c>
       <c r="J12" s="31" t="s">
         <v>66</v>
@@ -2681,32 +2732,32 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25">
+      <c r="A13" s="62">
         <v>4</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="28">
-        <v>45302</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="I13" s="30" t="s">
-        <v>133</v>
+      <c r="F13" s="68">
+        <v>45315</v>
+      </c>
+      <c r="G13" s="70" t="s">
+        <v>287</v>
+      </c>
+      <c r="H13" s="69" t="s">
+        <v>286</v>
+      </c>
+      <c r="I13" s="69" t="s">
+        <v>285</v>
       </c>
       <c r="J13" s="31" t="s">
         <v>66</v>
@@ -2725,32 +2776,32 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25">
+      <c r="A14" s="62">
         <v>5</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="28">
-        <v>45294</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="H14" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="I14" s="30" t="s">
-        <v>112</v>
+      <c r="F14" s="68">
+        <v>45315</v>
+      </c>
+      <c r="G14" s="70" t="s">
+        <v>290</v>
+      </c>
+      <c r="H14" s="69" t="s">
+        <v>289</v>
+      </c>
+      <c r="I14" s="69" t="s">
+        <v>288</v>
       </c>
       <c r="J14" s="31" t="s">
         <v>66</v>
@@ -2769,32 +2820,32 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25">
+      <c r="A15" s="62">
         <v>28</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="28">
-        <v>45306</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="I15" s="30" t="s">
-        <v>114</v>
+      <c r="F15" s="68">
+        <v>45315</v>
+      </c>
+      <c r="G15" s="70" t="s">
+        <v>292</v>
+      </c>
+      <c r="H15" s="69" t="s">
+        <v>291</v>
+      </c>
+      <c r="I15" s="69" t="s">
+        <v>103</v>
       </c>
       <c r="J15" s="31" t="s">
         <v>66</v>
@@ -2807,13 +2858,13 @@
         <v>66</v>
       </c>
       <c r="N15" s="31" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="O15" s="31" t="s">
         <v>66</v>
       </c>
       <c r="P15" s="31" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="Q15" s="31"/>
       <c r="R15" s="32"/>
@@ -2823,32 +2874,32 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25">
+      <c r="A16" s="62">
         <v>36</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="28">
-        <v>45306</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="H16" s="29" t="s">
-        <v>143</v>
+      <c r="F16" s="68">
+        <v>45315</v>
+      </c>
+      <c r="G16" s="70" t="s">
+        <v>294</v>
+      </c>
+      <c r="H16" s="70" t="s">
+        <v>293</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="J16" s="31" t="s">
         <v>66</v>
@@ -2861,13 +2912,13 @@
         <v>66</v>
       </c>
       <c r="N16" s="31" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="O16" s="31" t="s">
         <v>66</v>
       </c>
       <c r="P16" s="31" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="Q16" s="31"/>
       <c r="R16" s="32"/>
@@ -2905,13 +2956,13 @@
         <v>66</v>
       </c>
       <c r="N17" s="31" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="O17" s="31" t="s">
         <v>66</v>
       </c>
       <c r="P17" s="31" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="Q17" s="31"/>
       <c r="R17" s="32"/>
@@ -2944,7 +2995,7 @@
         <v>98</v>
       </c>
       <c r="K18" s="31" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="L18" s="31"/>
       <c r="M18" s="31"/>
@@ -2982,14 +3033,14 @@
         <v>98</v>
       </c>
       <c r="K19" s="31" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="L19" s="31"/>
       <c r="M19" s="31"/>
       <c r="N19" s="31"/>
       <c r="O19" s="31"/>
       <c r="P19" s="31" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="31"/>
       <c r="R19" s="32"/>
@@ -3022,7 +3073,7 @@
         <v>98</v>
       </c>
       <c r="K20" s="31" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="L20" s="31"/>
       <c r="M20" s="31"/>
@@ -3060,7 +3111,7 @@
         <v>98</v>
       </c>
       <c r="K21" s="31" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="L21" s="31"/>
       <c r="M21" s="31"/>
@@ -3098,7 +3149,7 @@
         <v>98</v>
       </c>
       <c r="K22" s="31" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="L22" s="31"/>
       <c r="M22" s="31"/>
@@ -3136,7 +3187,7 @@
         <v>98</v>
       </c>
       <c r="K23" s="31" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L23" s="31"/>
       <c r="M23" s="31"/>
@@ -3174,7 +3225,7 @@
         <v>98</v>
       </c>
       <c r="K24" s="31" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="L24" s="31"/>
       <c r="M24" s="31"/>
@@ -3212,7 +3263,7 @@
         <v>98</v>
       </c>
       <c r="K25" s="31" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="L25" s="31"/>
       <c r="M25" s="31"/>
@@ -3250,7 +3301,7 @@
         <v>98</v>
       </c>
       <c r="K26" s="31" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="L26" s="31"/>
       <c r="M26" s="31"/>
@@ -3288,7 +3339,7 @@
         <v>98</v>
       </c>
       <c r="K27" s="31" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="L27" s="31"/>
       <c r="M27" s="31"/>
@@ -3303,32 +3354,32 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35">
+      <c r="A28" s="65">
         <v>62</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="E28" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="F28" s="38">
-        <v>45303</v>
-      </c>
-      <c r="G28" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="H28" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="I28" s="40" t="s">
-        <v>138</v>
+      <c r="D28" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="73">
+        <v>45315</v>
+      </c>
+      <c r="G28" s="72" t="s">
+        <v>297</v>
+      </c>
+      <c r="H28" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="I28" s="71" t="s">
+        <v>296</v>
       </c>
       <c r="J28" s="31" t="s">
         <v>66</v>
@@ -3341,13 +3392,13 @@
         <v>66</v>
       </c>
       <c r="N28" s="41" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="O28" s="31" t="s">
         <v>66</v>
       </c>
       <c r="P28" s="31" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="Q28" s="41"/>
       <c r="R28" s="42"/>
@@ -3367,22 +3418,22 @@
         <v>45</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="F29" s="38">
         <v>45313</v>
       </c>
       <c r="G29" s="39" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="H29" s="40" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="I29" s="40" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="J29" s="41" t="s">
         <v>66</v>
@@ -3411,22 +3462,22 @@
         <v>57</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F30" s="28">
         <v>45313</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="J30" s="31" t="s">
         <v>66</v>
@@ -3455,10 +3506,10 @@
         <v>57</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="F31" s="28"/>
       <c r="G31" s="29"/>
@@ -3468,7 +3519,7 @@
         <v>98</v>
       </c>
       <c r="K31" s="31" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="L31" s="31"/>
       <c r="M31" s="31"/>
@@ -3493,10 +3544,10 @@
         <v>57</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="F32" s="28"/>
       <c r="G32" s="30"/>
@@ -3506,7 +3557,7 @@
         <v>98</v>
       </c>
       <c r="K32" s="31" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="L32" s="31"/>
       <c r="M32" s="31"/>
@@ -3531,10 +3582,10 @@
         <v>57</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="F33" s="28"/>
       <c r="G33" s="30"/>
@@ -3544,7 +3595,7 @@
         <v>98</v>
       </c>
       <c r="K33" s="31" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="L33" s="31"/>
       <c r="M33" s="31"/>
@@ -3569,7 +3620,7 @@
         <v>57</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="E34" s="27" t="s">
         <v>59</v>
@@ -3578,13 +3629,13 @@
         <v>45313</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="H34" s="30" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="I34" s="30" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="J34" s="31" t="s">
         <v>66</v>
@@ -3597,13 +3648,13 @@
         <v>66</v>
       </c>
       <c r="N34" s="31" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="O34" s="31" t="s">
         <v>66</v>
       </c>
       <c r="P34" s="31" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="Q34" s="31"/>
       <c r="R34" s="32"/>
@@ -3623,7 +3674,7 @@
         <v>57</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="E35" s="27" t="s">
         <v>63</v>
@@ -3632,13 +3683,13 @@
         <v>45313</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="H35" s="30" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="I35" s="30" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="J35" s="31" t="s">
         <v>66</v>
@@ -3651,13 +3702,13 @@
         <v>66</v>
       </c>
       <c r="N35" s="31" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="O35" s="31" t="s">
         <v>66</v>
       </c>
       <c r="P35" s="31" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="Q35" s="31"/>
       <c r="R35" s="32"/>
@@ -3677,7 +3728,7 @@
         <v>57</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E36" s="27" t="s">
         <v>65</v>
@@ -3695,13 +3746,13 @@
         <v>66</v>
       </c>
       <c r="N36" s="31" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="O36" s="31" t="s">
         <v>66</v>
       </c>
       <c r="P36" s="31" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="Q36" s="31"/>
       <c r="R36" s="32"/>
@@ -3721,10 +3772,10 @@
         <v>57</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="F37" s="28"/>
       <c r="G37" s="30"/>
@@ -3734,7 +3785,7 @@
         <v>98</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="L37" s="31"/>
       <c r="M37" s="31"/>
@@ -3759,10 +3810,10 @@
         <v>57</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="F38" s="28"/>
       <c r="G38" s="30"/>
@@ -3772,7 +3823,7 @@
         <v>98</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="L38" s="31"/>
       <c r="M38" s="31"/>
@@ -3797,10 +3848,10 @@
         <v>57</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="F39" s="28"/>
       <c r="G39" s="30"/>
@@ -3810,7 +3861,7 @@
         <v>98</v>
       </c>
       <c r="K39" s="24" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="L39" s="31"/>
       <c r="M39" s="31"/>
@@ -3835,10 +3886,10 @@
         <v>57</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="F40" s="28"/>
       <c r="G40" s="30"/>
@@ -3848,7 +3899,7 @@
         <v>98</v>
       </c>
       <c r="K40" s="24" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="L40" s="31"/>
       <c r="M40" s="31"/>
@@ -3873,10 +3924,10 @@
         <v>57</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="F41" s="28"/>
       <c r="G41" s="30"/>
@@ -3886,7 +3937,7 @@
         <v>98</v>
       </c>
       <c r="K41" s="24" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="L41" s="31"/>
       <c r="M41" s="31"/>
@@ -3911,10 +3962,10 @@
         <v>57</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="F42" s="28"/>
       <c r="G42" s="30"/>
@@ -3924,7 +3975,7 @@
         <v>98</v>
       </c>
       <c r="K42" s="24" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="L42" s="31"/>
       <c r="M42" s="31"/>
@@ -3949,10 +4000,10 @@
         <v>57</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="F43" s="28"/>
       <c r="G43" s="30"/>
@@ -3962,7 +4013,7 @@
         <v>98</v>
       </c>
       <c r="K43" s="24" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="L43" s="31"/>
       <c r="M43" s="31"/>
@@ -3987,10 +4038,10 @@
         <v>57</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="F44" s="28"/>
       <c r="G44" s="30"/>
@@ -4000,7 +4051,7 @@
         <v>98</v>
       </c>
       <c r="K44" s="24" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="L44" s="31"/>
       <c r="M44" s="31"/>
@@ -4025,10 +4076,10 @@
         <v>57</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="F45" s="28"/>
       <c r="G45" s="30"/>
@@ -4038,7 +4089,7 @@
         <v>98</v>
       </c>
       <c r="K45" s="24" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="L45" s="31"/>
       <c r="M45" s="31"/>
@@ -4063,10 +4114,10 @@
         <v>57</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="F46" s="28"/>
       <c r="G46" s="30"/>
@@ -4076,7 +4127,7 @@
         <v>98</v>
       </c>
       <c r="K46" s="31" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="L46" s="31"/>
       <c r="M46" s="31"/>
@@ -4101,22 +4152,22 @@
         <v>57</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="F47" s="28">
         <v>45313</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="H47" s="30" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="I47" s="30" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="J47" s="31" t="s">
         <v>66</v>
@@ -4129,13 +4180,13 @@
         <v>66</v>
       </c>
       <c r="N47" s="31" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="O47" s="31" t="s">
         <v>66</v>
       </c>
       <c r="P47" s="31" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="Q47" s="31"/>
       <c r="R47" s="32"/>
@@ -4155,10 +4206,10 @@
         <v>57</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="F48" s="28"/>
       <c r="G48" s="30"/>
@@ -4168,7 +4219,7 @@
         <v>98</v>
       </c>
       <c r="K48" s="31" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="L48" s="31"/>
       <c r="M48" s="31"/>
@@ -4193,10 +4244,10 @@
         <v>57</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="E49" s="27" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="F49" s="28"/>
       <c r="G49" s="30"/>
@@ -4206,7 +4257,7 @@
         <v>98</v>
       </c>
       <c r="K49" s="31" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="L49" s="31"/>
       <c r="M49" s="31"/>
@@ -4231,10 +4282,10 @@
         <v>57</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="F50" s="28"/>
       <c r="G50" s="30"/>
@@ -4244,7 +4295,7 @@
         <v>98</v>
       </c>
       <c r="K50" s="31" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="L50" s="31"/>
       <c r="M50" s="31"/>
@@ -4269,10 +4320,10 @@
         <v>57</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="F51" s="28"/>
       <c r="G51" s="30"/>
@@ -4282,7 +4333,7 @@
         <v>98</v>
       </c>
       <c r="K51" s="31" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="L51" s="31"/>
       <c r="M51" s="31"/>
@@ -4307,10 +4358,10 @@
         <v>57</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="F52" s="28"/>
       <c r="G52" s="30"/>
@@ -4320,7 +4371,7 @@
         <v>98</v>
       </c>
       <c r="K52" s="31" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="L52" s="31"/>
       <c r="M52" s="31"/>
@@ -4345,10 +4396,10 @@
         <v>57</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="E53" s="27" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="F53" s="28"/>
       <c r="G53" s="30"/>
@@ -4358,7 +4409,7 @@
         <v>98</v>
       </c>
       <c r="K53" s="31" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="L53" s="31"/>
       <c r="M53" s="31"/>
@@ -4383,10 +4434,10 @@
         <v>57</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="F54" s="28"/>
       <c r="G54" s="30"/>
@@ -4396,7 +4447,7 @@
         <v>98</v>
       </c>
       <c r="K54" s="31" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="L54" s="31"/>
       <c r="M54" s="31"/>
@@ -4421,10 +4472,10 @@
         <v>57</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="E55" s="27" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="F55" s="28"/>
       <c r="G55" s="30"/>
@@ -4434,7 +4485,7 @@
         <v>98</v>
       </c>
       <c r="K55" s="31" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="L55" s="31"/>
       <c r="M55" s="31"/>
@@ -4459,7 +4510,7 @@
         <v>61</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="E56" s="27" t="s">
         <v>59</v>
@@ -4468,13 +4519,13 @@
         <v>45313</v>
       </c>
       <c r="G56" s="29" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="H56" s="30" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="I56" s="30" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="J56" s="31" t="s">
         <v>66</v>
@@ -4487,13 +4538,13 @@
         <v>66</v>
       </c>
       <c r="N56" s="31" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="O56" s="31" t="s">
         <v>66</v>
       </c>
       <c r="P56" s="31" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="Q56" s="31"/>
       <c r="R56" s="32"/>
@@ -4513,7 +4564,7 @@
         <v>61</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="E57" s="27" t="s">
         <v>63</v>
@@ -4522,16 +4573,16 @@
         <v>45313</v>
       </c>
       <c r="G57" s="29" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="H57" s="30" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="I57" s="30" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="J57" s="31" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="K57" s="31"/>
       <c r="L57" s="31" t="s">
@@ -4541,13 +4592,13 @@
         <v>66</v>
       </c>
       <c r="N57" s="31" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="O57" s="31" t="s">
         <v>66</v>
       </c>
       <c r="P57" s="31" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="Q57" s="31"/>
       <c r="R57" s="32"/>
@@ -4567,7 +4618,7 @@
         <v>61</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="E58" s="27" t="s">
         <v>65</v>
@@ -4585,13 +4636,13 @@
         <v>66</v>
       </c>
       <c r="N58" s="31" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="O58" s="31" t="s">
         <v>66</v>
       </c>
       <c r="P58" s="31" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="Q58" s="31"/>
       <c r="R58" s="32"/>
@@ -4611,22 +4662,22 @@
         <v>61</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="F59" s="28">
         <v>45313</v>
       </c>
       <c r="G59" s="29" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="H59" s="30" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="I59" s="30" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="J59" s="31" t="s">
         <v>66</v>
@@ -4655,10 +4706,10 @@
         <v>61</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="E60" s="27" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="F60" s="28"/>
       <c r="G60" s="30"/>
@@ -4668,7 +4719,7 @@
         <v>98</v>
       </c>
       <c r="K60" s="31" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="L60" s="31"/>
       <c r="M60" s="31"/>
@@ -4693,10 +4744,10 @@
         <v>61</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="E61" s="27" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="F61" s="28"/>
       <c r="G61" s="30"/>
@@ -4706,7 +4757,7 @@
         <v>98</v>
       </c>
       <c r="K61" s="31" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="L61" s="31"/>
       <c r="M61" s="31"/>
@@ -4731,10 +4782,10 @@
         <v>61</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="E62" s="27" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="F62" s="28"/>
       <c r="G62" s="30"/>
@@ -4744,7 +4795,7 @@
         <v>98</v>
       </c>
       <c r="K62" s="31" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="L62" s="31"/>
       <c r="M62" s="31"/>
@@ -4769,10 +4820,10 @@
         <v>61</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="F63" s="28"/>
       <c r="G63" s="30"/>
@@ -4782,7 +4833,7 @@
         <v>98</v>
       </c>
       <c r="K63" s="31" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="L63" s="41"/>
       <c r="M63" s="31"/>
@@ -4807,10 +4858,10 @@
         <v>61</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="E64" s="27" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="F64" s="28"/>
       <c r="G64" s="30"/>
@@ -4820,7 +4871,7 @@
         <v>98</v>
       </c>
       <c r="K64" s="31" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="L64" s="31"/>
       <c r="M64" s="31"/>
@@ -4845,10 +4896,10 @@
         <v>61</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="F65" s="28"/>
       <c r="G65" s="30"/>
@@ -4858,7 +4909,7 @@
         <v>98</v>
       </c>
       <c r="K65" s="31" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="L65" s="31"/>
       <c r="M65" s="31"/>
@@ -4883,10 +4934,10 @@
         <v>61</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="F66" s="28"/>
       <c r="G66" s="30"/>
@@ -4896,7 +4947,7 @@
         <v>98</v>
       </c>
       <c r="K66" s="41" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="L66" s="31"/>
       <c r="M66" s="31"/>
@@ -4921,10 +4972,10 @@
         <v>61</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="F67" s="28"/>
       <c r="G67" s="30"/>
@@ -4934,7 +4985,7 @@
         <v>98</v>
       </c>
       <c r="K67" s="41" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="L67" s="31"/>
       <c r="M67" s="31"/>
@@ -4959,10 +5010,10 @@
         <v>61</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="E68" s="27" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="F68" s="28"/>
       <c r="G68" s="30"/>
@@ -4972,7 +5023,7 @@
         <v>98</v>
       </c>
       <c r="K68" s="31" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="L68" s="31"/>
       <c r="M68" s="31"/>
@@ -4997,10 +5048,10 @@
         <v>61</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="F69" s="28"/>
       <c r="G69" s="30"/>
@@ -5010,7 +5061,7 @@
         <v>98</v>
       </c>
       <c r="K69" s="41" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="L69" s="31"/>
       <c r="M69" s="31"/>
@@ -5035,10 +5086,10 @@
         <v>61</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="E70" s="27" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F70" s="28"/>
       <c r="G70" s="30"/>
@@ -5048,7 +5099,7 @@
         <v>98</v>
       </c>
       <c r="K70" s="41" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="L70" s="31"/>
       <c r="M70" s="31"/>
@@ -5073,10 +5124,10 @@
         <v>61</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="F71" s="28"/>
       <c r="G71" s="30"/>
@@ -5086,7 +5137,7 @@
         <v>98</v>
       </c>
       <c r="K71" s="41" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="L71" s="31"/>
       <c r="M71" s="31"/>
@@ -5111,10 +5162,10 @@
         <v>61</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="E72" s="27" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="F72" s="28"/>
       <c r="G72" s="30"/>
@@ -5124,7 +5175,7 @@
         <v>98</v>
       </c>
       <c r="K72" s="41" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="L72" s="31"/>
       <c r="M72" s="31"/>
@@ -5149,10 +5200,10 @@
         <v>61</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="F73" s="28"/>
       <c r="G73" s="30"/>
@@ -5162,7 +5213,7 @@
         <v>98</v>
       </c>
       <c r="K73" s="41" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="L73" s="31"/>
       <c r="M73" s="31"/>
@@ -5187,10 +5238,10 @@
         <v>61</v>
       </c>
       <c r="D74" s="26" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="E74" s="27" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="F74" s="28"/>
       <c r="G74" s="30"/>
@@ -5200,7 +5251,7 @@
         <v>98</v>
       </c>
       <c r="K74" s="41" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="L74" s="31"/>
       <c r="M74" s="31"/>
@@ -5225,10 +5276,10 @@
         <v>61</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="E75" s="27" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="F75" s="28"/>
       <c r="G75" s="30"/>
@@ -5238,7 +5289,7 @@
         <v>98</v>
       </c>
       <c r="K75" s="41" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="L75" s="31"/>
       <c r="M75" s="31"/>
@@ -5263,10 +5314,10 @@
         <v>61</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="E76" s="27" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="F76" s="28"/>
       <c r="G76" s="30"/>
@@ -5276,7 +5327,7 @@
         <v>98</v>
       </c>
       <c r="K76" s="41" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="L76" s="31"/>
       <c r="M76" s="31"/>
@@ -5301,10 +5352,10 @@
         <v>61</v>
       </c>
       <c r="D77" s="26" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="E77" s="27" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="F77" s="28"/>
       <c r="G77" s="30"/>
@@ -5314,7 +5365,7 @@
         <v>98</v>
       </c>
       <c r="K77" s="41" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="L77" s="31"/>
       <c r="M77" s="31"/>
@@ -5339,10 +5390,10 @@
         <v>61</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="E78" s="27" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="F78" s="28"/>
       <c r="G78" s="30"/>
@@ -5352,7 +5403,7 @@
         <v>98</v>
       </c>
       <c r="K78" s="41" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="L78" s="31"/>
       <c r="M78" s="31"/>
@@ -5377,10 +5428,10 @@
         <v>61</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="F79" s="28"/>
       <c r="G79" s="30"/>
@@ -5390,7 +5441,7 @@
         <v>98</v>
       </c>
       <c r="K79" s="41" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="L79" s="31"/>
       <c r="M79" s="31"/>
@@ -5415,10 +5466,10 @@
         <v>61</v>
       </c>
       <c r="D80" s="26" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="E80" s="27" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="F80" s="28"/>
       <c r="G80" s="30"/>
@@ -5428,7 +5479,7 @@
         <v>98</v>
       </c>
       <c r="K80" s="41" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="L80" s="31"/>
       <c r="M80" s="31"/>
@@ -5453,10 +5504,10 @@
         <v>61</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="E81" s="27" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="F81" s="28"/>
       <c r="G81" s="30"/>
@@ -5466,7 +5517,7 @@
         <v>98</v>
       </c>
       <c r="K81" s="41" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="L81" s="31"/>
       <c r="M81" s="31"/>

--- a/GATEWAY/A1#111PROACTIVEXX/Proactive/Labpro/5.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111PROACTIVEXX/Proactive/Labpro/5.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vb_net_prj\API_REGIONETOSCANA\FSE 2.0\perValidazione\LAB+RAD+RSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64A4402-2534-4AA7-8E39-69E21A97CA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A255C9-7513-410A-ACE5-29E74AC4F639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="299">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1274,6 +1274,9 @@
   </si>
   <si>
     <t>20240124171704</t>
+  </si>
+  <si>
+    <t>Il software garantisce che il Codice dell'esame eseguito sia sempre valorizzato</t>
   </si>
 </sst>
 </file>
@@ -1369,7 +1372,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1403,6 +1406,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1658,7 +1667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1786,36 +1795,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1853,6 +1837,59 @@
     <xf numFmtId="164" fontId="10" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2342,10 +2379,10 @@
   <dimension ref="A1:T642"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="D34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
+      <selection pane="bottomRight" activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2384,14 +2421,14 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="64"/>
+      <c r="C2" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="53"/>
+      <c r="D2" s="64"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -2409,14 +2446,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="61" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="53"/>
+      <c r="D3" s="64"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -2434,12 +2471,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="61" t="s">
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="53"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -2458,12 +2495,12 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="61" t="s">
+      <c r="A5" s="70"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="53"/>
+      <c r="D5" s="64"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -2481,8 +2518,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="51"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -2600,31 +2637,31 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="62">
+      <c r="A10" s="49">
         <v>1</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="68">
+      <c r="F10" s="55">
         <v>45315</v>
       </c>
-      <c r="G10" s="70" t="s">
+      <c r="G10" s="57" t="s">
         <v>278</v>
       </c>
-      <c r="H10" s="69" t="s">
+      <c r="H10" s="56" t="s">
         <v>277</v>
       </c>
-      <c r="I10" s="69" t="s">
+      <c r="I10" s="56" t="s">
         <v>276</v>
       </c>
       <c r="J10" s="31" t="s">
@@ -2644,31 +2681,31 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="62">
+      <c r="A11" s="49">
         <v>2</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="64" t="s">
+      <c r="E11" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="68">
+      <c r="F11" s="55">
         <v>45315</v>
       </c>
-      <c r="G11" s="70" t="s">
+      <c r="G11" s="57" t="s">
         <v>281</v>
       </c>
-      <c r="H11" s="69" t="s">
+      <c r="H11" s="56" t="s">
         <v>280</v>
       </c>
-      <c r="I11" s="69" t="s">
+      <c r="I11" s="56" t="s">
         <v>279</v>
       </c>
       <c r="J11" s="31" t="s">
@@ -2688,31 +2725,31 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="62">
+      <c r="A12" s="49">
         <v>3</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="64" t="s">
+      <c r="E12" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="68">
+      <c r="F12" s="55">
         <v>45315</v>
       </c>
-      <c r="G12" s="70" t="s">
+      <c r="G12" s="57" t="s">
         <v>284</v>
       </c>
-      <c r="H12" s="69" t="s">
+      <c r="H12" s="56" t="s">
         <v>283</v>
       </c>
-      <c r="I12" s="69" t="s">
+      <c r="I12" s="56" t="s">
         <v>282</v>
       </c>
       <c r="J12" s="31" t="s">
@@ -2732,31 +2769,31 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="62">
+      <c r="A13" s="49">
         <v>4</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="64" t="s">
+      <c r="E13" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="68">
+      <c r="F13" s="55">
         <v>45315</v>
       </c>
-      <c r="G13" s="70" t="s">
+      <c r="G13" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="H13" s="69" t="s">
+      <c r="H13" s="56" t="s">
         <v>286</v>
       </c>
-      <c r="I13" s="69" t="s">
+      <c r="I13" s="56" t="s">
         <v>285</v>
       </c>
       <c r="J13" s="31" t="s">
@@ -2776,31 +2813,31 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="62">
+      <c r="A14" s="49">
         <v>5</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="E14" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="68">
+      <c r="F14" s="55">
         <v>45315</v>
       </c>
-      <c r="G14" s="70" t="s">
+      <c r="G14" s="57" t="s">
         <v>290</v>
       </c>
-      <c r="H14" s="69" t="s">
+      <c r="H14" s="56" t="s">
         <v>289</v>
       </c>
-      <c r="I14" s="69" t="s">
+      <c r="I14" s="56" t="s">
         <v>288</v>
       </c>
       <c r="J14" s="31" t="s">
@@ -2820,31 +2857,31 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="62">
+      <c r="A15" s="49">
         <v>28</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="64" t="s">
+      <c r="E15" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="68">
+      <c r="F15" s="55">
         <v>45315</v>
       </c>
-      <c r="G15" s="70" t="s">
+      <c r="G15" s="57" t="s">
         <v>292</v>
       </c>
-      <c r="H15" s="69" t="s">
+      <c r="H15" s="56" t="s">
         <v>291</v>
       </c>
-      <c r="I15" s="69" t="s">
+      <c r="I15" s="56" t="s">
         <v>103</v>
       </c>
       <c r="J15" s="31" t="s">
@@ -2874,28 +2911,28 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="62">
+      <c r="A16" s="49">
         <v>36</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="64" t="s">
+      <c r="E16" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="68">
+      <c r="F16" s="55">
         <v>45315</v>
       </c>
-      <c r="G16" s="70" t="s">
+      <c r="G16" s="57" t="s">
         <v>294</v>
       </c>
-      <c r="H16" s="70" t="s">
+      <c r="H16" s="57" t="s">
         <v>293</v>
       </c>
       <c r="I16" s="30" t="s">
@@ -3354,31 +3391,31 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="65">
+      <c r="A28" s="52">
         <v>62</v>
       </c>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="66" t="s">
+      <c r="C28" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="66" t="s">
+      <c r="D28" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="E28" s="67" t="s">
+      <c r="E28" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="F28" s="73">
+      <c r="F28" s="60">
         <v>45315</v>
       </c>
-      <c r="G28" s="72" t="s">
+      <c r="G28" s="59" t="s">
         <v>297</v>
       </c>
-      <c r="H28" s="71" t="s">
+      <c r="H28" s="58" t="s">
         <v>295</v>
       </c>
-      <c r="I28" s="71" t="s">
+      <c r="I28" s="58" t="s">
         <v>296</v>
       </c>
       <c r="J28" s="31" t="s">
@@ -4085,7 +4122,7 @@
       <c r="G45" s="30"/>
       <c r="H45" s="30"/>
       <c r="I45" s="30"/>
-      <c r="J45" s="48" t="s">
+      <c r="J45" s="47" t="s">
         <v>98</v>
       </c>
       <c r="K45" s="24" t="s">
@@ -4103,41 +4140,41 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="25">
+    <row r="46" spans="1:20" s="83" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="73">
         <v>84</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="E46" s="27" t="s">
+      <c r="E46" s="75" t="s">
         <v>153</v>
       </c>
-      <c r="F46" s="28"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="47" t="s">
+      <c r="F46" s="76"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="77"/>
+      <c r="I46" s="77"/>
+      <c r="J46" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="K46" s="31" t="s">
-        <v>237</v>
-      </c>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="31"/>
-      <c r="Q46" s="31"/>
-      <c r="R46" s="32"/>
-      <c r="S46" s="33"/>
-      <c r="T46" s="34" t="s">
+      <c r="K46" s="79" t="s">
+        <v>298</v>
+      </c>
+      <c r="L46" s="79"/>
+      <c r="M46" s="79"/>
+      <c r="N46" s="79"/>
+      <c r="O46" s="79"/>
+      <c r="P46" s="79"/>
+      <c r="Q46" s="79"/>
+      <c r="R46" s="80"/>
+      <c r="S46" s="81"/>
+      <c r="T46" s="82" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4652,7 +4689,7 @@
       </c>
     </row>
     <row r="59" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="49">
+      <c r="A59" s="48">
         <v>147</v>
       </c>
       <c r="B59" s="26" t="s">
@@ -4696,7 +4733,7 @@
       </c>
     </row>
     <row r="60" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="49">
+      <c r="A60" s="48">
         <v>148</v>
       </c>
       <c r="B60" s="26" t="s">
@@ -4734,7 +4771,7 @@
       </c>
     </row>
     <row r="61" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="49">
+      <c r="A61" s="48">
         <v>149</v>
       </c>
       <c r="B61" s="26" t="s">
@@ -4772,7 +4809,7 @@
       </c>
     </row>
     <row r="62" spans="1:20" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="49">
+      <c r="A62" s="48">
         <v>150</v>
       </c>
       <c r="B62" s="26" t="s">
